--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
     <sheet name="Общие по месяцу" sheetId="3" r:id="rId2"/>
-    <sheet name="Посещ-сть по месяцам" sheetId="5" r:id="rId3"/>
+    <sheet name="Посещ-сть по месяцам" sheetId="7" r:id="rId3"/>
     <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -19,15 +19,15 @@
     <definedName name="dimensions_line" localSheetId="2">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
-    <definedName name="ExternalData_1" localSheetId="2">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
-    <definedName name="ExternalData_2" localSheetId="2">'Посещ-сть по месяцам'!$A$40:$H$47</definedName>
+    <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
     <definedName name="for_hist_1" localSheetId="2">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="2">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,24 +56,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Ведущий специалист проекта: </t>
+    <t>Отчет по продвижению сайта</t>
+  </si>
+  <si>
+    <t>Отчетный период</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель проекта: </t>
   </si>
   <si>
     <t xml:space="preserve">Руководитель отдела: </t>
   </si>
   <si>
-    <t xml:space="preserve">Руководитель проекта: </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Отчетный период</t>
-  </si>
-  <si>
-    <t>Отчет по продвижению сайта</t>
+    <t xml:space="preserve">Ведущий специалист проекта: </t>
   </si>
   <si>
     <t>Статистика посещаемости сайта и достижение целей</t>
@@ -313,282 +313,6 @@
   <si>
     <t>Достижения целей</t>
   </si>
-  <si>
-    <t>Январь 2018</t>
-  </si>
-  <si>
-    <t>872</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>00:01:47</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Февраль 2018</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>2488</t>
-  </si>
-  <si>
-    <t>00:01:48</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Март 2018</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>2933</t>
-  </si>
-  <si>
-    <t>00:01:52</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Апрель 2018</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>2468</t>
-  </si>
-  <si>
-    <t>00:01:30</t>
-  </si>
-  <si>
-    <t>Май 2018</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>3383</t>
-  </si>
-  <si>
-    <t>00:01:42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Июнь 2018</t>
-  </si>
-  <si>
-    <t>1617</t>
-  </si>
-  <si>
-    <t>3390</t>
-  </si>
-  <si>
-    <t>00:01:29</t>
-  </si>
-  <si>
-    <t>Июль 2018</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>2557</t>
-  </si>
-  <si>
-    <t>00:01:35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>00:03:10</t>
-  </si>
-  <si>
-    <t>3150</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>Декабрь 2017</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>00:01:59</t>
-  </si>
-  <si>
-    <t>2260</t>
-  </si>
-  <si>
-    <t>757</t>
-  </si>
-  <si>
-    <t>Ноябрь 2017</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>00:02:16</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>Октябрь 2017</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>00:02:22</t>
-  </si>
-  <si>
-    <t>2193</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>Сентябрь 2017</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>00:01:49</t>
-  </si>
-  <si>
-    <t>2475</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>Август 2017</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>00:02:21</t>
-  </si>
-  <si>
-    <t>2673</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>Июль 2017</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>00:02:02</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>Июнь 2017</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>00:01:45</t>
-  </si>
-  <si>
-    <t>1872</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>Май 2017</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>00:02:06</t>
-  </si>
-  <si>
-    <t>1834</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>Апрель 2017</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>00:02:27</t>
-  </si>
-  <si>
-    <t>2469</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>Март 2017</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>00:02:19</t>
-  </si>
-  <si>
-    <t>2351</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>Февраль 2017</t>
-  </si>
-  <si>
-    <t>00:02:43</t>
-  </si>
-  <si>
-    <t>2229</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>Январь 2017</t>
-  </si>
 </sst>
 </file>
 
@@ -598,12 +322,28 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,7 +364,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -641,35 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -742,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,24 +505,6 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
@@ -791,25 +513,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -823,30 +548,30 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,10 +604,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -891,50 +616,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,7 +682,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -956,7 +690,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -993,7 +727,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1023,7 +757,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1331,26 +1065,26 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Общие по месяцу'!$A$38:$A$70</c:f>
+              <c:f>'Общие по месяцу'!$A$38:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="31"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Общие по месяцу'!$B$38:$B$70</c:f>
+              <c:f>'Общие по месяцу'!$B$38:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="31"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54E3-444F-A11A-F1736DE39BA1}"/>
+              <c16:uniqueId val="{00000000-3839-401A-987C-46A0FA676FD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1558,7 +1292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1629,61 +1362,7 @@
               </c:extLst>
               <c:f>('Посещ-сть по месяцам'!$A$28:$A$32,'Посещ-сть по месяцам'!$A$34:$A$39,'Посещ-сть по месяцам'!$A$41:$A$47)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>Январь 2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Февраль 2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Март 2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Апрель 2017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Май 2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Июль 2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Август 2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Сентябрь 2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Октябрь 2017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ноябрь 2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Декабрь 2017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Январь 2018</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Февраль 2018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Март 2018</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Апрель 2018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Май 2018</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Июнь 2018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Июль 2018</c:v>
-                </c:pt>
+                <c:ptCount val="11"/>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1700,66 +1379,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>824</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>918</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1416</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1221</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1646</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1769</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1226</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-234B-49C4-9B4D-71EBCCB09AF0}"/>
+              <c16:uniqueId val="{00000000-DC2A-44AD-9846-1FDB0062ED6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3077,14 +2702,19 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3111962" cy="743870"/>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311612</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -3115,7 +2745,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3159,6 +2789,7 @@
       <sheetName val="Титульный"/>
       <sheetName val="Оглавление"/>
       <sheetName val="Общие по месяцу"/>
+      <sheetName val="Посещ-сть по месяцам"/>
       <sheetName val="Источники, сводка"/>
       <sheetName val="География"/>
       <sheetName val="Технологии"/>
@@ -3185,6 +2816,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3253,7 +2885,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="A37:G68"/>
-  <sortState ref="A38:G68">
+  <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
@@ -3296,8 +2928,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H47" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A40:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="6"/>
@@ -3581,8 +3213,8 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,54 +3226,54 @@
   <sheetData>
     <row r="1" spans="3:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="9"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="7"/>
+      <c r="H35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="39" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H41" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D24" s="7"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="4"/>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="39" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="7:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.8125" bottom="0" header="1.0416666666666666E-2" footer="0.31496062992125984"/>
@@ -3662,449 +3294,449 @@
   <dimension ref="A2:I69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="13" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="56" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="17"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="26">
+      <c r="A14" s="61"/>
+      <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Посетители])</f>
         <v>0</v>
       </c>
-      <c r="D14" s="27" t="e">
+      <c r="D14" s="28" t="e">
         <f>AVERAGE(Общие_показатели_по_месяцу[Доля новых посетителей])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="27" t="e">
+      <c r="E14" s="28" t="e">
         <f>AVERAGE(Общие_показатели_по_месяцу[Отказы])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="28" t="e">
+      <c r="F14" s="29" t="e">
         <f>AVERAGE(Общие_показатели_по_месяцу[Время на сайте])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="30">
         <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="37" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="37" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="38"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4122,657 +3754,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"
-           xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"
-           xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac"
-           xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-    <sheetPr codeName="Лист6">
-        <tabColor rgb="FF00B050"/>
-    </sheetPr>
-    <dimension ref="A2:J47"/>
-    <sheetViews>
-        <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100"
-                   zoomScaleSheetLayoutView="100" workbookViewId="0">
-            <selection activeCell="J27" sqref="J27"/>
-        </sheetView>
-    </sheetViews>
-    <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-    <cols>
-        <col min="1" max="1" width="13.42578125" style="41" customWidth="1"/>
-        <col min="2" max="2" width="12.28515625" style="42" customWidth="1"/>
-        <col min="3" max="4" width="16.28515625" style="42" customWidth="1"/>
-        <col min="5" max="5" width="29.140625" style="43" customWidth="1"/>
-        <col min="6" max="6" width="12.28515625" style="43" customWidth="1"/>
-        <col min="7" max="7" width="19.7109375" style="42" customWidth="1"/>
-        <col min="8" max="8" width="23.42578125" style="42" customWidth="1"/>
-        <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    </cols>
-    <sheetData>
-        <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-            <c r="E2" t="s">
-                <v>5</v>
-            </c>
-        </row>
-        <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-            <c r="E3" t="str">
-                <f>[1]Правила!B30</f>
-                <v>taritravel.com</v>
-            </c>
-        </row>
-        <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-            <c r="A4" s="44"/>
-            <c r="B4" s="45"/>
-            <c r="C4" s="45"/>
-            <c r="D4" s="45"/>
-            <c r="E4" s="46"/>
-            <c r="F4" s="46"/>
-            <c r="G4" s="45"/>
-            <c r="H4" s="45"/>
-        </row>
-        <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-            <c r="A6" s="56" t="str">
-                <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
-                <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
-            </c>
-            <c r="B6" s="56"/>
-            <c r="C6" s="56"/>
-            <c r="D6" s="56"/>
-            <c r="E6" s="56"/>
-            <c r="F6" s="56"/>
-            <c r="G6" s="56"/>
-            <c r="H6" s="56"/>
-            <c r="J6" s="47">
-                <f ca="1">TODAY()</f>
-                <v>43321</v>
-            </c>
-        </row>
-        <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-            <c r="A9" s="60" t="s">
-                <v>20</v>
-            </c>
-            <c r="B9" s="57"/>
-            <c r="C9" s="57"/>
-            <c r="D9" s="57"/>
-            <c r="E9" s="57"/>
-            <c r="F9" s="57"/>
-            <c r="G9" s="57"/>
-            <c r="H9" s="57"/>
-        </row>
-        <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-            <c r="A27" s="48" t="s">
-                <v>21</v>
-            </c>
-            <c r="B27" s="35" t="s">
-                <v>12</v>
-            </c>
-            <c r="C27" s="35" t="s">
-                <v>13</v>
-            </c>
-            <c r="D27" s="35" t="s">
-                <v>19</v>
-            </c>
-            <c r="E27" s="49" t="s">
-                <v>14</v>
-            </c>
-            <c r="F27" s="49" t="s">
-                <v>15</v>
-            </c>
-            <c r="G27" s="35" t="s">
-                <v>16</v>
-            </c>
-            <c r="H27" s="35" t="s">
-                <v>22</v>
-            </c>
-        </row>
-        <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-            <c r="A28" s="41" />
-
-            </c>
-            <c r="B28" s="42">
-                <v>850</v>
-            </c>
-            <c r="C28" s="42" t="s">
-                <v>113</v>
-            </c>
-            <c r="D28" s="42" t="s">
-                <v>112</v>
-            </c>
-            <c r="E28" s="50">
-                <v>0.95079594790159194</v>
-            </c>
-            <c r="F28" s="51">
-                <v>0.17647058823529413</v>
-            </c>
-            <c r="G28" s="42" t="s">
-                <v>111</v>
-            </c>
-            <c r="H28" s="42" t="s">
-                <v>56</v>
-            </c>
-        </row>
-        <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-            <c r="A29" s="41">
-                <v></v>
-            </c>
-            <c r="B29" s="52">
-                <v>915</v>
-            </c>
-            <c r="C29" s="52" t="s">
-                <v>109</v>
-            </c>
-            <c r="D29" s="52" t="s">
-                <v>108</v>
-            </c>
-            <c r="E29" s="50">
-                <v>0.93108108108108112</v>
-            </c>
-            <c r="F29" s="51">
-                <v>0.21639344262295082</v>
-            </c>
-            <c r="G29" s="52" t="s">
-                <v>107</v>
-            </c>
-            <c r="H29" s="52" t="s">
-                <v>106</v>
-            </c>
-        </row>
-        <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-            <c r="A30" s="41">
-                <v></v>
-            </c>
-            <c r="B30" s="52">
-                <v>929</v>
-            </c>
-            <c r="C30" s="52" t="s">
-                <v>104</v>
-            </c>
-            <c r="D30" s="52" t="s">
-                <v>103</v>
-            </c>
-            <c r="E30" s="50">
-                <v>0.94736842105263153</v>
-            </c>
-            <c r="F30" s="51">
-                <v>0.19052744886975245</v>
-            </c>
-            <c r="G30" s="52" t="s">
-                <v>102</v>
-            </c>
-            <c r="H30" s="52" t="s">
-                <v>101</v>
-            </c>
-        </row>
-        <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-            <c r="A31" s="41">
-                <v></v>
-            </c>
-            <c r="B31" s="52">
-                <v>749</v>
-            </c>
-            <c r="C31" s="52" t="s">
-                <v>99</v>
-            </c>
-            <c r="D31" s="52" t="s">
-                <v>98</v>
-            </c>
-            <c r="E31" s="50">
-                <v>0.94918032786885254</v>
-            </c>
-            <c r="F31" s="51">
-                <v>0.25634178905206945</v>
-            </c>
-            <c r="G31" s="52" t="s">
-                <v>97</v>
-            </c>
-            <c r="H31" s="52" t="s">
-                <v>96</v>
-            </c>
-        </row>
-        <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-            <c r="A32" s="41">
-                <v></v>
-            </c>
-            <c r="B32" s="52">
-                <v>824</v>
-            </c>
-            <c r="C32" s="52" t="s">
-                <v>94</v>
-            </c>
-            <c r="D32" s="52" t="s">
-                <v>93</v>
-            </c>
-            <c r="E32" s="50">
-                <v>0.94393939393939386</v>
-            </c>
-            <c r="F32" s="51">
-                <v>0.18932038834951456</v>
-            </c>
-            <c r="G32" s="52" t="s">
-                <v>92</v>
-            </c>
-            <c r="H32" s="52" t="s">
-                <v>91</v>
-            </c>
-        </row>
-        <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A33" s="41">
-                <v></v>
-            </c>
-            <c r="B33" s="52">
-                <v>922</v>
-            </c>
-            <c r="C33" s="52" t="s">
-                <v>89</v>
-            </c>
-            <c r="D33" s="52" t="s">
-                <v>88</v>
-            </c>
-            <c r="E33" s="50">
-                <v>0.95942408376963362</v>
-            </c>
-            <c r="F33" s="51">
-                <v>0.25921908893709328</v>
-            </c>
-            <c r="G33" s="52" t="s">
-                <v>87</v>
-            </c>
-            <c r="H33" s="52" t="s">
-                <v>86</v>
-            </c>
-        </row>
-        <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A34" s="41">
-                <v></v>
-            </c>
-            <c r="B34" s="52">
-                <v>1036</v>
-            </c>
-            <c r="C34" s="52" t="s">
-                <v>84</v>
-            </c>
-            <c r="D34" s="52" t="s">
-                <v>83</v>
-            </c>
-            <c r="E34" s="50">
-                <v>0.94853801169590635</v>
-            </c>
-            <c r="F34" s="51">
-                <v>0.2335907335907336</v>
-            </c>
-            <c r="G34" s="52" t="s">
-                <v>82</v>
-            </c>
-            <c r="H34" s="52" t="s">
-                <v>81</v>
-            </c>
-        </row>
-        <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A35" s="41">
-                <v></v>
-            </c>
-            <c r="B35" s="52">
-                <v>1089</v>
-            </c>
-            <c r="C35" s="52" t="s">
-                <v>79</v>
-            </c>
-            <c r="D35" s="52" t="s">
-                <v>78</v>
-            </c>
-            <c r="E35" s="50">
-                <v>0.93742478941034901</v>
-            </c>
-            <c r="F35" s="51">
-                <v>0.27915518824609736</v>
-            </c>
-            <c r="G35" s="52" t="s">
-                <v>77</v>
-            </c>
-            <c r="H35" s="52" t="s">
-                <v>76</v>
-            </c>
-        </row>
-        <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A36" s="41">
-                <v></v>
-            </c>
-            <c r="B36" s="52">
-                <v>964</v>
-            </c>
-            <c r="C36" s="52" t="s">
-                <v>74</v>
-            </c>
-            <c r="D36" s="52" t="s">
-                <v>73</v>
-            </c>
-            <c r="E36" s="50">
-                <v>0.94155844155844159</v>
-            </c>
-            <c r="F36" s="51">
-                <v>0.26556016597510373</v>
-            </c>
-            <c r="G36" s="52" t="s">
-                <v>72</v>
-            </c>
-            <c r="H36" s="52" t="s">
-                <v>71</v>
-            </c>
-            <c r="I36" s="53"/>
-        </row>
-        <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A37" s="41">
-                <v></v>
-            </c>
-            <c r="B37" s="52">
-                <v>855</v>
-            </c>
-            <c r="C37" s="52" t="s">
-                <v>69</v>
-            </c>
-            <c r="D37" s="52" t="s">
-                <v>68</v>
-            </c>
-            <c r="E37" s="50">
-                <v>0.93530239099859358</v>
-            </c>
-            <c r="F37" s="51">
-                <v>0.21871345029239767</v>
-            </c>
-            <c r="G37" s="52" t="s">
-                <v>67</v>
-            </c>
-            <c r="H37" s="52" t="s">
-                <v>66</v>
-            </c>
-            <c r="I37" s="53"/>
-        </row>
-        <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A38" s="41">
-                <v></v>
-            </c>
-            <c r="B38" s="52">
-                <v>918</v>
-            </c>
-            <c r="C38" s="52" t="s">
-                <v>64</v>
-            </c>
-            <c r="D38" s="52" t="s">
-                <v>63</v>
-            </c>
-            <c r="E38" s="50">
-                <v>0.94715984147952459</v>
-            </c>
-            <c r="F38" s="51">
-                <v>0.25054466230936817</v>
-            </c>
-            <c r="G38" s="52" t="s">
-                <v>62</v>
-            </c>
-            <c r="H38" s="52" t="s">
-                <v>61</v>
-            </c>
-            <c r="I38" s="53"/>
-        </row>
-        <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A39" s="41">
-                <v></v>
-            </c>
-            <c r="B39" s="52">
-                <v>1021</v>
-            </c>
-            <c r="C39" s="52" t="s">
-                <v>59</v>
-            </c>
-            <c r="D39" s="52" t="s">
-                <v>58</v>
-            </c>
-            <c r="E39" s="50">
-                <v>0.95261845386533661</v>
-            </c>
-            <c r="F39" s="51">
-                <v>0.23506366307541626</v>
-            </c>
-            <c r="G39" s="52" t="s">
-                <v>57</v>
-            </c>
-            <c r="H39" s="52" t="s">
-                <v>56</v>
-            </c>
-            <c r="I39" s="54"/>
-        </row>
-        <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A40" s="52" t="s">
-                <v>21</v>
-            </c>
-            <c r="B40" s="52" t="s">
-                <v>12</v>
-            </c>
-            <c r="C40" s="52" t="s">
-                <v>13</v>
-            </c>
-            <c r="D40" s="52" t="s">
-                <v>19</v>
-            </c>
-            <c r="E40" s="43" t="s">
-                <v>14</v>
-            </c>
-            <c r="F40" s="43" t="s">
-                <v>15</v>
-            </c>
-            <c r="G40" s="52" t="s">
-                <v>16</v>
-            </c>
-            <c r="H40" s="52" t="s">
-                <v>22</v>
-            </c>
-            <c r="I40" s="55"/>
-        </row>
-        <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A41" s="52">
-                <v></v>
-            </c>
-            <c r="B41" s="52">
-                <v>1013</v>
-            </c>
-            <c r="C41" s="52" t="s">
-                <v>24</v>
-            </c>
-            <c r="D41" s="52" t="s">
-                <v>25</v>
-            </c>
-            <c r="E41" s="50">
-                <v>0.95756880733944949</v>
-            </c>
-            <c r="F41" s="51">
-                <v>0.22803553800592302</v>
-            </c>
-            <c r="G41" s="52" t="s">
-                <v>26</v>
-            </c>
-            <c r="H41" s="52" t="s">
-                <v>27</v>
-            </c>
-        </row>
-        <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A42" s="52">
-                <v></v>
-            </c>
-            <c r="B42" s="52">
-                <v>1097</v>
-            </c>
-            <c r="C42" s="52" t="s">
-                <v>29</v>
-            </c>
-            <c r="D42" s="52" t="s">
-                <v>30</v>
-            </c>
-            <c r="E42" s="50">
-                <v>0.95634517766497462</v>
-            </c>
-            <c r="F42" s="51">
-                <v>0.21969006381039197</v>
-            </c>
-            <c r="G42" s="52" t="s">
-                <v>31</v>
-            </c>
-            <c r="H42" s="52" t="s">
-                <v>32</v>
-            </c>
-        </row>
-        <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A43" s="52">
-                <v></v>
-            </c>
-            <c r="B43" s="52">
-                <v>1416</v>
-            </c>
-            <c r="C43" s="52" t="s">
-                <v>34</v>
-            </c>
-            <c r="D43" s="52" t="s">
-                <v>35</v>
-            </c>
-            <c r="E43" s="50">
-                <v>0.96</v>
-            </c>
-            <c r="F43" s="51">
-                <v>0.22810734463276833</v>
-            </c>
-            <c r="G43" s="52" t="s">
-                <v>36</v>
-            </c>
-            <c r="H43" s="52" t="s">
-                <v>37</v>
-            </c>
-        </row>
-        <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A44" s="52">
-                <v></v>
-            </c>
-            <c r="B44" s="52">
-                <v>1221</v>
-            </c>
-            <c r="C44" s="52" t="s">
-                <v>39</v>
-            </c>
-            <c r="D44" s="52" t="s">
-                <v>40</v>
-            </c>
-            <c r="E44" s="50">
-                <v>0.95790458372310572</v>
-            </c>
-            <c r="F44" s="51">
-                <v>0.27436527436527436</v>
-            </c>
-            <c r="G44" s="52" t="s">
-                <v>41</v>
-            </c>
-            <c r="H44" s="52" t="s">
-                <v>32</v>
-            </c>
-        </row>
-        <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A45" s="52">
-                <v></v>
-            </c>
-            <c r="B45" s="52">
-                <v>1646</v>
-            </c>
-            <c r="C45" s="52" t="s">
-                <v>43</v>
-            </c>
-            <c r="D45" s="52" t="s">
-                <v>44</v>
-            </c>
-            <c r="E45" s="50">
-                <v>0.9688768606224627</v>
-            </c>
-            <c r="F45" s="51">
-                <v>0.29404617253948967</v>
-            </c>
-            <c r="G45" s="52" t="s">
-                <v>45</v>
-            </c>
-            <c r="H45" s="52" t="s">
-                <v>46</v>
-            </c>
-        </row>
-        <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A46" s="52">
-                <v></v>
-            </c>
-            <c r="B46" s="52">
-                <v>1769</v>
-            </c>
-            <c r="C46" s="52" t="s">
-                <v>48</v>
-            </c>
-            <c r="D46" s="52" t="s">
-                <v>49</v>
-            </c>
-            <c r="E46" s="50">
-                <v>0.97340754483611613</v>
-            </c>
-            <c r="F46" s="51">
-                <v>0.33973996608253254</v>
-            </c>
-            <c r="G46" s="52" t="s">
-                <v>50</v>
-            </c>
-            <c r="H46" s="52" t="s">
-                <v>46</v>
-            </c>
-        </row>
-        <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-            <c r="A47" s="52">
-                <v></v>
-            </c>
-            <c r="B47" s="52">
-                <v>1226</v>
-            </c>
-            <c r="C47" s="52" t="s">
-                <v>52</v>
-            </c>
-            <c r="D47" s="52" t="s">
-                <v>53</v>
-            </c>
-            <c r="E47" s="50">
-                <v>0.96265938069216761</v>
-            </c>
-            <c r="F47" s="51">
-                <v>0.33849918433931486</v>
-            </c>
-            <c r="G47" s="52" t="s">
-                <v>54</v>
-            </c>
-            <c r="H47" s="52" t="s">
-                <v>55</v>
-            </c>
-        </row>
-    </sheetData>
-    <mergeCells count="2">
-        <mergeCell ref="A9:H9"/>
-        <mergeCell ref="A6:H6"/>
-    </mergeCells>
-    <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
-    <drawing r:id="rId2"/>
-    <tableParts count="2">
-        <tablePart r:id="rId3"/>
-        <tablePart r:id="rId4"/>
-    </tableParts>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:J52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="43" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="62" t="str">
+        <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
+        <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="J6" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="50"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="48"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="48"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="48"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="48"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="48"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="48"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,28 +4,41 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
     <sheet name="Общие по месяцу" sheetId="3" r:id="rId2"/>
     <sheet name="Посещ-сть по месяцам" sheetId="7" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Источники, сводка" sheetId="8" r:id="rId4"/>
+    <sheet name="География" sheetId="10" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="2">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">География!$A$25:$F$50</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Источники, сводка'!$A$29:$G$34</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
+    <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Источники, сводка'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
+    <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="2">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="2">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">География!$A$1:$F$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Источники, сводка'!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
   </definedNames>
@@ -49,14 +62,20 @@
   <connection id="3" keepAlive="1" name="AttendanceMonths2018" description="Соединение с запросом &quot;Посещ-сть месяцы 2018&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Посещ-сть месяцы 2018;Extended Properties=&quot;&quot;" command="SELECT * FROM [Посещ-сть месяцы 2018]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" keepAlive="1" name="Geography" description="Соединение с запросом &quot;География&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=География;Extended Properties=&quot;&quot;" command="SELECT * FROM [География]"/>
+  </connection>
+  <connection id="5" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Общие показатели по месяцу;Extended Properties=&quot;&quot;" command="SELECT * FROM [Общие показатели по месяцу]"/>
+  </connection>
+  <connection id="6" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -313,6 +332,270 @@
   <si>
     <t>Достижения целей</t>
   </si>
+  <si>
+    <t>Источники трафика и целевые визиты на сайт (лиды)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На этой странице приведены каналы привлечения посетителей - источники переходов посетителей на ваш сайт. Посетители из разных каналов имеют разную заинтересованность в ваших товарах или услугах. Анализируя каналы привлечения клиентов можно сделать вывод об эффективности и целесообразности рекламной кампании в каждом канале. Обратите внимание на показатели "Целевые визиты" и "Отказы" для каждого канала переходов посетителей.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Прямые заходы -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> посетитель вводит адрес сайта вручную в адресной строке или переходит из закладок браузера.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Переходы по ссылкам на сайтах</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - приводят посетителей на ваш сайт со сторонних ресурсов.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Переходы из поисковых систем</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - совершаются по ссылкам на страницах выдачи результатов поиска.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Переходы из социальных сетей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - совершаются по ссылкам на сайт в социальных сетях. 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Переходы по рекламе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - переходы по контекстной рекламе Яндекса (Директ, Маркет и т.п.)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Переходы с сохраненных страниц - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">означают, что посетитель перешел со страницы, сохраненной на компьютере локально. 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Внутренние переходы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - регистрируются, если активность пользователя на сайте прерывается на больший промежуток времени, но пользователь не закрывает окно браузера. 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Целевые визиты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - визиты совершенные посетителем, которые привели к конечной цели, установленной конкретными метриками системы (н-р, заказ, контакты, последовательность действий и т.п.)
+    В ряде случаев источник может быть не определен. Строка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Не определено" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>означает, что какие-либо характеристики визита не были распознаны, однако сам визит был учтен в системе.</t>
+    </r>
+  </si>
+  <si>
+    <t>Источник трафика</t>
+  </si>
+  <si>
+    <t>Глубина просмотра</t>
+  </si>
+  <si>
+    <t>Целевые вызиты</t>
+  </si>
+  <si>
+    <t>Переходы из поисковых систем</t>
+  </si>
+  <si>
+    <t>00:01:34</t>
+  </si>
+  <si>
+    <t>Прямые заходы</t>
+  </si>
+  <si>
+    <t>00:01:11</t>
+  </si>
+  <si>
+    <t>Переходы по ссылкам на сайтах</t>
+  </si>
+  <si>
+    <t>00:01:23</t>
+  </si>
+  <si>
+    <t>Внутренние переходы</t>
+  </si>
+  <si>
+    <t>00:07:01</t>
+  </si>
+  <si>
+    <t>Переходы из социальных сетей</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>География посещений</t>
+  </si>
+  <si>
+    <t>Статистика определяет принадлежность посетителя к тому или иному географическому региону. В данном отчете приведен список регионов, сгруппированных по городам. Эти данные позволяют анализировать и формировать корректность региональных стратегий и выявлять наиболее популярные регионы.
+    Обратите внимание, посещаемость сайта должна содержать преимущественно посетителей из вашего города. Показатели "Глубина просмотра", "Отказы" и "Время на сайте" характеризуют заинтересованность посетителей в вашем продукте.</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +933,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,12 +956,77 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="52">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1554,6 +1904,1132 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.217804196326886E-2"/>
+          <c:y val="0.20634454119418916"/>
+          <c:w val="0.57129590654547524"/>
+          <c:h val="0.67950811162532265"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Источники, сводка'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Визиты</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-C157-459B-8DD8-05005143C871}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Источники, сводка'!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Переходы из поисковых систем</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Прямые заходы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Переходы по ссылкам на сайтах</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Внутренние переходы</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Переходы из социальных сетей</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Источники, сводка'!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-C157-459B-8DD8-05005143C871}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="13"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Целевые визиты</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Источники, сводка'!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Переходы из поисковых систем</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Прямые заходы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Переходы по ссылкам на сайтах</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Внутренние переходы</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Переходы из социальных сетей</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Источники, сводка'!$G$30:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="870536160"/>
+        <c:axId val="870534080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="870536160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870534080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="870534080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870536160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>География посещений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>География!$A$26:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>География!$B$26:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98A6-400A-9FEF-3411F1A644C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="236776856"/>
+        <c:axId val="236777248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="236776856"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236777248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="236777248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236776856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -1600,6 +3076,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2587,6 +4183,1549 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2781,6 +5920,200 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1219868</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351058</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3103783" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395816</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3100916" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2823,7 +6156,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="7">
       <queryTableField id="8" name="Дата визита" tableColumnId="1"/>
@@ -2882,63 +6215,125 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="19">
+    <queryTableFields count="7">
+      <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+      <queryTableField id="18" name="Целевые вызиты" tableColumnId="13"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="Город" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="51">
   <autoFilter ref="A37:G68"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="38" totalsRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="13" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="12"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="26" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="24"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="3" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="16" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A29:G34"/>
+  <tableColumns count="7">
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A25:F50"/>
+  <tableColumns count="6">
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3326,26 +6721,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
@@ -3376,7 +6771,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="62" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -3399,7 +6794,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -3761,8 +7156,8 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:H52"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,33 +7194,33 @@
       <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="str">
+      <c r="A6" s="64" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
         <v>43322</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -4084,7 +7479,7 @@
       <c r="G48" s="57"/>
       <c r="H48" s="48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -4094,7 +7489,7 @@
       <c r="G49" s="57"/>
       <c r="H49" s="48"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -4104,7 +7499,7 @@
       <c r="G50" s="57"/>
       <c r="H50" s="48"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -4114,7 +7509,7 @@
       <c r="G51" s="57"/>
       <c r="H51" s="48"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -4141,6 +7536,531 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:H36"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="8" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="48">
+        <v>685</v>
+      </c>
+      <c r="C30" s="48">
+        <v>636</v>
+      </c>
+      <c r="D30" s="53">
+        <v>0.19416058394160587</v>
+      </c>
+      <c r="E30" s="52">
+        <v>2.0846715328467154</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="48">
+        <v>397</v>
+      </c>
+      <c r="C31" s="48">
+        <v>362</v>
+      </c>
+      <c r="D31" s="53">
+        <v>0.64483627204030225</v>
+      </c>
+      <c r="E31" s="52">
+        <v>1.8614609571788414</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="48">
+        <v>107</v>
+      </c>
+      <c r="C32" s="48">
+        <v>102</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="E32" s="52">
+        <v>2.05607476635514</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="48">
+        <v>34</v>
+      </c>
+      <c r="C33" s="48">
+        <v>24</v>
+      </c>
+      <c r="D33" s="53">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="E33" s="52">
+        <v>4.882352941176471</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="48">
+        <v>2</v>
+      </c>
+      <c r="C34" s="48">
+        <v>2</v>
+      </c>
+      <c r="D34" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="52">
+        <v>1</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A36:G36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист9">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="57"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="57"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="57"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="57"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="57"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="57"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="57"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="57"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="57"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="57"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="57"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="57"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -12,35 +12,42 @@
     <sheet name="Посещ-сть по месяцам" sheetId="7" r:id="rId3"/>
     <sheet name="Источники, сводка" sheetId="8" r:id="rId4"/>
     <sheet name="География" sheetId="10" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId6"/>
+    <sheet name="Технологии" sheetId="11" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="2">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">География!$A$25:$F$50</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Источники, сводка'!$A$29:$G$34</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Технологии!$A$25:$F$30</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Источники, сводка'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
+    <definedName name="ExternalData_2" localSheetId="5" hidden="1">Технологии!$A$47:$F$57</definedName>
     <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="2">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="2">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">География!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Источники, сводка'!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Технологии!$A$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,20 +69,26 @@
   <connection id="3" keepAlive="1" name="AttendanceMonths2018" description="Соединение с запросом &quot;Посещ-сть месяцы 2018&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Посещ-сть месяцы 2018;Extended Properties=&quot;&quot;" command="SELECT * FROM [Посещ-сть месяцы 2018]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="Geography" description="Соединение с запросом &quot;География&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" keepAlive="1" name="Brousers" description="Соединение с запросом &quot;Браузеры&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Браузеры;Extended Properties=&quot;&quot;" command="SELECT * FROM [Браузеры]"/>
+  </connection>
+  <connection id="5" keepAlive="1" name="Geography" description="Соединение с запросом &quot;География&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=География;Extended Properties=&quot;&quot;" command="SELECT * FROM [География]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Общие показатели по месяцу;Extended Properties=&quot;&quot;" command="SELECT * FROM [Общие показатели по месяцу]"/>
   </connection>
-  <connection id="6" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" keepAlive="1" name="Resolution" description="Соединение с запросом &quot;Разрешение&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Разрешение;Extended Properties=&quot;&quot;" command="SELECT * FROM [Разрешение]"/>
+  </connection>
+  <connection id="8" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -596,6 +609,18 @@
   <si>
     <t>Город</t>
   </si>
+  <si>
+    <t>Технические параметры просмотра сайта</t>
+  </si>
+  <si>
+    <t>В отчете представлены данные об устройствах и программном обеспечении, которое используют посетители сайта. Отчет по браузерам и их версиям и разрешения дисплеев. Обратите внимание на показатель "Отказы" в различных браузерах и для устройств с разными экранами.</t>
+  </si>
+  <si>
+    <t>Полная версия браузера</t>
+  </si>
+  <si>
+    <t>Реальное разрешение</t>
+  </si>
 </sst>
 </file>
 
@@ -798,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -935,6 +960,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,7 +1007,53 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="64">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2789,7 +2866,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3030,6 +3106,689 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Популярные браузеры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Технологии!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Визиты</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2E45-47B4-8E73-F152AB16A966}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2E45-47B4-8E73-F152AB16A966}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2E45-47B4-8E73-F152AB16A966}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2E45-47B4-8E73-F152AB16A966}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2E45-47B4-8E73-F152AB16A966}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Технологии!$A$26:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Технологии!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2E45-47B4-8E73-F152AB16A966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Разрешение экрана просмотра</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7FBE-4A5E-8845-57702A7529E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Технологии!$A$48:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Технологии!$B$48:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-7FBE-4A5E-8845-57702A7529E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -3196,6 +3955,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5416,6 +6255,1044 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6114,6 +7991,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>814916</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3110441" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6156,7 +8146,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="7">
       <queryTableField id="8" name="Дата визита" tableColumnId="1"/>
@@ -6216,7 +8206,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="19">
     <queryTableFields count="7">
       <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
@@ -6232,7 +8222,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Город" tableColumnId="1"/>
@@ -6246,63 +8236,93 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="Полная версия браузера" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="Реальное разрешение" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="63">
   <autoFilter ref="A37:G68"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="50" totalsRowDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="26" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="25"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="24"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="23"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="42"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="41"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="39"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="38" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="37"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="36"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="16" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="30"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="29"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="28" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="27"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="26"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6312,13 +8332,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="6"/>
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6328,7 +8348,37 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A25:F30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A47:F57"/>
+  <tableColumns count="6">
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="2"/>
@@ -6721,26 +8771,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
@@ -6771,7 +8821,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -6794,7 +8844,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -7194,33 +9244,33 @@
       <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="str">
+      <c r="A6" s="66" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
         <v>43322</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -7581,27 +9631,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -7742,13 +9792,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7772,7 +9822,7 @@
   </sheetPr>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -7806,24 +9856,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -8061,6 +10111,244 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист10">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="57"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="57"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="57"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="57"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="57"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="59"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="57"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="57"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="60" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="Источники, сводка" sheetId="8" r:id="rId4"/>
     <sheet name="География" sheetId="10" r:id="rId5"/>
     <sheet name="Технологии" sheetId="11" r:id="rId6"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId7"/>
+    <sheet name="Устройства" sheetId="13" r:id="rId7"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
@@ -29,6 +30,7 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Технологии!$A$25:$F$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">Устройства!$A$26:$F$29</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Источники, сводка'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
@@ -48,6 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Технологии!$A$1:$F$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Устройства!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -72,23 +75,26 @@
   <connection id="4" keepAlive="1" name="Brousers" description="Соединение с запросом &quot;Браузеры&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Браузеры;Extended Properties=&quot;&quot;" command="SELECT * FROM [Браузеры]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="Geography" description="Соединение с запросом &quot;География&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" keepAlive="1" name="Devices" description="Соединение с запросом &quot;Устройства&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Устройства;Extended Properties=&quot;&quot;" command="SELECT * FROM [Устройства]"/>
+  </connection>
+  <connection id="6" keepAlive="1" name="Geography" description="Соединение с запросом &quot;География&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=География;Extended Properties=&quot;&quot;" command="SELECT * FROM [География]"/>
   </connection>
-  <connection id="6" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Общие показатели по месяцу;Extended Properties=&quot;&quot;" command="SELECT * FROM [Общие показатели по месяцу]"/>
   </connection>
-  <connection id="7" keepAlive="1" name="Resolution" description="Соединение с запросом &quot;Разрешение&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" keepAlive="1" name="Resolution" description="Соединение с запросом &quot;Разрешение&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Разрешение;Extended Properties=&quot;&quot;" command="SELECT * FROM [Разрешение]"/>
   </connection>
-  <connection id="8" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -621,6 +627,16 @@
   <si>
     <t>Реальное разрешение</t>
   </si>
+  <si>
+    <t>Устройства просмотра сайта</t>
+  </si>
+  <si>
+    <t>Отчет по типам устройств, с которых посетители просматривали сайт. Отчет помогает получить данные о количестве пользователей мобильных устройств (телефонов, смартфонов, планшетов).
+Обратите внимание на показатель "Отказы" для различных типов устройств. Например, если сайт неудобен для просмотра на экране мобильного телефона, то показатель отказов для посетителей со смартфонами и планшетами будет высоким (возможно 15% и более). Чтобы не терять таких посетителей закажите доработку мобильной версии сайта у вашего менеджера.</t>
+  </si>
+  <si>
+    <t>Тип устройства</t>
+  </si>
 </sst>
 </file>
 
@@ -630,7 +646,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +779,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -819,11 +843,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -966,6 +991,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,11 +1029,35 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="70">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3146,6 +3196,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3343,6 +3394,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3789,6 +3841,287 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1545741324921134E-2"/>
+          <c:y val="0.19922491110997947"/>
+          <c:w val="0.81185788684931737"/>
+          <c:h val="0.76090799316085733"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Устройства!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Визиты</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F345-48B7-B4D8-E08A252BEB81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F345-48B7-B4D8-E08A252BEB81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F345-48B7-B4D8-E08A252BEB81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F345-48B7-B4D8-E08A252BEB81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Устройства!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Устройства!$B$27:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F345-48B7-B4D8-E08A252BEB81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="4"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80490170180340348"/>
+          <c:y val="0.38039836401902172"/>
+          <c:w val="0.19449767166200999"/>
+          <c:h val="0.31838357936063361"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -4035,6 +4368,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7118,6 +7488,525 @@
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8104,6 +8993,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>383116</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3116791" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -8146,7 +9116,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="7">
       <queryTableField id="8" name="Дата визита" tableColumnId="1"/>
@@ -8206,7 +9176,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="19">
     <queryTableFields count="7">
       <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
@@ -8222,7 +9192,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Город" tableColumnId="1"/>
@@ -8252,7 +9222,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Реальное разрешение" tableColumnId="1"/>
@@ -8266,63 +9236,78 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="Тип устройства" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="69">
   <autoFilter ref="A37:G68"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="56" totalsRowDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="42"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="41"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="40"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="39"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="38" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="37"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="36"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="35"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="47"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="46"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="45"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="44" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="43"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="42"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="30"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="29"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="28" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="27"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="26"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="25"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="36"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="35"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="34" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="33"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="32"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8332,13 +9317,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="23"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="22"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="21"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="20"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="19"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="18"/>
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="26"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8348,7 +9333,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A25:F30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="17"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="16"/>
     <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="15"/>
     <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="14"/>
@@ -8359,11 +9359,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A25:F30"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A47:F57"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="10"/>
     <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="9"/>
     <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="8"/>
@@ -8374,11 +9374,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A47:F57"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A26:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="2"/>
@@ -8771,26 +9771,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
@@ -8821,7 +9821,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -8844,7 +9844,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -9244,33 +10244,33 @@
       <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="66" t="str">
+      <c r="A6" s="67" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
         <v>43322</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -9631,27 +10631,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -9792,13 +10792,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9856,24 +10856,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -10116,7 +11116,7 @@
   </sheetPr>
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F48" sqref="F48:F57"/>
     </sheetView>
   </sheetViews>
@@ -10150,24 +11150,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -10349,6 +11349,135 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист11">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+    </row>
+    <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -14,14 +14,17 @@
     <sheet name="География" sheetId="10" r:id="rId5"/>
     <sheet name="Технологии" sheetId="11" r:id="rId6"/>
     <sheet name="Устройства" sheetId="13" r:id="rId7"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId8"/>
+    <sheet name="Поиск. фразы" sheetId="14" r:id="rId8"/>
+    <sheet name="Поп. страницы" sheetId="15" r:id="rId9"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="7">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="2">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
@@ -33,21 +36,26 @@
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">Устройства!$A$26:$F$29</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Источники, сводка'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
+    <definedName name="ExternalData_2" localSheetId="7" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
     <definedName name="ExternalData_2" localSheetId="5" hidden="1">Технологии!$A$47:$F$57</definedName>
+    <definedName name="ExternalData_3" localSheetId="8" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
     <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="7">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="2">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="7">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="2">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">География!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Источники, сводка'!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Поиск. фразы'!$A$1:$F$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Технологии!$A$1:$F$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Устройства!$A$1:$F$29</definedName>
@@ -84,17 +92,23 @@
   <connection id="7" keepAlive="1" name="NowMonth" description="Соединение с запросом &quot;Общие показатели по месяцу&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Общие показатели по месяцу;Extended Properties=&quot;&quot;" command="SELECT * FROM [Общие показатели по месяцу]"/>
   </connection>
-  <connection id="8" keepAlive="1" name="Resolution" description="Соединение с запросом &quot;Разрешение&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" keepAlive="1" name="PopularPages" description="Соединение с запросом &quot;Популярные страницы&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Популярные страницы;Extended Properties=&quot;&quot;" command="SELECT * FROM [Популярные страницы]"/>
+  </connection>
+  <connection id="9" keepAlive="1" name="Resolution" description="Соединение с запросом &quot;Разрешение&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Разрешение;Extended Properties=&quot;&quot;" command="SELECT * FROM [Разрешение]"/>
   </connection>
-  <connection id="9" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="10" keepAlive="1" name="SearchesPhrases" description="Соединение с запросом &quot;Поисковые фразы&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Поисковые фразы;Extended Properties=&quot;&quot;" command="SELECT * FROM [Поисковые фразы]"/>
+  </connection>
+  <connection id="11" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -637,6 +651,24 @@
   <si>
     <t>Тип устройства</t>
   </si>
+  <si>
+    <t>Поисковые фразы</t>
+  </si>
+  <si>
+    <t>В отчете приведен список поисковых фраз топ 50, по которым посетители нашли ссылку на ваш сайт в результатах поиска. Для каждой фразы стоит обратить внимание на показатель отказа и глубину просмотра. Если показатель отказа относительно высокий, то либо поисковая фраза не соответствует вашей целевой аудитории, либо страница сайта не содержит полезной информации. Фразы с высоким показателем отказа подлежат анализу.</t>
+  </si>
+  <si>
+    <t>Поисковая фраза</t>
+  </si>
+  <si>
+    <t>Популярные страницы сайта (страницы входа)</t>
+  </si>
+  <si>
+    <t>Отчет представляет наиболее популярные страницы сайта на основе количества посетителей и просмотров. Очень важно, чтобы такой важный показатель как "Отказы" для наиболее посещаемых страниц был минимальным.</t>
+  </si>
+  <si>
+    <t>Страница входа</t>
+  </si>
 </sst>
 </file>
 
@@ -646,7 +678,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +819,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -843,12 +897,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -992,6 +1047,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,13 +1086,319 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3196,7 +3560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3394,7 +3757,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3501,7 +3863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3774,7 +4135,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3856,7 +4216,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9074,6 +9433,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30691</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3116791" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3119966</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="19050"/>
+          <a:ext cx="3110441" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -9131,6 +9588,37 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="Поисковая фраза" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="8">
+    <queryTableFields count="7">
+      <queryTableField id="1" name="Страница входа" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Просмотры" tableColumnId="4"/>
+      <queryTableField id="5" name="Доля новых посетителей" tableColumnId="5"/>
+      <queryTableField id="6" name="Отказы" tableColumnId="6"/>
+      <queryTableField id="7" name="Время на сайте" tableColumnId="7"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="2">
@@ -9176,7 +9664,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="19">
     <queryTableFields count="7">
       <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
@@ -9222,7 +9710,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Реальное разрешение" tableColumnId="1"/>
@@ -9252,62 +9740,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="84">
   <autoFilter ref="A37:G68"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="71" totalsRowDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Поисковые_фразы" displayName="Поисковые_фразы" ref="A10:F40" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A10:F40"/>
+  <tableColumns count="6">
+    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Обычный 2">
+  <autoFilter ref="A10:G35"/>
+  <tableColumns count="7">
+    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Процентный"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="48"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="47"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="46"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="45"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="44" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="43"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="42"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="41"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="63"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="62"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="61"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="60"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="59" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="58"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="57"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="37"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="36"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="35"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="34" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="33"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="32"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="31"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="53"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="52"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="51"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="50"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="49" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="48"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="47"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9317,13 +9836,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="30"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="26"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="25"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="24"/>
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="41"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="40"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9333,12 +9852,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="36"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="35"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="34"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9348,12 +9867,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="16"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="14"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="31"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="30"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="29"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="28"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9363,12 +9882,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A47:F57"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="25"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="23"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9378,12 +9897,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A26:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9731,6 +10250,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5">
@@ -9771,26 +10302,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
@@ -9821,7 +10352,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -9844,7 +10375,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -10244,33 +10775,33 @@
       <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="str">
+      <c r="A6" s="68" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
         <v>43322</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -10631,27 +11162,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -10792,13 +11323,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10856,24 +11387,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -11150,24 +11681,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -11354,7 +11885,7 @@
   </sheetPr>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -11388,24 +11919,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
@@ -11478,12 +12009,677 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Лист12">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="57"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="57"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="57"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="57"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="57"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="57"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="57"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист14">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>[1]Правила!B30</f>
+        <v>taritravel.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="90"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="94"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="90"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -16,39 +16,49 @@
     <sheet name="Устройства" sheetId="13" r:id="rId7"/>
     <sheet name="Поиск. фразы" sheetId="14" r:id="rId8"/>
     <sheet name="Поп. страницы" sheetId="15" r:id="rId9"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId10"/>
+    <sheet name="Поисковой трафик" sheetId="17" r:id="rId10"/>
+    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId11"/>
+    <sheet name="Данные для источники сводки" sheetId="21" state="hidden" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="11">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="10">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="7">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="9">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="2">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">География!$A$25:$F$50</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Источники, сводка'!$A$29:$G$34</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
+    <definedName name="ExternalData_1" localSheetId="9" hidden="1">'Поисковой трафик'!$A$29:$G$34</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Технологии!$A$25:$F$30</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">Устройства!$A$26:$F$29</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Источники, сводка'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
     <definedName name="ExternalData_2" localSheetId="7" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
+    <definedName name="ExternalData_2" localSheetId="9" hidden="1">'Поисковой трафик'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
     <definedName name="ExternalData_2" localSheetId="5" hidden="1">Технологии!$A$47:$F$57</definedName>
     <definedName name="ExternalData_3" localSheetId="8" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
     <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="11">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="10">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="7">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="9">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="2">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="11">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="10">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="7">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="9">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="2">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
@@ -56,6 +66,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Источники, сводка'!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Поиск. фразы'!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Поисковой трафик'!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Технологии!$A$1:$F$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Устройства!$A$1:$F$29</definedName>
@@ -104,11 +115,14 @@
   <connection id="11" keepAlive="1" name="Sources" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
   </connection>
+  <connection id="12" keepAlive="1" name="Sources1" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -590,36 +604,6 @@
     <t>Целевые вызиты</t>
   </si>
   <si>
-    <t>Переходы из поисковых систем</t>
-  </si>
-  <si>
-    <t>00:01:34</t>
-  </si>
-  <si>
-    <t>Прямые заходы</t>
-  </si>
-  <si>
-    <t>00:01:11</t>
-  </si>
-  <si>
-    <t>Переходы по ссылкам на сайтах</t>
-  </si>
-  <si>
-    <t>00:01:23</t>
-  </si>
-  <si>
-    <t>Внутренние переходы</t>
-  </si>
-  <si>
-    <t>00:07:01</t>
-  </si>
-  <si>
-    <t>Переходы из социальных сетей</t>
-  </si>
-  <si>
-    <t>00:00:08</t>
-  </si>
-  <si>
     <t>География посещений</t>
   </si>
   <si>
@@ -668,6 +652,12 @@
   </si>
   <si>
     <t>Страница входа</t>
+  </si>
+  <si>
+    <t>Поисковая система</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -903,7 +893,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,42 +1040,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1146,6 +1100,43 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1153,7 +1144,34 @@
     <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="92">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1496,7 +1514,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2441,243 +2459,1104 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.217804196326886E-2"/>
-          <c:y val="0.20634454119418916"/>
-          <c:w val="0.57129590654547524"/>
-          <c:h val="0.67950811162532265"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Источники, сводка'!$B$29</c:f>
+              <c:f>'Данные для источники сводки'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Визиты</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F85-4580-837B-D820C7E2DB5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для источники сводки'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F85-4580-837B-D820C7E2DB5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для источники сводки'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F85-4580-837B-D820C7E2DB5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для источники сводки'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$L$2:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F85-4580-837B-D820C7E2DB5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для источники сводки'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-C157-459B-8DD8-05005143C871}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Источники, сводка'!$A$30:$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>Переходы из поисковых систем</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Прямые заходы</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Переходы по ссылкам на сайтах</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Внутренние переходы</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Переходы из социальных сетей</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Источники, сводка'!$B$30:$B$34</c:f>
+              <c:f>'Данные для источники сводки'!$O$2:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>685</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-C157-459B-8DD8-05005143C871}"/>
+              <c16:uniqueId val="{00000004-5F85-4580-837B-D820C7E2DB5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="13"/>
-      </c:pieChart>
+        <c:smooth val="0"/>
+        <c:axId val="434116352"/>
+        <c:axId val="232802352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434116352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232802352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232802352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434116352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2687,7 +3566,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2755,492 +3634,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Целевые визиты</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Источники, сводка'!$A$30:$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Переходы из поисковых систем</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Прямые заходы</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Переходы по ссылкам на сайтах</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Внутренние переходы</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Переходы из социальных сетей</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Источники, сводка'!$G$30:$G$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-7BFE-49EA-BFF7-9EDCC2C3F3DE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="870536160"/>
-        <c:axId val="870534080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="870536160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="870534080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="870534080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="870536160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3520,7 +3913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3823,7 +4216,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4201,7 +4594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4415,6 +4808,1228 @@
           <c:h val="0.31838357936063361"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для поискового трафика'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-567F-413C-BD43-80966298B840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для поискового трафика'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-567F-413C-BD43-80966298B840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для поискового трафика'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-567F-413C-BD43-80966298B840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для поискового трафика'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$L$2:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-567F-413C-BD43-80966298B840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для поискового трафика'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для поискового трафика'!$O$2:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-567F-413C-BD43-80966298B840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="419494816"/>
+        <c:axId val="419493984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="419494816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419493984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419493984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419494816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4688,6 +6303,43 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4727,43 +6379,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5784,7 +7399,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5841,7 +7456,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5892,13 +7507,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5909,19 +7517,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5959,7 +7560,510 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6302,7 +8406,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6821,8 +8925,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6879,7 +8983,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6930,6 +9034,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6940,12 +9051,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6983,7 +9101,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7326,8 +9444,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7845,8 +9963,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7903,7 +10021,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7954,13 +10072,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7971,19 +10082,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8021,7 +10125,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8064,23 +10168,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8185,8 +10288,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8318,539 +10421,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8952,7 +10535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21169" y="22490"/>
-          <a:ext cx="3102239" cy="743870"/>
+          <a:ext cx="3097477" cy="743870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9047,70 +10630,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1219868</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -9132,7 +10651,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9153,6 +10672,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1265392</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3105047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470618</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>174215</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9531,45 +11080,83 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Правила"/>
-      <sheetName val="Титульный"/>
-      <sheetName val="Оглавление"/>
-      <sheetName val="Общие по месяцу"/>
-      <sheetName val="Посещ-сть по месяцам"/>
-      <sheetName val="Источники, сводка"/>
-      <sheetName val="География"/>
-      <sheetName val="Технологии"/>
-      <sheetName val="Устройства"/>
-      <sheetName val="Поиск. фразы"/>
-      <sheetName val="Поиск. фраза ЯД"/>
-      <sheetName val="Поп. страницы"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>taritravel.com</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351058</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3103783" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4561347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1167580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51209</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9614,6 +11201,22 @@
       <queryTableField id="5" name="Доля новых посетителей" tableColumnId="5"/>
       <queryTableField id="6" name="Отказы" tableColumnId="6"/>
       <queryTableField id="7" name="Время на сайте" tableColumnId="7"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="19">
+    <queryTableFields count="7">
+      <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+      <queryTableField id="18" name="Целевые вызиты" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -9740,19 +11343,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="91">
   <autoFilter ref="A37:G68"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="78" totalsRowDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9762,71 +11365,87 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Поисковые_фразы" displayName="Поисковые_фразы" ref="A10:F40" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A10:F40"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="19"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="18"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A10:G35"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="8" dataCellStyle="Процентный"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Источники15" displayName="Источники15" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A29:G34"/>
+  <tableColumns count="7">
+    <tableColumn id="1" uniqueName="1" name="Поисковая система" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Процентный"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="66"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="63"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="62"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="61"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="60"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="59" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="58"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="57"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="56"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="70"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="69"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="68"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="67"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="66" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="65"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="64"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="53"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="52"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="51"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="50"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="49" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="48"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="47"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="46"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="58"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="57"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="56" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="55"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="54"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9836,13 +11455,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="40"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="39"/>
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="51"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="50"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="49"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="48"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="47"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9852,12 +11471,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="37"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="36"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="35"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="34"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="33"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="41"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9867,12 +11486,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="32"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="31"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="30"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="29"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="28"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="27"/>
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="39"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="38"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="37"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="36"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="35"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9882,12 +11501,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A47:F57"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="22"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="31"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="30"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="29"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9897,12 +11516,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A26:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10252,12 +11871,1893 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="8" spans="1:8" ht="360.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A36:G36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="86">
+            </c>
+      <c r="D1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="86">
+            </c>
+      <c r="G1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="86">
+            </c>
+      <c r="J1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="86">
+            </c>
+      <c r="M1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="86">
+            </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+            </c>
+      <c r="B2">
+            </c>
+      <c r="C2">
+            </c>
+      <c r="D2">
+            </c>
+      <c r="E2">
+            </c>
+      <c r="F2">
+            </c>
+      <c r="G2">
+            </c>
+      <c r="H2">
+            </c>
+      <c r="I2">
+            </c>
+      <c r="J2">
+            </c>
+      <c r="K2">
+            </c>
+      <c r="L2">
+            </c>
+      <c r="M2">
+            </c>
+      <c r="N2">
+            </c>
+      <c r="O2">
+            </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+            </c>
+      <c r="B3">
+            </c>
+      <c r="C3">
+            </c>
+      <c r="D3">
+            </c>
+      <c r="E3">
+            </c>
+      <c r="F3">
+            </c>
+      <c r="G3">
+            </c>
+      <c r="H3">
+            </c>
+      <c r="I3">
+            </c>
+      <c r="J3">
+            </c>
+      <c r="K3">
+            </c>
+      <c r="L3">
+            </c>
+      <c r="M3">
+            </c>
+      <c r="N3">
+            </c>
+      <c r="O3">
+            </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+            </c>
+      <c r="B4">
+            </c>
+      <c r="C4">
+            </c>
+      <c r="D4">
+            </c>
+      <c r="E4">
+            </c>
+      <c r="F4">
+            </c>
+      <c r="G4">
+            </c>
+      <c r="H4">
+            </c>
+      <c r="I4">
+            </c>
+      <c r="J4">
+            </c>
+      <c r="K4">
+            </c>
+      <c r="L4">
+            </c>
+      <c r="M4">
+            </c>
+      <c r="N4">
+            </c>
+      <c r="O4">
+            </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+            </c>
+      <c r="B5">
+            </c>
+      <c r="C5">
+            </c>
+      <c r="D5">
+            </c>
+      <c r="E5">
+            </c>
+      <c r="F5">
+            </c>
+      <c r="G5">
+            </c>
+      <c r="H5">
+            </c>
+      <c r="I5">
+            </c>
+      <c r="J5">
+            </c>
+      <c r="K5">
+            </c>
+      <c r="L5">
+            </c>
+      <c r="M5">
+            </c>
+      <c r="N5">
+            </c>
+      <c r="O5">
+            </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+            </c>
+      <c r="B6">
+            </c>
+      <c r="C6">
+            </c>
+      <c r="D6">
+            </c>
+      <c r="E6">
+            </c>
+      <c r="F6">
+            </c>
+      <c r="G6">
+            </c>
+      <c r="H6">
+            </c>
+      <c r="I6">
+            </c>
+      <c r="J6">
+            </c>
+      <c r="K6">
+            </c>
+      <c r="L6">
+            </c>
+      <c r="M6">
+            </c>
+      <c r="N6">
+            </c>
+      <c r="O6">
+            </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+            </c>
+      <c r="B7">
+            </c>
+      <c r="C7">
+            </c>
+      <c r="D7">
+            </c>
+      <c r="E7">
+            </c>
+      <c r="F7">
+            </c>
+      <c r="G7">
+            </c>
+      <c r="H7">
+            </c>
+      <c r="I7">
+            </c>
+      <c r="J7">
+            </c>
+      <c r="K7">
+            </c>
+      <c r="L7">
+            </c>
+      <c r="M7">
+            </c>
+      <c r="N7">
+            </c>
+      <c r="O7">
+            </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+            </c>
+      <c r="B8">
+            </c>
+      <c r="C8">
+            </c>
+      <c r="D8">
+            </c>
+      <c r="E8">
+            </c>
+      <c r="F8">
+            </c>
+      <c r="G8">
+            </c>
+      <c r="H8">
+            </c>
+      <c r="I8">
+            </c>
+      <c r="J8">
+            </c>
+      <c r="K8">
+            </c>
+      <c r="L8">
+            </c>
+      <c r="M8">
+            </c>
+      <c r="N8">
+            </c>
+      <c r="O8">
+            </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+            </c>
+      <c r="B9">
+            </c>
+      <c r="C9">
+            </c>
+      <c r="D9">
+            </c>
+      <c r="E9">
+            </c>
+      <c r="F9">
+            </c>
+      <c r="G9">
+            </c>
+      <c r="H9">
+            </c>
+      <c r="I9">
+            </c>
+      <c r="J9">
+            </c>
+      <c r="K9">
+            </c>
+      <c r="L9">
+            </c>
+      <c r="M9">
+            </c>
+      <c r="N9">
+            </c>
+      <c r="O9">
+            </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+            </c>
+      <c r="B10">
+            </c>
+      <c r="C10">
+            </c>
+      <c r="D10">
+            </c>
+      <c r="E10">
+            </c>
+      <c r="F10">
+            </c>
+      <c r="G10">
+            </c>
+      <c r="H10">
+            </c>
+      <c r="I10">
+            </c>
+      <c r="J10">
+            </c>
+      <c r="K10">
+            </c>
+      <c r="L10">
+            </c>
+      <c r="M10">
+            </c>
+      <c r="N10">
+            </c>
+      <c r="O10">
+            </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+            </c>
+      <c r="B11">
+            </c>
+      <c r="C11">
+            </c>
+      <c r="D11">
+            </c>
+      <c r="E11">
+            </c>
+      <c r="F11">
+            </c>
+      <c r="G11">
+            </c>
+      <c r="H11">
+            </c>
+      <c r="I11">
+            </c>
+      <c r="J11">
+            </c>
+      <c r="K11">
+            </c>
+      <c r="L11">
+            </c>
+      <c r="M11">
+            </c>
+      <c r="N11">
+            </c>
+      <c r="O11">
+            </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+            </c>
+      <c r="B12">
+            </c>
+      <c r="C12">
+            </c>
+      <c r="D12">
+            </c>
+      <c r="E12">
+            </c>
+      <c r="F12">
+            </c>
+      <c r="G12">
+            </c>
+      <c r="H12">
+            </c>
+      <c r="I12">
+            </c>
+      <c r="J12">
+            </c>
+      <c r="K12">
+            </c>
+      <c r="L12">
+            </c>
+      <c r="M12">
+            </c>
+      <c r="N12">
+            </c>
+      <c r="O12">
+            </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+            </c>
+      <c r="B13">
+            </c>
+      <c r="C13">
+            </c>
+      <c r="D13">
+            </c>
+      <c r="E13">
+            </c>
+      <c r="F13">
+            </c>
+      <c r="G13">
+            </c>
+      <c r="H13">
+            </c>
+      <c r="I13">
+            </c>
+      <c r="J13">
+            </c>
+      <c r="K13">
+            </c>
+      <c r="L13">
+            </c>
+      <c r="M13">
+            </c>
+      <c r="N13">
+            </c>
+      <c r="O13">
+            </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+            </c>
+      <c r="B14">
+            </c>
+      <c r="C14">
+            </c>
+      <c r="D14">
+            </c>
+      <c r="E14">
+            </c>
+      <c r="F14">
+            </c>
+      <c r="G14">
+            </c>
+      <c r="H14">
+            </c>
+      <c r="I14">
+            </c>
+      <c r="J14">
+            </c>
+      <c r="K14">
+            </c>
+      <c r="L14">
+            </c>
+      <c r="M14">
+            </c>
+      <c r="N14">
+            </c>
+      <c r="O14">
+            </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+            </c>
+      <c r="B15">
+            </c>
+      <c r="C15">
+            </c>
+      <c r="D15">
+            </c>
+      <c r="E15">
+            </c>
+      <c r="F15">
+            </c>
+      <c r="G15">
+            </c>
+      <c r="H15">
+            </c>
+      <c r="I15">
+            </c>
+      <c r="J15">
+            </c>
+      <c r="K15">
+            </c>
+      <c r="L15">
+            </c>
+      <c r="M15">
+            </c>
+      <c r="N15">
+            </c>
+      <c r="O15">
+            </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+            </c>
+      <c r="B16">
+            </c>
+      <c r="C16">
+            </c>
+      <c r="D16">
+            </c>
+      <c r="E16">
+            </c>
+      <c r="F16">
+            </c>
+      <c r="G16">
+            </c>
+      <c r="H16">
+            </c>
+      <c r="I16">
+            </c>
+      <c r="J16">
+            </c>
+      <c r="K16">
+            </c>
+      <c r="L16">
+            </c>
+      <c r="M16">
+            </c>
+      <c r="N16">
+            </c>
+      <c r="O16">
+            </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+            </c>
+      <c r="B17">
+            </c>
+      <c r="C17">
+            </c>
+      <c r="D17">
+            </c>
+      <c r="E17">
+            </c>
+      <c r="F17">
+            </c>
+      <c r="G17">
+            </c>
+      <c r="H17">
+            </c>
+      <c r="I17">
+            </c>
+      <c r="J17">
+            </c>
+      <c r="K17">
+            </c>
+      <c r="L17">
+            </c>
+      <c r="M17">
+            </c>
+      <c r="N17">
+            </c>
+      <c r="O17">
+            </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+            </c>
+      <c r="B18">
+            </c>
+      <c r="C18">
+            </c>
+      <c r="D18">
+            </c>
+      <c r="E18">
+            </c>
+      <c r="F18">
+            </c>
+      <c r="G18">
+            </c>
+      <c r="H18">
+            </c>
+      <c r="I18">
+            </c>
+      <c r="J18">
+            </c>
+      <c r="K18">
+            </c>
+      <c r="L18">
+            </c>
+      <c r="M18">
+            </c>
+      <c r="N18">
+            </c>
+      <c r="O18">
+            </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+            </c>
+      <c r="B19">
+            </c>
+      <c r="C19">
+            </c>
+      <c r="D19">
+            </c>
+      <c r="E19">
+            </c>
+      <c r="F19">
+            </c>
+      <c r="G19">
+            </c>
+      <c r="H19">
+            </c>
+      <c r="I19">
+            </c>
+      <c r="J19">
+            </c>
+      <c r="K19">
+            </c>
+      <c r="L19">
+            </c>
+      <c r="M19">
+            </c>
+      <c r="N19">
+            </c>
+      <c r="O19">
+            </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+            </c>
+      <c r="B20">
+            </c>
+      <c r="C20">
+            </c>
+      <c r="D20">
+            </c>
+      <c r="E20">
+            </c>
+      <c r="F20">
+            </c>
+      <c r="G20">
+            </c>
+      <c r="H20">
+            </c>
+      <c r="I20">
+            </c>
+      <c r="J20">
+            </c>
+      <c r="K20">
+            </c>
+      <c r="L20">
+            </c>
+      <c r="M20">
+            </c>
+      <c r="N20">
+            </c>
+      <c r="O20">
+            </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+            </c>
+      <c r="B21">
+            </c>
+      <c r="C21">
+            </c>
+      <c r="D21">
+            </c>
+      <c r="E21">
+            </c>
+      <c r="F21">
+            </c>
+      <c r="G21">
+            </c>
+      <c r="H21">
+            </c>
+      <c r="I21">
+            </c>
+      <c r="J21">
+            </c>
+      <c r="K21">
+            </c>
+      <c r="L21">
+            </c>
+      <c r="M21">
+            </c>
+      <c r="N21">
+            </c>
+      <c r="O21">
+            </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+            </c>
+      <c r="B22">
+            </c>
+      <c r="C22">
+            </c>
+      <c r="D22">
+            </c>
+      <c r="E22">
+            </c>
+      <c r="F22">
+            </c>
+      <c r="G22">
+            </c>
+      <c r="H22">
+            </c>
+      <c r="I22">
+            </c>
+      <c r="J22">
+            </c>
+      <c r="K22">
+            </c>
+      <c r="L22">
+            </c>
+      <c r="M22">
+            </c>
+      <c r="N22">
+            </c>
+      <c r="O22">
+            </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+            </c>
+      <c r="B23">
+            </c>
+      <c r="C23">
+            </c>
+      <c r="D23">
+            </c>
+      <c r="E23">
+            </c>
+      <c r="F23">
+            </c>
+      <c r="G23">
+            </c>
+      <c r="H23">
+            </c>
+      <c r="I23">
+            </c>
+      <c r="J23">
+            </c>
+      <c r="K23">
+            </c>
+      <c r="L23">
+            </c>
+      <c r="M23">
+            </c>
+      <c r="N23">
+            </c>
+      <c r="O23">
+            </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+            </c>
+      <c r="B24">
+            </c>
+      <c r="C24">
+            </c>
+      <c r="D24">
+            </c>
+      <c r="E24">
+            </c>
+      <c r="F24">
+            </c>
+      <c r="G24">
+            </c>
+      <c r="H24">
+            </c>
+      <c r="I24">
+            </c>
+      <c r="J24">
+            </c>
+      <c r="K24">
+            </c>
+      <c r="L24">
+            </c>
+      <c r="M24">
+            </c>
+      <c r="N24">
+            </c>
+      <c r="O24">
+            </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+            </c>
+      <c r="B25">
+            </c>
+      <c r="C25">
+            </c>
+      <c r="D25">
+            </c>
+      <c r="E25">
+            </c>
+      <c r="F25">
+            </c>
+      <c r="G25">
+            </c>
+      <c r="H25">
+            </c>
+      <c r="I25">
+            </c>
+      <c r="J25">
+            </c>
+      <c r="K25">
+            </c>
+      <c r="L25">
+            </c>
+      <c r="M25">
+            </c>
+      <c r="N25">
+            </c>
+      <c r="O25">
+            </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+            </c>
+      <c r="B26">
+            </c>
+      <c r="C26">
+            </c>
+      <c r="D26">
+            </c>
+      <c r="E26">
+            </c>
+      <c r="F26">
+            </c>
+      <c r="G26">
+            </c>
+      <c r="H26">
+            </c>
+      <c r="I26">
+            </c>
+      <c r="J26">
+            </c>
+      <c r="K26">
+            </c>
+      <c r="L26">
+            </c>
+      <c r="M26">
+            </c>
+      <c r="N26">
+            </c>
+      <c r="O26">
+            </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="86">
+            </c>
+      <c r="D1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="86">
+            </c>
+      <c r="G1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="86">
+            </c>
+      <c r="J1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="86">
+            </c>
+      <c r="M1" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="86">
+            </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+            </c>
+      <c r="B2">
+            </c>
+      <c r="C2">
+            </c>
+      <c r="D2">
+            </c>
+      <c r="E2">
+            </c>
+      <c r="F2">
+            </c>
+      <c r="G2">
+            </c>
+      <c r="H2">
+            </c>
+      <c r="I2">
+            </c>
+      <c r="J2">
+            </c>
+      <c r="K2">
+            </c>
+      <c r="L2">
+            </c>
+      <c r="M2">
+            </c>
+      <c r="N2">
+            </c>
+      <c r="O2">
+            </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+            </c>
+      <c r="B3">
+            </c>
+      <c r="C3">
+            </c>
+      <c r="D3">
+            </c>
+      <c r="E3">
+            </c>
+      <c r="F3">
+            </c>
+      <c r="G3">
+            </c>
+      <c r="H3">
+            </c>
+      <c r="I3">
+            </c>
+      <c r="J3">
+            </c>
+      <c r="K3">
+            </c>
+      <c r="L3">
+            </c>
+      <c r="M3">
+            </c>
+      <c r="N3">
+            </c>
+      <c r="O3">
+            </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+            </c>
+      <c r="B4">
+            </c>
+      <c r="C4">
+            </c>
+      <c r="D4">
+            </c>
+      <c r="E4">
+            </c>
+      <c r="F4">
+            </c>
+      <c r="G4">
+            </c>
+      <c r="H4">
+            </c>
+      <c r="I4">
+            </c>
+      <c r="J4">
+            </c>
+      <c r="K4">
+            </c>
+      <c r="L4">
+            </c>
+      <c r="M4">
+            </c>
+      <c r="N4">
+            </c>
+      <c r="O4">
+            </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+            </c>
+      <c r="B5">
+            </c>
+      <c r="C5">
+            </c>
+      <c r="D5">
+            </c>
+      <c r="E5">
+            </c>
+      <c r="F5">
+            </c>
+      <c r="G5">
+            </c>
+      <c r="H5">
+            </c>
+      <c r="I5">
+            </c>
+      <c r="J5">
+            </c>
+      <c r="K5">
+            </c>
+      <c r="L5">
+            </c>
+      <c r="M5">
+            </c>
+      <c r="N5">
+            </c>
+      <c r="O5">
+            </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+            </c>
+      <c r="B6">
+            </c>
+      <c r="C6">
+            </c>
+      <c r="D6">
+            </c>
+      <c r="E6">
+            </c>
+      <c r="F6">
+            </c>
+      <c r="G6">
+            </c>
+      <c r="H6">
+            </c>
+      <c r="I6">
+            </c>
+      <c r="J6">
+            </c>
+      <c r="K6">
+            </c>
+      <c r="L6">
+            </c>
+      <c r="M6">
+            </c>
+      <c r="N6">
+            </c>
+      <c r="O6">
+            </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+            </c>
+      <c r="B7">
+            </c>
+      <c r="C7">
+            </c>
+      <c r="D7">
+            </c>
+      <c r="E7">
+            </c>
+      <c r="F7">
+            </c>
+      <c r="G7">
+            </c>
+      <c r="H7">
+            </c>
+      <c r="I7">
+            </c>
+      <c r="J7">
+            </c>
+      <c r="K7">
+            </c>
+      <c r="L7">
+            </c>
+      <c r="M7">
+            </c>
+      <c r="N7">
+            </c>
+      <c r="O7">
+            </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+            </c>
+      <c r="B8">
+            </c>
+      <c r="C8">
+            </c>
+      <c r="D8">
+            </c>
+      <c r="E8">
+            </c>
+      <c r="F8">
+            </c>
+      <c r="G8">
+            </c>
+      <c r="H8">
+            </c>
+      <c r="I8">
+            </c>
+      <c r="J8">
+            </c>
+      <c r="K8">
+            </c>
+      <c r="L8">
+            </c>
+      <c r="M8">
+            </c>
+      <c r="N8">
+            </c>
+      <c r="O8">
+            </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+            </c>
+      <c r="B9">
+            </c>
+      <c r="C9">
+            </c>
+      <c r="D9">
+            </c>
+      <c r="E9">
+            </c>
+      <c r="F9">
+            </c>
+      <c r="G9">
+            </c>
+      <c r="H9">
+            </c>
+      <c r="I9">
+            </c>
+      <c r="J9">
+            </c>
+      <c r="K9">
+            </c>
+      <c r="L9">
+            </c>
+      <c r="M9">
+            </c>
+      <c r="N9">
+            </c>
+      <c r="O9">
+            </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+            </c>
+      <c r="B10">
+            </c>
+      <c r="C10">
+            </c>
+      <c r="D10">
+            </c>
+      <c r="E10">
+            </c>
+      <c r="F10">
+            </c>
+      <c r="G10">
+            </c>
+      <c r="H10">
+            </c>
+      <c r="I10">
+            </c>
+      <c r="J10">
+            </c>
+      <c r="K10">
+            </c>
+      <c r="L10">
+            </c>
+      <c r="M10">
+            </c>
+      <c r="N10">
+            </c>
+      <c r="O10">
+            </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+            </c>
+      <c r="B11">
+            </c>
+      <c r="C11">
+            </c>
+      <c r="D11">
+            </c>
+      <c r="E11">
+            </c>
+      <c r="F11">
+            </c>
+      <c r="G11">
+            </c>
+      <c r="H11">
+            </c>
+      <c r="I11">
+            </c>
+      <c r="J11">
+            </c>
+      <c r="K11">
+            </c>
+      <c r="L11">
+            </c>
+      <c r="M11">
+            </c>
+      <c r="N11">
+            </c>
+      <c r="O11">
+            </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+            </c>
+      <c r="B12">
+            </c>
+      <c r="C12">
+            </c>
+      <c r="D12">
+            </c>
+      <c r="E12">
+            </c>
+      <c r="F12">
+            </c>
+      <c r="G12">
+            </c>
+      <c r="H12">
+            </c>
+      <c r="I12">
+            </c>
+      <c r="J12">
+            </c>
+      <c r="K12">
+            </c>
+      <c r="L12">
+            </c>
+      <c r="M12">
+            </c>
+      <c r="N12">
+            </c>
+      <c r="O12">
+            </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+            </c>
+      <c r="B13">
+            </c>
+      <c r="C13">
+            </c>
+      <c r="D13">
+            </c>
+      <c r="E13">
+            </c>
+      <c r="F13">
+            </c>
+      <c r="G13">
+            </c>
+      <c r="H13">
+            </c>
+      <c r="I13">
+            </c>
+      <c r="J13">
+            </c>
+      <c r="K13">
+            </c>
+      <c r="L13">
+            </c>
+      <c r="M13">
+            </c>
+      <c r="N13">
+            </c>
+      <c r="O13">
+            </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+            </c>
+      <c r="B14">
+            </c>
+      <c r="C14">
+            </c>
+      <c r="D14">
+            </c>
+      <c r="E14">
+            </c>
+      <c r="F14">
+            </c>
+      <c r="G14">
+            </c>
+      <c r="H14">
+            </c>
+      <c r="I14">
+            </c>
+      <c r="J14">
+            </c>
+      <c r="K14">
+            </c>
+      <c r="L14">
+            </c>
+      <c r="M14">
+            </c>
+      <c r="N14">
+            </c>
+      <c r="O14">
+            </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+            </c>
+      <c r="B15">
+            </c>
+      <c r="C15">
+            </c>
+      <c r="D15">
+            </c>
+      <c r="E15">
+            </c>
+      <c r="F15">
+            </c>
+      <c r="G15">
+            </c>
+      <c r="H15">
+            </c>
+      <c r="I15">
+            </c>
+      <c r="J15">
+            </c>
+      <c r="K15">
+            </c>
+      <c r="L15">
+            </c>
+      <c r="M15">
+            </c>
+      <c r="N15">
+            </c>
+      <c r="O15">
+            </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+            </c>
+      <c r="B16">
+            </c>
+      <c r="C16">
+            </c>
+      <c r="D16">
+            </c>
+      <c r="E16">
+            </c>
+      <c r="F16">
+            </c>
+      <c r="G16">
+            </c>
+      <c r="H16">
+            </c>
+      <c r="I16">
+            </c>
+      <c r="J16">
+            </c>
+      <c r="K16">
+            </c>
+      <c r="L16">
+            </c>
+      <c r="M16">
+            </c>
+      <c r="N16">
+            </c>
+      <c r="O16">
+            </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+            </c>
+      <c r="B17">
+            </c>
+      <c r="C17">
+            </c>
+      <c r="D17">
+            </c>
+      <c r="E17">
+            </c>
+      <c r="F17">
+            </c>
+      <c r="G17">
+            </c>
+      <c r="H17">
+            </c>
+      <c r="I17">
+            </c>
+      <c r="J17">
+            </c>
+      <c r="K17">
+            </c>
+      <c r="L17">
+            </c>
+      <c r="M17">
+            </c>
+      <c r="N17">
+            </c>
+      <c r="O17">
+            </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+            </c>
+      <c r="B18">
+            </c>
+      <c r="C18">
+            </c>
+      <c r="D18">
+            </c>
+      <c r="E18">
+            </c>
+      <c r="F18">
+            </c>
+      <c r="G18">
+            </c>
+      <c r="H18">
+            </c>
+      <c r="I18">
+            </c>
+      <c r="J18">
+            </c>
+      <c r="K18">
+            </c>
+      <c r="L18">
+            </c>
+      <c r="M18">
+            </c>
+      <c r="N18">
+            </c>
+      <c r="O18">
+            </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+            </c>
+      <c r="B19">
+            </c>
+      <c r="C19">
+            </c>
+      <c r="D19">
+            </c>
+      <c r="E19">
+            </c>
+      <c r="F19">
+            </c>
+      <c r="G19">
+            </c>
+      <c r="H19">
+            </c>
+      <c r="I19">
+            </c>
+      <c r="J19">
+            </c>
+      <c r="K19">
+            </c>
+      <c r="L19">
+            </c>
+      <c r="M19">
+            </c>
+      <c r="N19">
+            </c>
+      <c r="O19">
+            </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+            </c>
+      <c r="B20">
+            </c>
+      <c r="C20">
+            </c>
+      <c r="D20">
+            </c>
+      <c r="E20">
+            </c>
+      <c r="F20">
+            </c>
+      <c r="G20">
+            </c>
+      <c r="H20">
+            </c>
+      <c r="I20">
+            </c>
+      <c r="J20">
+            </c>
+      <c r="K20">
+            </c>
+      <c r="L20">
+            </c>
+      <c r="M20">
+            </c>
+      <c r="N20">
+            </c>
+      <c r="O20">
+            </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+            </c>
+      <c r="B21">
+            </c>
+      <c r="C21">
+            </c>
+      <c r="D21">
+            </c>
+      <c r="E21">
+            </c>
+      <c r="F21">
+            </c>
+      <c r="G21">
+            </c>
+      <c r="H21">
+            </c>
+      <c r="I21">
+            </c>
+      <c r="J21">
+            </c>
+      <c r="K21">
+            </c>
+      <c r="L21">
+            </c>
+      <c r="M21">
+            </c>
+      <c r="N21">
+            </c>
+      <c r="O21">
+            </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+            </c>
+      <c r="B22">
+            </c>
+      <c r="C22">
+            </c>
+      <c r="D22">
+            </c>
+      <c r="E22">
+            </c>
+      <c r="F22">
+            </c>
+      <c r="G22">
+            </c>
+      <c r="H22">
+            </c>
+      <c r="I22">
+            </c>
+      <c r="J22">
+            </c>
+      <c r="K22">
+            </c>
+      <c r="L22">
+            </c>
+      <c r="M22">
+            </c>
+      <c r="N22">
+            </c>
+      <c r="O22">
+            </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+            </c>
+      <c r="B23">
+            </c>
+      <c r="C23">
+            </c>
+      <c r="D23">
+            </c>
+      <c r="E23">
+            </c>
+      <c r="F23">
+            </c>
+      <c r="G23">
+            </c>
+      <c r="H23">
+            </c>
+      <c r="I23">
+            </c>
+      <c r="J23">
+            </c>
+      <c r="K23">
+            </c>
+      <c r="L23">
+            </c>
+      <c r="M23">
+            </c>
+      <c r="N23">
+            </c>
+      <c r="O23">
+            </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+            </c>
+      <c r="B24">
+            </c>
+      <c r="C24">
+            </c>
+      <c r="D24">
+            </c>
+      <c r="E24">
+            </c>
+      <c r="F24">
+            </c>
+      <c r="G24">
+            </c>
+      <c r="H24">
+            </c>
+      <c r="I24">
+            </c>
+      <c r="J24">
+            </c>
+      <c r="K24">
+            </c>
+      <c r="L24">
+            </c>
+      <c r="M24">
+            </c>
+      <c r="N24">
+            </c>
+      <c r="O24">
+            </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+            </c>
+      <c r="B25">
+            </c>
+      <c r="C25">
+            </c>
+      <c r="D25">
+            </c>
+      <c r="E25">
+            </c>
+      <c r="F25">
+            </c>
+      <c r="G25">
+            </c>
+      <c r="H25">
+            </c>
+      <c r="I25">
+            </c>
+      <c r="J25">
+            </c>
+      <c r="K25">
+            </c>
+      <c r="L25">
+            </c>
+      <c r="M25">
+            </c>
+      <c r="N25">
+            </c>
+      <c r="O25">
+            </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+            </c>
+      <c r="B26">
+            </c>
+      <c r="C26">
+            </c>
+      <c r="D26">
+            </c>
+      <c r="E26">
+            </c>
+      <c r="F26">
+            </c>
+      <c r="G26">
+            </c>
+      <c r="H26">
+            </c>
+      <c r="I26">
+            </c>
+      <c r="J26">
+            </c>
+      <c r="K26">
+            </c>
+      <c r="L26">
+            </c>
+      <c r="M26">
+            </c>
+      <c r="N26">
+            </c>
+      <c r="O26">
+            </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10270,7 +13770,7 @@
   <dimension ref="A2:I69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10302,26 +13802,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
@@ -10352,7 +13852,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -10375,7 +13875,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -10737,8 +14237,8 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10759,10 +14259,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
@@ -10775,33 +14272,33 @@
       <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="str">
+      <c r="A6" s="91" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>43322</v>
+        <v>43326</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -11122,8 +14619,8 @@
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11146,12 +14643,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
-    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
@@ -11162,27 +14653,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -11208,128 +14699,58 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="48">
-        <v>685</v>
-      </c>
-      <c r="C30" s="48">
-        <v>636</v>
-      </c>
-      <c r="D30" s="53">
-        <v>0.19416058394160587</v>
-      </c>
-      <c r="E30" s="52">
-        <v>2.0846715328467154</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="48">
-        <v>16</v>
-      </c>
+      <c r="A30" s="59"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="48">
-        <v>397</v>
-      </c>
-      <c r="C31" s="48">
-        <v>362</v>
-      </c>
-      <c r="D31" s="53">
-        <v>0.64483627204030225</v>
-      </c>
-      <c r="E31" s="52">
-        <v>1.8614609571788414</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="48">
-        <v>8</v>
-      </c>
+      <c r="A31" s="59"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="48">
-        <v>107</v>
-      </c>
-      <c r="C32" s="48">
-        <v>102</v>
-      </c>
-      <c r="D32" s="53">
-        <v>0.21495327102803738</v>
-      </c>
-      <c r="E32" s="52">
-        <v>2.05607476635514</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="48">
-        <v>7</v>
-      </c>
+      <c r="A32" s="59"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="48">
-        <v>34</v>
-      </c>
-      <c r="C33" s="48">
-        <v>24</v>
-      </c>
-      <c r="D33" s="53">
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="E33" s="52">
-        <v>4.882352941176471</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="48">
-        <v>3</v>
-      </c>
+      <c r="A33" s="59"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="48">
-        <v>2</v>
-      </c>
-      <c r="C34" s="48">
-        <v>2</v>
-      </c>
-      <c r="D34" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="52">
-        <v>1</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="48">
-        <v>0</v>
-      </c>
+      <c r="A34" s="59"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11353,8 +14774,8 @@
   </sheetPr>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11373,10 +14794,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -11387,28 +14805,28 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
-        <v>38</v>
+      <c r="A6" s="91" t="s">
+        <v>28</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>39</v>
+      <c r="A8" s="97" t="s">
+        <v>29</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B25" s="59" t="s">
         <v>12</v>
@@ -11647,8 +15065,8 @@
   </sheetPr>
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F57"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11667,10 +15085,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -11681,28 +15096,28 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
-        <v>41</v>
+      <c r="A6" s="91" t="s">
+        <v>31</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>42</v>
+      <c r="A8" s="94" t="s">
+        <v>32</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B25" s="59" t="s">
         <v>12</v>
@@ -11762,7 +15177,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B47" s="59" t="s">
         <v>12</v>
@@ -11885,8 +15300,8 @@
   </sheetPr>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11905,10 +15320,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -11919,24 +15331,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
-        <v>45</v>
+      <c r="A6" s="91" t="s">
+        <v>35</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>46</v>
+      <c r="A8" s="94" t="s">
+        <v>36</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
@@ -11948,7 +15360,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B26" s="59" t="s">
         <v>12</v>
@@ -12014,8 +15426,8 @@
   </sheetPr>
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F40"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12034,12 +15446,6 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
@@ -12049,28 +15455,28 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="68" t="s">
-        <v>48</v>
+      <c r="A6" s="91" t="s">
+        <v>38</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>49</v>
+      <c r="A8" s="94" t="s">
+        <v>39</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>12</v>
@@ -12349,13 +15755,13 @@
   </sheetPr>
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.42578125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="87.42578125" style="64" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="48" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="43" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="52" customWidth="1"/>
@@ -12371,305 +15777,302 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" t="str">
-        <f>[1]Правила!B30</f>
-        <v>taritravel.com</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="82" t="s">
-        <v>51</v>
+      <c r="A6" s="70" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>52</v>
+      <c r="A8" s="97" t="s">
+        <v>42</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>53</v>
+      <c r="A10" s="76" t="s">
+        <v>43</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="G10" s="76" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -2428,6 +2428,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Источники трафика</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3567,6 +3593,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3673,6 +3700,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3953,6 +3981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4150,6 +4179,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4256,6 +4286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4528,6 +4559,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4609,6 +4641,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4889,6 +4922,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поисковой</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> трафик</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4933,9 +4996,6 @@
               <c:f>'Данные для поискового трафика'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5128,9 +5188,6 @@
               <c:f>'Данные для поискового трафика'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5323,9 +5380,6 @@
               <c:f>'Данные для поискового трафика'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5518,9 +5572,6 @@
               <c:f>'Данные для поискового трафика'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5713,9 +5764,6 @@
               <c:f>'Данные для поискового трафика'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -10676,16 +10724,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1265392</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3105047</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>470618</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>174215</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1218791</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12026,10 +12074,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="P26" sqref="O26:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12053,40 +12101,35 @@
       <c r="B1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="86">
-            </c>
+      <c r="C1" s="86"/>
       <c r="D1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="86">
-            </c>
+      <c r="F1" s="86"/>
       <c r="G1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="86">
-            </c>
+      <c r="I1" s="86"/>
       <c r="J1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="86">
-            </c>
+      <c r="L1" s="86"/>
       <c r="M1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="86">
-            </c>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -12854,38 +12897,6 @@
       <c r="N25">
             </c>
       <c r="O25">
-            </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-            </c>
-      <c r="B26">
-            </c>
-      <c r="C26">
-            </c>
-      <c r="D26">
-            </c>
-      <c r="E26">
-            </c>
-      <c r="F26">
-            </c>
-      <c r="G26">
-            </c>
-      <c r="H26">
-            </c>
-      <c r="I26">
-            </c>
-      <c r="J26">
-            </c>
-      <c r="K26">
-            </c>
-      <c r="L26">
-            </c>
-      <c r="M26">
-            </c>
-      <c r="N26">
-            </c>
-      <c r="O26">
             </c>
     </row>
   </sheetData>
@@ -12895,10 +12906,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13723,38 +13734,6 @@
       <c r="N25">
             </c>
       <c r="O25">
-            </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-            </c>
-      <c r="B26">
-            </c>
-      <c r="C26">
-            </c>
-      <c r="D26">
-            </c>
-      <c r="E26">
-            </c>
-      <c r="F26">
-            </c>
-      <c r="G26">
-            </c>
-      <c r="H26">
-            </c>
-      <c r="I26">
-            </c>
-      <c r="J26">
-            </c>
-      <c r="K26">
-            </c>
-      <c r="L26">
-            </c>
-      <c r="M26">
-            </c>
-      <c r="N26">
-            </c>
-      <c r="O26">
             </c>
     </row>
   </sheetData>
@@ -14237,7 +14216,7 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -14285,7 +14264,7 @@
       <c r="H6" s="91"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
-        <v>43326</v>
+        <v>43335</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -14620,7 +14599,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,72 +4,78 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
-    <sheet name="Общие по месяцу" sheetId="3" r:id="rId2"/>
-    <sheet name="Посещ-сть по месяцам" sheetId="7" r:id="rId3"/>
-    <sheet name="Источники, сводка" sheetId="8" r:id="rId4"/>
-    <sheet name="География" sheetId="10" r:id="rId5"/>
-    <sheet name="Технологии" sheetId="11" r:id="rId6"/>
-    <sheet name="Устройства" sheetId="13" r:id="rId7"/>
-    <sheet name="Поиск. фразы" sheetId="14" r:id="rId8"/>
-    <sheet name="Поп. страницы" sheetId="15" r:id="rId9"/>
-    <sheet name="Поисковой трафик" sheetId="17" r:id="rId10"/>
-    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId11"/>
-    <sheet name="Данные для источники сводки" sheetId="21" state="hidden" r:id="rId12"/>
+    <sheet name="Оглавление" sheetId="22" r:id="rId2"/>
+    <sheet name="Общие по месяцу" sheetId="3" r:id="rId3"/>
+    <sheet name="Посещ-сть по месяцам" sheetId="7" r:id="rId4"/>
+    <sheet name="Источники, сводка" sheetId="8" r:id="rId5"/>
+    <sheet name="География" sheetId="10" r:id="rId6"/>
+    <sheet name="Технологии" sheetId="11" r:id="rId7"/>
+    <sheet name="Устройства" sheetId="13" r:id="rId8"/>
+    <sheet name="Поиск. фразы" sheetId="14" r:id="rId9"/>
+    <sheet name="Поп. страницы" sheetId="15" r:id="rId10"/>
+    <sheet name="Поисковой трафик" sheetId="17" r:id="rId11"/>
+    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId12"/>
+    <sheet name="Данные для источники сводки" sheetId="21" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="12">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="11">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="11">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="1">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="8">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="10">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="7">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="9">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="2">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="6">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">География!$A$25:$F$50</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Источники, сводка'!$A$29:$G$34</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
-    <definedName name="ExternalData_1" localSheetId="9" hidden="1">'Поисковой трафик'!$A$29:$G$34</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Технологии!$A$25:$F$30</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">Устройства!$A$26:$F$29</definedName>
-    <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Источники, сводка'!#REF!</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
-    <definedName name="ExternalData_2" localSheetId="9" hidden="1">'Поисковой трафик'!#REF!</definedName>
-    <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
-    <definedName name="ExternalData_2" localSheetId="5" hidden="1">Технологии!$A$47:$F$57</definedName>
-    <definedName name="ExternalData_3" localSheetId="8" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">География!$A$25:$F$50</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Источники, сводка'!$A$29:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Оглавление!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="10" hidden="1">'Поисковой трафик'!$A$29:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">Технологии!$A$25:$F$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Устройства!$A$26:$F$29</definedName>
+    <definedName name="ExternalData_2" localSheetId="4" hidden="1">'Источники, сводка'!#REF!</definedName>
+    <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Общие по месяцу'!$G$13:$G$14</definedName>
+    <definedName name="ExternalData_2" localSheetId="8" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
+    <definedName name="ExternalData_2" localSheetId="10" hidden="1">'Поисковой трафик'!#REF!</definedName>
+    <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Посещ-сть по месяцам'!$A$40:$H$52</definedName>
+    <definedName name="ExternalData_2" localSheetId="6" hidden="1">Технологии!$A$47:$F$57</definedName>
+    <definedName name="ExternalData_3" localSheetId="9" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
+    <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="12">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="11">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="11">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="1">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="8">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="10">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="7">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="9">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="2">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="6">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="12">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="11">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="11">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="1">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="8">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="10">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="7">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="9">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="2">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="6">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">География!$A$1:$F$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Источники, сводка'!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Общие по месяцу'!$A$1:$G$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Поиск. фразы'!$A$1:$F$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Поисковой трафик'!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Технологии!$A$1:$F$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Устройства!$A$1:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">География!$A$1:$F$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Источники, сводка'!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Общие по месяцу'!$A$1:$G$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Оглавление!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Поиск. фразы'!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Поисковой трафик'!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Посещ-сть по месяцам'!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Технологии!$A$1:$F$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Устройства!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -659,6 +665,37 @@
   <si>
     <t>Дата</t>
   </si>
+  <si>
+    <t xml:space="preserve">     Представляем Вашему вниманию статистический отчет по продвижению сайта за очередной отчетный период. В отчете собраны наиболее важные статистические данные сайта и поведенческие показатели посетителей (целевой аудитории), которые позволят Вам проанализировать текущее состояние проекта, принять важные управленческие решения в области рекламы и интернет-маркетинга. 
+     Команда специалистов, работающая над вашим проектом, всегда готова ответить на ваши вопросы и обсудить развитие рекламной кампании: дополнить новыми рекламными стратегиями и медиа-каналами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С уважением, </t>
+  </si>
+  <si>
+    <t>Содержание:</t>
+  </si>
+  <si>
+    <t>Посещаемость сайта за отчетный период и конверсии</t>
+  </si>
+  <si>
+    <t>Ниже представлены рекомендации по развитию проекта, основанные на анализе статистических данных отчета.</t>
+  </si>
+  <si>
+    <t>заполняется РП</t>
+  </si>
+  <si>
+    <t>Динамика посещаемости по месяцам за 2017 - 2018гг.</t>
+  </si>
+  <si>
+    <t>Техничесие параметры просмотра сайта</t>
+  </si>
+  <si>
+    <t>Популярные страницы сайта (страницы свхода)</t>
+  </si>
+  <si>
+    <t>Поисковой трафик</t>
+  </si>
 </sst>
 </file>
 
@@ -668,7 +705,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +868,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -893,7 +937,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1101,6 +1145,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,13 +1173,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1848,6 +1902,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2151,6 +2206,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,9 +2553,6 @@
               <c:f>'Данные для источники сводки'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2521,78 +2574,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2602,78 +2583,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2692,9 +2601,6 @@
               <c:f>'Данные для источники сводки'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2716,78 +2622,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2797,78 +2631,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2887,9 +2649,6 @@
               <c:f>'Данные для источники сводки'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2911,78 +2670,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2992,78 +2679,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3082,9 +2697,6 @@
               <c:f>'Данные для источники сводки'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3106,78 +2718,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3187,78 +2727,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3277,9 +2745,6 @@
               <c:f>'Данные для источники сводки'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3301,78 +2766,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3382,78 +2775,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5017,78 +4338,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5098,78 +4347,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5209,78 +4386,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5290,78 +4395,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5401,78 +4434,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5482,78 +4443,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5593,78 +4482,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5674,78 +4491,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5785,78 +4530,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5866,78 +4539,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10516,6 +9117,134 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21169</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>981824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21169" y="10584"/>
+          <a:ext cx="3103780" cy="755076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351058</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3103783" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4561347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1167580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51209</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -10595,7 +9324,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10676,7 +9405,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10755,7 +9484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10836,7 +9565,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10949,7 +9678,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11030,7 +9759,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11079,7 +9808,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11123,85 +9852,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>351058</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>172370</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3103783" cy="743870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>102520</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4561347</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1167580</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>51209</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11844,7 +10494,7 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -11919,13 +10569,354 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист14">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.42578125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="58"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11948,6 +10939,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
@@ -11958,27 +10954,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" ht="360.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -12049,13 +11045,13 @@
       <c r="G34" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12072,9 +11068,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="O26:P26"/>
@@ -12131,782 +11127,14 @@
       </c>
       <c r="O1" s="86"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-            </c>
-      <c r="B2">
-            </c>
-      <c r="C2">
-            </c>
-      <c r="D2">
-            </c>
-      <c r="E2">
-            </c>
-      <c r="F2">
-            </c>
-      <c r="G2">
-            </c>
-      <c r="H2">
-            </c>
-      <c r="I2">
-            </c>
-      <c r="J2">
-            </c>
-      <c r="K2">
-            </c>
-      <c r="L2">
-            </c>
-      <c r="M2">
-            </c>
-      <c r="N2">
-            </c>
-      <c r="O2">
-            </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-            </c>
-      <c r="B3">
-            </c>
-      <c r="C3">
-            </c>
-      <c r="D3">
-            </c>
-      <c r="E3">
-            </c>
-      <c r="F3">
-            </c>
-      <c r="G3">
-            </c>
-      <c r="H3">
-            </c>
-      <c r="I3">
-            </c>
-      <c r="J3">
-            </c>
-      <c r="K3">
-            </c>
-      <c r="L3">
-            </c>
-      <c r="M3">
-            </c>
-      <c r="N3">
-            </c>
-      <c r="O3">
-            </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-            </c>
-      <c r="B4">
-            </c>
-      <c r="C4">
-            </c>
-      <c r="D4">
-            </c>
-      <c r="E4">
-            </c>
-      <c r="F4">
-            </c>
-      <c r="G4">
-            </c>
-      <c r="H4">
-            </c>
-      <c r="I4">
-            </c>
-      <c r="J4">
-            </c>
-      <c r="K4">
-            </c>
-      <c r="L4">
-            </c>
-      <c r="M4">
-            </c>
-      <c r="N4">
-            </c>
-      <c r="O4">
-            </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-            </c>
-      <c r="B5">
-            </c>
-      <c r="C5">
-            </c>
-      <c r="D5">
-            </c>
-      <c r="E5">
-            </c>
-      <c r="F5">
-            </c>
-      <c r="G5">
-            </c>
-      <c r="H5">
-            </c>
-      <c r="I5">
-            </c>
-      <c r="J5">
-            </c>
-      <c r="K5">
-            </c>
-      <c r="L5">
-            </c>
-      <c r="M5">
-            </c>
-      <c r="N5">
-            </c>
-      <c r="O5">
-            </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-            </c>
-      <c r="B6">
-            </c>
-      <c r="C6">
-            </c>
-      <c r="D6">
-            </c>
-      <c r="E6">
-            </c>
-      <c r="F6">
-            </c>
-      <c r="G6">
-            </c>
-      <c r="H6">
-            </c>
-      <c r="I6">
-            </c>
-      <c r="J6">
-            </c>
-      <c r="K6">
-            </c>
-      <c r="L6">
-            </c>
-      <c r="M6">
-            </c>
-      <c r="N6">
-            </c>
-      <c r="O6">
-            </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-            </c>
-      <c r="B7">
-            </c>
-      <c r="C7">
-            </c>
-      <c r="D7">
-            </c>
-      <c r="E7">
-            </c>
-      <c r="F7">
-            </c>
-      <c r="G7">
-            </c>
-      <c r="H7">
-            </c>
-      <c r="I7">
-            </c>
-      <c r="J7">
-            </c>
-      <c r="K7">
-            </c>
-      <c r="L7">
-            </c>
-      <c r="M7">
-            </c>
-      <c r="N7">
-            </c>
-      <c r="O7">
-            </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-            </c>
-      <c r="B8">
-            </c>
-      <c r="C8">
-            </c>
-      <c r="D8">
-            </c>
-      <c r="E8">
-            </c>
-      <c r="F8">
-            </c>
-      <c r="G8">
-            </c>
-      <c r="H8">
-            </c>
-      <c r="I8">
-            </c>
-      <c r="J8">
-            </c>
-      <c r="K8">
-            </c>
-      <c r="L8">
-            </c>
-      <c r="M8">
-            </c>
-      <c r="N8">
-            </c>
-      <c r="O8">
-            </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-            </c>
-      <c r="B9">
-            </c>
-      <c r="C9">
-            </c>
-      <c r="D9">
-            </c>
-      <c r="E9">
-            </c>
-      <c r="F9">
-            </c>
-      <c r="G9">
-            </c>
-      <c r="H9">
-            </c>
-      <c r="I9">
-            </c>
-      <c r="J9">
-            </c>
-      <c r="K9">
-            </c>
-      <c r="L9">
-            </c>
-      <c r="M9">
-            </c>
-      <c r="N9">
-            </c>
-      <c r="O9">
-            </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-            </c>
-      <c r="B10">
-            </c>
-      <c r="C10">
-            </c>
-      <c r="D10">
-            </c>
-      <c r="E10">
-            </c>
-      <c r="F10">
-            </c>
-      <c r="G10">
-            </c>
-      <c r="H10">
-            </c>
-      <c r="I10">
-            </c>
-      <c r="J10">
-            </c>
-      <c r="K10">
-            </c>
-      <c r="L10">
-            </c>
-      <c r="M10">
-            </c>
-      <c r="N10">
-            </c>
-      <c r="O10">
-            </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-            </c>
-      <c r="B11">
-            </c>
-      <c r="C11">
-            </c>
-      <c r="D11">
-            </c>
-      <c r="E11">
-            </c>
-      <c r="F11">
-            </c>
-      <c r="G11">
-            </c>
-      <c r="H11">
-            </c>
-      <c r="I11">
-            </c>
-      <c r="J11">
-            </c>
-      <c r="K11">
-            </c>
-      <c r="L11">
-            </c>
-      <c r="M11">
-            </c>
-      <c r="N11">
-            </c>
-      <c r="O11">
-            </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-            </c>
-      <c r="B12">
-            </c>
-      <c r="C12">
-            </c>
-      <c r="D12">
-            </c>
-      <c r="E12">
-            </c>
-      <c r="F12">
-            </c>
-      <c r="G12">
-            </c>
-      <c r="H12">
-            </c>
-      <c r="I12">
-            </c>
-      <c r="J12">
-            </c>
-      <c r="K12">
-            </c>
-      <c r="L12">
-            </c>
-      <c r="M12">
-            </c>
-      <c r="N12">
-            </c>
-      <c r="O12">
-            </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-            </c>
-      <c r="B13">
-            </c>
-      <c r="C13">
-            </c>
-      <c r="D13">
-            </c>
-      <c r="E13">
-            </c>
-      <c r="F13">
-            </c>
-      <c r="G13">
-            </c>
-      <c r="H13">
-            </c>
-      <c r="I13">
-            </c>
-      <c r="J13">
-            </c>
-      <c r="K13">
-            </c>
-      <c r="L13">
-            </c>
-      <c r="M13">
-            </c>
-      <c r="N13">
-            </c>
-      <c r="O13">
-            </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-            </c>
-      <c r="B14">
-            </c>
-      <c r="C14">
-            </c>
-      <c r="D14">
-            </c>
-      <c r="E14">
-            </c>
-      <c r="F14">
-            </c>
-      <c r="G14">
-            </c>
-      <c r="H14">
-            </c>
-      <c r="I14">
-            </c>
-      <c r="J14">
-            </c>
-      <c r="K14">
-            </c>
-      <c r="L14">
-            </c>
-      <c r="M14">
-            </c>
-      <c r="N14">
-            </c>
-      <c r="O14">
-            </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-            </c>
-      <c r="B15">
-            </c>
-      <c r="C15">
-            </c>
-      <c r="D15">
-            </c>
-      <c r="E15">
-            </c>
-      <c r="F15">
-            </c>
-      <c r="G15">
-            </c>
-      <c r="H15">
-            </c>
-      <c r="I15">
-            </c>
-      <c r="J15">
-            </c>
-      <c r="K15">
-            </c>
-      <c r="L15">
-            </c>
-      <c r="M15">
-            </c>
-      <c r="N15">
-            </c>
-      <c r="O15">
-            </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-            </c>
-      <c r="B16">
-            </c>
-      <c r="C16">
-            </c>
-      <c r="D16">
-            </c>
-      <c r="E16">
-            </c>
-      <c r="F16">
-            </c>
-      <c r="G16">
-            </c>
-      <c r="H16">
-            </c>
-      <c r="I16">
-            </c>
-      <c r="J16">
-            </c>
-      <c r="K16">
-            </c>
-      <c r="L16">
-            </c>
-      <c r="M16">
-            </c>
-      <c r="N16">
-            </c>
-      <c r="O16">
-            </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-            </c>
-      <c r="B17">
-            </c>
-      <c r="C17">
-            </c>
-      <c r="D17">
-            </c>
-      <c r="E17">
-            </c>
-      <c r="F17">
-            </c>
-      <c r="G17">
-            </c>
-      <c r="H17">
-            </c>
-      <c r="I17">
-            </c>
-      <c r="J17">
-            </c>
-      <c r="K17">
-            </c>
-      <c r="L17">
-            </c>
-      <c r="M17">
-            </c>
-      <c r="N17">
-            </c>
-      <c r="O17">
-            </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-            </c>
-      <c r="B18">
-            </c>
-      <c r="C18">
-            </c>
-      <c r="D18">
-            </c>
-      <c r="E18">
-            </c>
-      <c r="F18">
-            </c>
-      <c r="G18">
-            </c>
-      <c r="H18">
-            </c>
-      <c r="I18">
-            </c>
-      <c r="J18">
-            </c>
-      <c r="K18">
-            </c>
-      <c r="L18">
-            </c>
-      <c r="M18">
-            </c>
-      <c r="N18">
-            </c>
-      <c r="O18">
-            </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-            </c>
-      <c r="B19">
-            </c>
-      <c r="C19">
-            </c>
-      <c r="D19">
-            </c>
-      <c r="E19">
-            </c>
-      <c r="F19">
-            </c>
-      <c r="G19">
-            </c>
-      <c r="H19">
-            </c>
-      <c r="I19">
-            </c>
-      <c r="J19">
-            </c>
-      <c r="K19">
-            </c>
-      <c r="L19">
-            </c>
-      <c r="M19">
-            </c>
-      <c r="N19">
-            </c>
-      <c r="O19">
-            </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-            </c>
-      <c r="B20">
-            </c>
-      <c r="C20">
-            </c>
-      <c r="D20">
-            </c>
-      <c r="E20">
-            </c>
-      <c r="F20">
-            </c>
-      <c r="G20">
-            </c>
-      <c r="H20">
-            </c>
-      <c r="I20">
-            </c>
-      <c r="J20">
-            </c>
-      <c r="K20">
-            </c>
-      <c r="L20">
-            </c>
-      <c r="M20">
-            </c>
-      <c r="N20">
-            </c>
-      <c r="O20">
-            </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-            </c>
-      <c r="B21">
-            </c>
-      <c r="C21">
-            </c>
-      <c r="D21">
-            </c>
-      <c r="E21">
-            </c>
-      <c r="F21">
-            </c>
-      <c r="G21">
-            </c>
-      <c r="H21">
-            </c>
-      <c r="I21">
-            </c>
-      <c r="J21">
-            </c>
-      <c r="K21">
-            </c>
-      <c r="L21">
-            </c>
-      <c r="M21">
-            </c>
-      <c r="N21">
-            </c>
-      <c r="O21">
-            </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-            </c>
-      <c r="B22">
-            </c>
-      <c r="C22">
-            </c>
-      <c r="D22">
-            </c>
-      <c r="E22">
-            </c>
-      <c r="F22">
-            </c>
-      <c r="G22">
-            </c>
-      <c r="H22">
-            </c>
-      <c r="I22">
-            </c>
-      <c r="J22">
-            </c>
-      <c r="K22">
-            </c>
-      <c r="L22">
-            </c>
-      <c r="M22">
-            </c>
-      <c r="N22">
-            </c>
-      <c r="O22">
-            </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-            </c>
-      <c r="B23">
-            </c>
-      <c r="C23">
-            </c>
-      <c r="D23">
-            </c>
-      <c r="E23">
-            </c>
-      <c r="F23">
-            </c>
-      <c r="G23">
-            </c>
-      <c r="H23">
-            </c>
-      <c r="I23">
-            </c>
-      <c r="J23">
-            </c>
-      <c r="K23">
-            </c>
-      <c r="L23">
-            </c>
-      <c r="M23">
-            </c>
-      <c r="N23">
-            </c>
-      <c r="O23">
-            </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-            </c>
-      <c r="B24">
-            </c>
-      <c r="C24">
-            </c>
-      <c r="D24">
-            </c>
-      <c r="E24">
-            </c>
-      <c r="F24">
-            </c>
-      <c r="G24">
-            </c>
-      <c r="H24">
-            </c>
-      <c r="I24">
-            </c>
-      <c r="J24">
-            </c>
-      <c r="K24">
-            </c>
-      <c r="L24">
-            </c>
-      <c r="M24">
-            </c>
-      <c r="N24">
-            </c>
-      <c r="O24">
-            </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-            </c>
-      <c r="B25">
-            </c>
-      <c r="C25">
-            </c>
-      <c r="D25">
-            </c>
-      <c r="E25">
-            </c>
-      <c r="F25">
-            </c>
-      <c r="G25">
-            </c>
-      <c r="H25">
-            </c>
-      <c r="I25">
-            </c>
-      <c r="J25">
-            </c>
-      <c r="K25">
-            </c>
-      <c r="L25">
-            </c>
-      <c r="M25">
-            </c>
-      <c r="N25">
-            </c>
-      <c r="O25">
-            </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
@@ -12933,808 +11161,35 @@
       <c r="B1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="86">
-            </c>
+      <c r="C1" s="86"/>
       <c r="D1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="86">
-            </c>
+      <c r="F1" s="86"/>
       <c r="G1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="86">
-            </c>
+      <c r="I1" s="86"/>
       <c r="J1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="86">
-            </c>
+      <c r="L1" s="86"/>
       <c r="M1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="86">
-            </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-            </c>
-      <c r="B2">
-            </c>
-      <c r="C2">
-            </c>
-      <c r="D2">
-            </c>
-      <c r="E2">
-            </c>
-      <c r="F2">
-            </c>
-      <c r="G2">
-            </c>
-      <c r="H2">
-            </c>
-      <c r="I2">
-            </c>
-      <c r="J2">
-            </c>
-      <c r="K2">
-            </c>
-      <c r="L2">
-            </c>
-      <c r="M2">
-            </c>
-      <c r="N2">
-            </c>
-      <c r="O2">
-            </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-            </c>
-      <c r="B3">
-            </c>
-      <c r="C3">
-            </c>
-      <c r="D3">
-            </c>
-      <c r="E3">
-            </c>
-      <c r="F3">
-            </c>
-      <c r="G3">
-            </c>
-      <c r="H3">
-            </c>
-      <c r="I3">
-            </c>
-      <c r="J3">
-            </c>
-      <c r="K3">
-            </c>
-      <c r="L3">
-            </c>
-      <c r="M3">
-            </c>
-      <c r="N3">
-            </c>
-      <c r="O3">
-            </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-            </c>
-      <c r="B4">
-            </c>
-      <c r="C4">
-            </c>
-      <c r="D4">
-            </c>
-      <c r="E4">
-            </c>
-      <c r="F4">
-            </c>
-      <c r="G4">
-            </c>
-      <c r="H4">
-            </c>
-      <c r="I4">
-            </c>
-      <c r="J4">
-            </c>
-      <c r="K4">
-            </c>
-      <c r="L4">
-            </c>
-      <c r="M4">
-            </c>
-      <c r="N4">
-            </c>
-      <c r="O4">
-            </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-            </c>
-      <c r="B5">
-            </c>
-      <c r="C5">
-            </c>
-      <c r="D5">
-            </c>
-      <c r="E5">
-            </c>
-      <c r="F5">
-            </c>
-      <c r="G5">
-            </c>
-      <c r="H5">
-            </c>
-      <c r="I5">
-            </c>
-      <c r="J5">
-            </c>
-      <c r="K5">
-            </c>
-      <c r="L5">
-            </c>
-      <c r="M5">
-            </c>
-      <c r="N5">
-            </c>
-      <c r="O5">
-            </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-            </c>
-      <c r="B6">
-            </c>
-      <c r="C6">
-            </c>
-      <c r="D6">
-            </c>
-      <c r="E6">
-            </c>
-      <c r="F6">
-            </c>
-      <c r="G6">
-            </c>
-      <c r="H6">
-            </c>
-      <c r="I6">
-            </c>
-      <c r="J6">
-            </c>
-      <c r="K6">
-            </c>
-      <c r="L6">
-            </c>
-      <c r="M6">
-            </c>
-      <c r="N6">
-            </c>
-      <c r="O6">
-            </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-            </c>
-      <c r="B7">
-            </c>
-      <c r="C7">
-            </c>
-      <c r="D7">
-            </c>
-      <c r="E7">
-            </c>
-      <c r="F7">
-            </c>
-      <c r="G7">
-            </c>
-      <c r="H7">
-            </c>
-      <c r="I7">
-            </c>
-      <c r="J7">
-            </c>
-      <c r="K7">
-            </c>
-      <c r="L7">
-            </c>
-      <c r="M7">
-            </c>
-      <c r="N7">
-            </c>
-      <c r="O7">
-            </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-            </c>
-      <c r="B8">
-            </c>
-      <c r="C8">
-            </c>
-      <c r="D8">
-            </c>
-      <c r="E8">
-            </c>
-      <c r="F8">
-            </c>
-      <c r="G8">
-            </c>
-      <c r="H8">
-            </c>
-      <c r="I8">
-            </c>
-      <c r="J8">
-            </c>
-      <c r="K8">
-            </c>
-      <c r="L8">
-            </c>
-      <c r="M8">
-            </c>
-      <c r="N8">
-            </c>
-      <c r="O8">
-            </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-            </c>
-      <c r="B9">
-            </c>
-      <c r="C9">
-            </c>
-      <c r="D9">
-            </c>
-      <c r="E9">
-            </c>
-      <c r="F9">
-            </c>
-      <c r="G9">
-            </c>
-      <c r="H9">
-            </c>
-      <c r="I9">
-            </c>
-      <c r="J9">
-            </c>
-      <c r="K9">
-            </c>
-      <c r="L9">
-            </c>
-      <c r="M9">
-            </c>
-      <c r="N9">
-            </c>
-      <c r="O9">
-            </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-            </c>
-      <c r="B10">
-            </c>
-      <c r="C10">
-            </c>
-      <c r="D10">
-            </c>
-      <c r="E10">
-            </c>
-      <c r="F10">
-            </c>
-      <c r="G10">
-            </c>
-      <c r="H10">
-            </c>
-      <c r="I10">
-            </c>
-      <c r="J10">
-            </c>
-      <c r="K10">
-            </c>
-      <c r="L10">
-            </c>
-      <c r="M10">
-            </c>
-      <c r="N10">
-            </c>
-      <c r="O10">
-            </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-            </c>
-      <c r="B11">
-            </c>
-      <c r="C11">
-            </c>
-      <c r="D11">
-            </c>
-      <c r="E11">
-            </c>
-      <c r="F11">
-            </c>
-      <c r="G11">
-            </c>
-      <c r="H11">
-            </c>
-      <c r="I11">
-            </c>
-      <c r="J11">
-            </c>
-      <c r="K11">
-            </c>
-      <c r="L11">
-            </c>
-      <c r="M11">
-            </c>
-      <c r="N11">
-            </c>
-      <c r="O11">
-            </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-            </c>
-      <c r="B12">
-            </c>
-      <c r="C12">
-            </c>
-      <c r="D12">
-            </c>
-      <c r="E12">
-            </c>
-      <c r="F12">
-            </c>
-      <c r="G12">
-            </c>
-      <c r="H12">
-            </c>
-      <c r="I12">
-            </c>
-      <c r="J12">
-            </c>
-      <c r="K12">
-            </c>
-      <c r="L12">
-            </c>
-      <c r="M12">
-            </c>
-      <c r="N12">
-            </c>
-      <c r="O12">
-            </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-            </c>
-      <c r="B13">
-            </c>
-      <c r="C13">
-            </c>
-      <c r="D13">
-            </c>
-      <c r="E13">
-            </c>
-      <c r="F13">
-            </c>
-      <c r="G13">
-            </c>
-      <c r="H13">
-            </c>
-      <c r="I13">
-            </c>
-      <c r="J13">
-            </c>
-      <c r="K13">
-            </c>
-      <c r="L13">
-            </c>
-      <c r="M13">
-            </c>
-      <c r="N13">
-            </c>
-      <c r="O13">
-            </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-            </c>
-      <c r="B14">
-            </c>
-      <c r="C14">
-            </c>
-      <c r="D14">
-            </c>
-      <c r="E14">
-            </c>
-      <c r="F14">
-            </c>
-      <c r="G14">
-            </c>
-      <c r="H14">
-            </c>
-      <c r="I14">
-            </c>
-      <c r="J14">
-            </c>
-      <c r="K14">
-            </c>
-      <c r="L14">
-            </c>
-      <c r="M14">
-            </c>
-      <c r="N14">
-            </c>
-      <c r="O14">
-            </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-            </c>
-      <c r="B15">
-            </c>
-      <c r="C15">
-            </c>
-      <c r="D15">
-            </c>
-      <c r="E15">
-            </c>
-      <c r="F15">
-            </c>
-      <c r="G15">
-            </c>
-      <c r="H15">
-            </c>
-      <c r="I15">
-            </c>
-      <c r="J15">
-            </c>
-      <c r="K15">
-            </c>
-      <c r="L15">
-            </c>
-      <c r="M15">
-            </c>
-      <c r="N15">
-            </c>
-      <c r="O15">
-            </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-            </c>
-      <c r="B16">
-            </c>
-      <c r="C16">
-            </c>
-      <c r="D16">
-            </c>
-      <c r="E16">
-            </c>
-      <c r="F16">
-            </c>
-      <c r="G16">
-            </c>
-      <c r="H16">
-            </c>
-      <c r="I16">
-            </c>
-      <c r="J16">
-            </c>
-      <c r="K16">
-            </c>
-      <c r="L16">
-            </c>
-      <c r="M16">
-            </c>
-      <c r="N16">
-            </c>
-      <c r="O16">
-            </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-            </c>
-      <c r="B17">
-            </c>
-      <c r="C17">
-            </c>
-      <c r="D17">
-            </c>
-      <c r="E17">
-            </c>
-      <c r="F17">
-            </c>
-      <c r="G17">
-            </c>
-      <c r="H17">
-            </c>
-      <c r="I17">
-            </c>
-      <c r="J17">
-            </c>
-      <c r="K17">
-            </c>
-      <c r="L17">
-            </c>
-      <c r="M17">
-            </c>
-      <c r="N17">
-            </c>
-      <c r="O17">
-            </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-            </c>
-      <c r="B18">
-            </c>
-      <c r="C18">
-            </c>
-      <c r="D18">
-            </c>
-      <c r="E18">
-            </c>
-      <c r="F18">
-            </c>
-      <c r="G18">
-            </c>
-      <c r="H18">
-            </c>
-      <c r="I18">
-            </c>
-      <c r="J18">
-            </c>
-      <c r="K18">
-            </c>
-      <c r="L18">
-            </c>
-      <c r="M18">
-            </c>
-      <c r="N18">
-            </c>
-      <c r="O18">
-            </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-            </c>
-      <c r="B19">
-            </c>
-      <c r="C19">
-            </c>
-      <c r="D19">
-            </c>
-      <c r="E19">
-            </c>
-      <c r="F19">
-            </c>
-      <c r="G19">
-            </c>
-      <c r="H19">
-            </c>
-      <c r="I19">
-            </c>
-      <c r="J19">
-            </c>
-      <c r="K19">
-            </c>
-      <c r="L19">
-            </c>
-      <c r="M19">
-            </c>
-      <c r="N19">
-            </c>
-      <c r="O19">
-            </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-            </c>
-      <c r="B20">
-            </c>
-      <c r="C20">
-            </c>
-      <c r="D20">
-            </c>
-      <c r="E20">
-            </c>
-      <c r="F20">
-            </c>
-      <c r="G20">
-            </c>
-      <c r="H20">
-            </c>
-      <c r="I20">
-            </c>
-      <c r="J20">
-            </c>
-      <c r="K20">
-            </c>
-      <c r="L20">
-            </c>
-      <c r="M20">
-            </c>
-      <c r="N20">
-            </c>
-      <c r="O20">
-            </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-            </c>
-      <c r="B21">
-            </c>
-      <c r="C21">
-            </c>
-      <c r="D21">
-            </c>
-      <c r="E21">
-            </c>
-      <c r="F21">
-            </c>
-      <c r="G21">
-            </c>
-      <c r="H21">
-            </c>
-      <c r="I21">
-            </c>
-      <c r="J21">
-            </c>
-      <c r="K21">
-            </c>
-      <c r="L21">
-            </c>
-      <c r="M21">
-            </c>
-      <c r="N21">
-            </c>
-      <c r="O21">
-            </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-            </c>
-      <c r="B22">
-            </c>
-      <c r="C22">
-            </c>
-      <c r="D22">
-            </c>
-      <c r="E22">
-            </c>
-      <c r="F22">
-            </c>
-      <c r="G22">
-            </c>
-      <c r="H22">
-            </c>
-      <c r="I22">
-            </c>
-      <c r="J22">
-            </c>
-      <c r="K22">
-            </c>
-      <c r="L22">
-            </c>
-      <c r="M22">
-            </c>
-      <c r="N22">
-            </c>
-      <c r="O22">
-            </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-            </c>
-      <c r="B23">
-            </c>
-      <c r="C23">
-            </c>
-      <c r="D23">
-            </c>
-      <c r="E23">
-            </c>
-      <c r="F23">
-            </c>
-      <c r="G23">
-            </c>
-      <c r="H23">
-            </c>
-      <c r="I23">
-            </c>
-      <c r="J23">
-            </c>
-      <c r="K23">
-            </c>
-      <c r="L23">
-            </c>
-      <c r="M23">
-            </c>
-      <c r="N23">
-            </c>
-      <c r="O23">
-            </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-            </c>
-      <c r="B24">
-            </c>
-      <c r="C24">
-            </c>
-      <c r="D24">
-            </c>
-      <c r="E24">
-            </c>
-      <c r="F24">
-            </c>
-      <c r="G24">
-            </c>
-      <c r="H24">
-            </c>
-      <c r="I24">
-            </c>
-      <c r="J24">
-            </c>
-      <c r="K24">
-            </c>
-      <c r="L24">
-            </c>
-      <c r="M24">
-            </c>
-      <c r="N24">
-            </c>
-      <c r="O24">
-            </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-            </c>
-      <c r="B25">
-            </c>
-      <c r="C25">
-            </c>
-      <c r="D25">
-            </c>
-      <c r="E25">
-            </c>
-      <c r="F25">
-            </c>
-      <c r="G25">
-            </c>
-      <c r="H25">
-            </c>
-      <c r="I25">
-            </c>
-      <c r="J25">
-            </c>
-      <c r="K25">
-            </c>
-      <c r="L25">
-            </c>
-      <c r="M25">
-            </c>
-      <c r="N25">
-            </c>
-      <c r="O25">
-            </c>
+      <c r="O1" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13743,13 +11198,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:G37"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+            </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="92">
+        <v>0</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+    </row>
+    <row r="8" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="E9" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="91">
+        <v>0</v>
+      </c>
+      <c r="G9" s="88"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="90"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26" s="89">
+            </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+    </row>
+    <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+    </row>
+    <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+    </row>
+    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+    </row>
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+    </row>
+    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+    </row>
+    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+    </row>
+    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+    </row>
+    <row r="36" spans="1:7" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+    </row>
+    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B28:G36"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" location="'Общие по месяцу'!A1" display="Динамика посещаемости по месяцам за 2017 - 2018"/>
+    <hyperlink ref="C14" location="'Посещ-сть по месяцам'!A1" display="Динамика посещаемости по месяцам за 2017 - 2018гг."/>
+    <hyperlink ref="C15" location="'Источники, сводка'!A1" display="Источники трафика и целевые визиты на сайт (лиды)"/>
+    <hyperlink ref="C16" location="География!A1" display="География посещений"/>
+    <hyperlink ref="C17" location="Технологии!A1" display="Техничесие параметры просмотра сайта"/>
+    <hyperlink ref="C18" location="Устройства!A1" display="Устройства просмотра сайта"/>
+    <hyperlink ref="C19" location="'Поиск. фразы'!A1" display="Поисковые фразы"/>
+    <hyperlink ref="C20" location="'Поп. страницы'!A1" display="Популярные страницы сайта (страницы свхода)"/>
+    <hyperlink ref="C21" location="'Поисковой трафик'!A1" display="Поисковой трафик"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:I69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13770,6 +11555,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
@@ -13781,26 +11571,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>8</v>
@@ -13831,7 +11621,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="97" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -13854,7 +11644,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -14209,7 +11999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6">
     <tabColor rgb="FF00B050"/>
@@ -14238,7 +12028,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
@@ -14251,24 +12043,24 @@
       <c r="H4" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="str">
+      <c r="A6" s="92" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
       <c r="J6" s="46">
         <f ca="1">TODAY()</f>
         <v>43335</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="99" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="93"/>
@@ -14591,15 +12383,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14622,6 +12414,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
@@ -14632,27 +12429,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="58"/>
     </row>
     <row r="8" spans="1:8" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
@@ -14723,13 +12520,13 @@
       <c r="G34" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14746,7 +12543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист9">
     <tabColor rgb="FF00B050"/>
@@ -14773,7 +12570,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -14784,24 +12583,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -15037,7 +12836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист10">
     <tabColor rgb="FF00B050"/>
@@ -15064,7 +12863,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -15075,24 +12876,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -15272,7 +13073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист11">
     <tabColor rgb="FF00B050"/>
@@ -15299,7 +13100,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -15310,24 +13113,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
@@ -15398,7 +13201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист12">
     <tabColor rgb="FF00B050"/>
@@ -15425,6 +13228,11 @@
       </c>
       <c r="E2"/>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
@@ -15434,24 +13242,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
@@ -15725,343 +13533,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист14">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A2:H35"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="87.42578125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="52" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-    </row>
-    <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="82"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="82"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:G8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="dimensions_line">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">География!$A$25:$F$50</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Источники, сводка'!$A$29:$G$34</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Общие по месяцу'!$A$37:$G$68</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Общие по месяцу'!$A$37:$G$69</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Оглавление!#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">'Поисковой трафик'!$A$29:$G$34</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Посещ-сть по месяцам'!$A$27:$H$39</definedName>
@@ -69,7 +69,7 @@
     <definedName name="metrics_line">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">География!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Источники, сводка'!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Общие по месяцу'!$A$1:$G$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Общие по месяцу'!$A$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Оглавление!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Поиск. фразы'!$A$1:$F$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Поисковой трафик'!$A$1:$G$34</definedName>
@@ -1902,7 +1902,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1979,19 +1978,19 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Общие по месяцу'!$A$38:$A$69</c:f>
+              <c:f>'Общие по месяцу'!$A$38:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Общие по месяцу'!$B$38:$B$69</c:f>
+              <c:f>'Общие по месяцу'!$B$38:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2206,7 +2205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2509,7 +2507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2914,7 +2911,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3021,7 +3017,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3302,7 +3297,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3500,7 +3494,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3607,7 +3600,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3880,7 +3872,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3962,7 +3953,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10041,8 +10031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G69" tableType="queryTable" totalsRowCount="1" headerRowDxfId="91">
-  <autoFilter ref="A37:G68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G70" tableType="queryTable" totalsRowCount="1" headerRowDxfId="91">
+  <autoFilter ref="A37:G69"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
@@ -10494,7 +10484,7 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -10597,8 +10587,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
@@ -10915,7 +10904,7 @@
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -10941,8 +10930,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -11070,10 +11058,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="O26:P26"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11097,35 +11085,808 @@
       <c r="B1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="86">
+            </c>
       <c r="D1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="86"/>
+      <c r="F1" s="86">
+            </c>
       <c r="G1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="86"/>
+      <c r="I1" s="86">
+            </c>
       <c r="J1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="86"/>
+      <c r="L1" s="86">
+            </c>
       <c r="M1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="86"/>
+      <c r="O1" s="86">
+            </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+            </c>
+      <c r="B2">
+            </c>
+      <c r="C2">
+            </c>
+      <c r="D2">
+            </c>
+      <c r="E2">
+            </c>
+      <c r="F2">
+            </c>
+      <c r="G2">
+            </c>
+      <c r="H2">
+            </c>
+      <c r="I2">
+            </c>
+      <c r="J2">
+            </c>
+      <c r="K2">
+            </c>
+      <c r="L2">
+            </c>
+      <c r="M2">
+            </c>
+      <c r="N2">
+            </c>
+      <c r="O2">
+            </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+            </c>
+      <c r="B3">
+            </c>
+      <c r="C3">
+            </c>
+      <c r="D3">
+            </c>
+      <c r="E3">
+            </c>
+      <c r="F3">
+            </c>
+      <c r="G3">
+            </c>
+      <c r="H3">
+            </c>
+      <c r="I3">
+            </c>
+      <c r="J3">
+            </c>
+      <c r="K3">
+            </c>
+      <c r="L3">
+            </c>
+      <c r="M3">
+            </c>
+      <c r="N3">
+            </c>
+      <c r="O3">
+            </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+            </c>
+      <c r="B4">
+            </c>
+      <c r="C4">
+            </c>
+      <c r="D4">
+            </c>
+      <c r="E4">
+            </c>
+      <c r="F4">
+            </c>
+      <c r="G4">
+            </c>
+      <c r="H4">
+            </c>
+      <c r="I4">
+            </c>
+      <c r="J4">
+            </c>
+      <c r="K4">
+            </c>
+      <c r="L4">
+            </c>
+      <c r="M4">
+            </c>
+      <c r="N4">
+            </c>
+      <c r="O4">
+            </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+            </c>
+      <c r="B5">
+            </c>
+      <c r="C5">
+            </c>
+      <c r="D5">
+            </c>
+      <c r="E5">
+            </c>
+      <c r="F5">
+            </c>
+      <c r="G5">
+            </c>
+      <c r="H5">
+            </c>
+      <c r="I5">
+            </c>
+      <c r="J5">
+            </c>
+      <c r="K5">
+            </c>
+      <c r="L5">
+            </c>
+      <c r="M5">
+            </c>
+      <c r="N5">
+            </c>
+      <c r="O5">
+            </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+            </c>
+      <c r="B6">
+            </c>
+      <c r="C6">
+            </c>
+      <c r="D6">
+            </c>
+      <c r="E6">
+            </c>
+      <c r="F6">
+            </c>
+      <c r="G6">
+            </c>
+      <c r="H6">
+            </c>
+      <c r="I6">
+            </c>
+      <c r="J6">
+            </c>
+      <c r="K6">
+            </c>
+      <c r="L6">
+            </c>
+      <c r="M6">
+            </c>
+      <c r="N6">
+            </c>
+      <c r="O6">
+            </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+            </c>
+      <c r="B7">
+            </c>
+      <c r="C7">
+            </c>
+      <c r="D7">
+            </c>
+      <c r="E7">
+            </c>
+      <c r="F7">
+            </c>
+      <c r="G7">
+            </c>
+      <c r="H7">
+            </c>
+      <c r="I7">
+            </c>
+      <c r="J7">
+            </c>
+      <c r="K7">
+            </c>
+      <c r="L7">
+            </c>
+      <c r="M7">
+            </c>
+      <c r="N7">
+            </c>
+      <c r="O7">
+            </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+            </c>
+      <c r="B8">
+            </c>
+      <c r="C8">
+            </c>
+      <c r="D8">
+            </c>
+      <c r="E8">
+            </c>
+      <c r="F8">
+            </c>
+      <c r="G8">
+            </c>
+      <c r="H8">
+            </c>
+      <c r="I8">
+            </c>
+      <c r="J8">
+            </c>
+      <c r="K8">
+            </c>
+      <c r="L8">
+            </c>
+      <c r="M8">
+            </c>
+      <c r="N8">
+            </c>
+      <c r="O8">
+            </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+            </c>
+      <c r="B9">
+            </c>
+      <c r="C9">
+            </c>
+      <c r="D9">
+            </c>
+      <c r="E9">
+            </c>
+      <c r="F9">
+            </c>
+      <c r="G9">
+            </c>
+      <c r="H9">
+            </c>
+      <c r="I9">
+            </c>
+      <c r="J9">
+            </c>
+      <c r="K9">
+            </c>
+      <c r="L9">
+            </c>
+      <c r="M9">
+            </c>
+      <c r="N9">
+            </c>
+      <c r="O9">
+            </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+            </c>
+      <c r="B10">
+            </c>
+      <c r="C10">
+            </c>
+      <c r="D10">
+            </c>
+      <c r="E10">
+            </c>
+      <c r="F10">
+            </c>
+      <c r="G10">
+            </c>
+      <c r="H10">
+            </c>
+      <c r="I10">
+            </c>
+      <c r="J10">
+            </c>
+      <c r="K10">
+            </c>
+      <c r="L10">
+            </c>
+      <c r="M10">
+            </c>
+      <c r="N10">
+            </c>
+      <c r="O10">
+            </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+            </c>
+      <c r="B11">
+            </c>
+      <c r="C11">
+            </c>
+      <c r="D11">
+            </c>
+      <c r="E11">
+            </c>
+      <c r="F11">
+            </c>
+      <c r="G11">
+            </c>
+      <c r="H11">
+            </c>
+      <c r="I11">
+            </c>
+      <c r="J11">
+            </c>
+      <c r="K11">
+            </c>
+      <c r="L11">
+            </c>
+      <c r="M11">
+            </c>
+      <c r="N11">
+            </c>
+      <c r="O11">
+            </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+            </c>
+      <c r="B12">
+            </c>
+      <c r="C12">
+            </c>
+      <c r="D12">
+            </c>
+      <c r="E12">
+            </c>
+      <c r="F12">
+            </c>
+      <c r="G12">
+            </c>
+      <c r="H12">
+            </c>
+      <c r="I12">
+            </c>
+      <c r="J12">
+            </c>
+      <c r="K12">
+            </c>
+      <c r="L12">
+            </c>
+      <c r="M12">
+            </c>
+      <c r="N12">
+            </c>
+      <c r="O12">
+            </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+            </c>
+      <c r="B13">
+            </c>
+      <c r="C13">
+            </c>
+      <c r="D13">
+            </c>
+      <c r="E13">
+            </c>
+      <c r="F13">
+            </c>
+      <c r="G13">
+            </c>
+      <c r="H13">
+            </c>
+      <c r="I13">
+            </c>
+      <c r="J13">
+            </c>
+      <c r="K13">
+            </c>
+      <c r="L13">
+            </c>
+      <c r="M13">
+            </c>
+      <c r="N13">
+            </c>
+      <c r="O13">
+            </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+            </c>
+      <c r="B14">
+            </c>
+      <c r="C14">
+            </c>
+      <c r="D14">
+            </c>
+      <c r="E14">
+            </c>
+      <c r="F14">
+            </c>
+      <c r="G14">
+            </c>
+      <c r="H14">
+            </c>
+      <c r="I14">
+            </c>
+      <c r="J14">
+            </c>
+      <c r="K14">
+            </c>
+      <c r="L14">
+            </c>
+      <c r="M14">
+            </c>
+      <c r="N14">
+            </c>
+      <c r="O14">
+            </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+            </c>
+      <c r="B15">
+            </c>
+      <c r="C15">
+            </c>
+      <c r="D15">
+            </c>
+      <c r="E15">
+            </c>
+      <c r="F15">
+            </c>
+      <c r="G15">
+            </c>
+      <c r="H15">
+            </c>
+      <c r="I15">
+            </c>
+      <c r="J15">
+            </c>
+      <c r="K15">
+            </c>
+      <c r="L15">
+            </c>
+      <c r="M15">
+            </c>
+      <c r="N15">
+            </c>
+      <c r="O15">
+            </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+            </c>
+      <c r="B16">
+            </c>
+      <c r="C16">
+            </c>
+      <c r="D16">
+            </c>
+      <c r="E16">
+            </c>
+      <c r="F16">
+            </c>
+      <c r="G16">
+            </c>
+      <c r="H16">
+            </c>
+      <c r="I16">
+            </c>
+      <c r="J16">
+            </c>
+      <c r="K16">
+            </c>
+      <c r="L16">
+            </c>
+      <c r="M16">
+            </c>
+      <c r="N16">
+            </c>
+      <c r="O16">
+            </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+            </c>
+      <c r="B17">
+            </c>
+      <c r="C17">
+            </c>
+      <c r="D17">
+            </c>
+      <c r="E17">
+            </c>
+      <c r="F17">
+            </c>
+      <c r="G17">
+            </c>
+      <c r="H17">
+            </c>
+      <c r="I17">
+            </c>
+      <c r="J17">
+            </c>
+      <c r="K17">
+            </c>
+      <c r="L17">
+            </c>
+      <c r="M17">
+            </c>
+      <c r="N17">
+            </c>
+      <c r="O17">
+            </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+            </c>
+      <c r="B18">
+            </c>
+      <c r="C18">
+            </c>
+      <c r="D18">
+            </c>
+      <c r="E18">
+            </c>
+      <c r="F18">
+            </c>
+      <c r="G18">
+            </c>
+      <c r="H18">
+            </c>
+      <c r="I18">
+            </c>
+      <c r="J18">
+            </c>
+      <c r="K18">
+            </c>
+      <c r="L18">
+            </c>
+      <c r="M18">
+            </c>
+      <c r="N18">
+            </c>
+      <c r="O18">
+            </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+            </c>
+      <c r="B19">
+            </c>
+      <c r="C19">
+            </c>
+      <c r="D19">
+            </c>
+      <c r="E19">
+            </c>
+      <c r="F19">
+            </c>
+      <c r="G19">
+            </c>
+      <c r="H19">
+            </c>
+      <c r="I19">
+            </c>
+      <c r="J19">
+            </c>
+      <c r="K19">
+            </c>
+      <c r="L19">
+            </c>
+      <c r="M19">
+            </c>
+      <c r="N19">
+            </c>
+      <c r="O19">
+            </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+            </c>
+      <c r="B20">
+            </c>
+      <c r="C20">
+            </c>
+      <c r="D20">
+            </c>
+      <c r="E20">
+            </c>
+      <c r="F20">
+            </c>
+      <c r="G20">
+            </c>
+      <c r="H20">
+            </c>
+      <c r="I20">
+            </c>
+      <c r="J20">
+            </c>
+      <c r="K20">
+            </c>
+      <c r="L20">
+            </c>
+      <c r="M20">
+            </c>
+      <c r="N20">
+            </c>
+      <c r="O20">
+            </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+            </c>
+      <c r="B21">
+            </c>
+      <c r="C21">
+            </c>
+      <c r="D21">
+            </c>
+      <c r="E21">
+            </c>
+      <c r="F21">
+            </c>
+      <c r="G21">
+            </c>
+      <c r="H21">
+            </c>
+      <c r="I21">
+            </c>
+      <c r="J21">
+            </c>
+      <c r="K21">
+            </c>
+      <c r="L21">
+            </c>
+      <c r="M21">
+            </c>
+      <c r="N21">
+            </c>
+      <c r="O21">
+            </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+            </c>
+      <c r="B22">
+            </c>
+      <c r="C22">
+            </c>
+      <c r="D22">
+            </c>
+      <c r="E22">
+            </c>
+      <c r="F22">
+            </c>
+      <c r="G22">
+            </c>
+      <c r="H22">
+            </c>
+      <c r="I22">
+            </c>
+      <c r="J22">
+            </c>
+      <c r="K22">
+            </c>
+      <c r="L22">
+            </c>
+      <c r="M22">
+            </c>
+      <c r="N22">
+            </c>
+      <c r="O22">
+            </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+            </c>
+      <c r="B23">
+            </c>
+      <c r="C23">
+            </c>
+      <c r="D23">
+            </c>
+      <c r="E23">
+            </c>
+      <c r="F23">
+            </c>
+      <c r="G23">
+            </c>
+      <c r="H23">
+            </c>
+      <c r="I23">
+            </c>
+      <c r="J23">
+            </c>
+      <c r="K23">
+            </c>
+      <c r="L23">
+            </c>
+      <c r="M23">
+            </c>
+      <c r="N23">
+            </c>
+      <c r="O23">
+            </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+            </c>
+      <c r="B24">
+            </c>
+      <c r="C24">
+            </c>
+      <c r="D24">
+            </c>
+      <c r="E24">
+            </c>
+      <c r="F24">
+            </c>
+      <c r="G24">
+            </c>
+      <c r="H24">
+            </c>
+      <c r="I24">
+            </c>
+      <c r="J24">
+            </c>
+      <c r="K24">
+            </c>
+      <c r="L24">
+            </c>
+      <c r="M24">
+            </c>
+      <c r="N24">
+            </c>
+      <c r="O24">
+            </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+            </c>
+      <c r="B25">
+            </c>
+      <c r="C25">
+            </c>
+      <c r="D25">
+            </c>
+      <c r="E25">
+            </c>
+      <c r="F25">
+            </c>
+      <c r="G25">
+            </c>
+      <c r="H25">
+            </c>
+      <c r="I25">
+            </c>
+      <c r="J25">
+            </c>
+      <c r="K25">
+            </c>
+      <c r="L25">
+            </c>
+      <c r="M25">
+            </c>
+      <c r="N25">
+            </c>
+      <c r="O25">
+            </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11134,10 +11895,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11161,35 +11922,808 @@
       <c r="B1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="86"/>
+      <c r="C1" s="86">
+            </c>
       <c r="D1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="86"/>
+      <c r="F1" s="86">
+            </c>
       <c r="G1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="86"/>
+      <c r="I1" s="86">
+            </c>
       <c r="J1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="86"/>
+      <c r="L1" s="86">
+            </c>
       <c r="M1" s="86" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="86"/>
+      <c r="O1" s="86">
+            </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+            </c>
+      <c r="B2">
+            </c>
+      <c r="C2">
+            </c>
+      <c r="D2">
+            </c>
+      <c r="E2">
+            </c>
+      <c r="F2">
+            </c>
+      <c r="G2">
+            </c>
+      <c r="H2">
+            </c>
+      <c r="I2">
+            </c>
+      <c r="J2">
+            </c>
+      <c r="K2">
+            </c>
+      <c r="L2">
+            </c>
+      <c r="M2">
+            </c>
+      <c r="N2">
+            </c>
+      <c r="O2">
+            </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+            </c>
+      <c r="B3">
+            </c>
+      <c r="C3">
+            </c>
+      <c r="D3">
+            </c>
+      <c r="E3">
+            </c>
+      <c r="F3">
+            </c>
+      <c r="G3">
+            </c>
+      <c r="H3">
+            </c>
+      <c r="I3">
+            </c>
+      <c r="J3">
+            </c>
+      <c r="K3">
+            </c>
+      <c r="L3">
+            </c>
+      <c r="M3">
+            </c>
+      <c r="N3">
+            </c>
+      <c r="O3">
+            </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+            </c>
+      <c r="B4">
+            </c>
+      <c r="C4">
+            </c>
+      <c r="D4">
+            </c>
+      <c r="E4">
+            </c>
+      <c r="F4">
+            </c>
+      <c r="G4">
+            </c>
+      <c r="H4">
+            </c>
+      <c r="I4">
+            </c>
+      <c r="J4">
+            </c>
+      <c r="K4">
+            </c>
+      <c r="L4">
+            </c>
+      <c r="M4">
+            </c>
+      <c r="N4">
+            </c>
+      <c r="O4">
+            </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+            </c>
+      <c r="B5">
+            </c>
+      <c r="C5">
+            </c>
+      <c r="D5">
+            </c>
+      <c r="E5">
+            </c>
+      <c r="F5">
+            </c>
+      <c r="G5">
+            </c>
+      <c r="H5">
+            </c>
+      <c r="I5">
+            </c>
+      <c r="J5">
+            </c>
+      <c r="K5">
+            </c>
+      <c r="L5">
+            </c>
+      <c r="M5">
+            </c>
+      <c r="N5">
+            </c>
+      <c r="O5">
+            </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+            </c>
+      <c r="B6">
+            </c>
+      <c r="C6">
+            </c>
+      <c r="D6">
+            </c>
+      <c r="E6">
+            </c>
+      <c r="F6">
+            </c>
+      <c r="G6">
+            </c>
+      <c r="H6">
+            </c>
+      <c r="I6">
+            </c>
+      <c r="J6">
+            </c>
+      <c r="K6">
+            </c>
+      <c r="L6">
+            </c>
+      <c r="M6">
+            </c>
+      <c r="N6">
+            </c>
+      <c r="O6">
+            </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+            </c>
+      <c r="B7">
+            </c>
+      <c r="C7">
+            </c>
+      <c r="D7">
+            </c>
+      <c r="E7">
+            </c>
+      <c r="F7">
+            </c>
+      <c r="G7">
+            </c>
+      <c r="H7">
+            </c>
+      <c r="I7">
+            </c>
+      <c r="J7">
+            </c>
+      <c r="K7">
+            </c>
+      <c r="L7">
+            </c>
+      <c r="M7">
+            </c>
+      <c r="N7">
+            </c>
+      <c r="O7">
+            </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+            </c>
+      <c r="B8">
+            </c>
+      <c r="C8">
+            </c>
+      <c r="D8">
+            </c>
+      <c r="E8">
+            </c>
+      <c r="F8">
+            </c>
+      <c r="G8">
+            </c>
+      <c r="H8">
+            </c>
+      <c r="I8">
+            </c>
+      <c r="J8">
+            </c>
+      <c r="K8">
+            </c>
+      <c r="L8">
+            </c>
+      <c r="M8">
+            </c>
+      <c r="N8">
+            </c>
+      <c r="O8">
+            </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+            </c>
+      <c r="B9">
+            </c>
+      <c r="C9">
+            </c>
+      <c r="D9">
+            </c>
+      <c r="E9">
+            </c>
+      <c r="F9">
+            </c>
+      <c r="G9">
+            </c>
+      <c r="H9">
+            </c>
+      <c r="I9">
+            </c>
+      <c r="J9">
+            </c>
+      <c r="K9">
+            </c>
+      <c r="L9">
+            </c>
+      <c r="M9">
+            </c>
+      <c r="N9">
+            </c>
+      <c r="O9">
+            </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+            </c>
+      <c r="B10">
+            </c>
+      <c r="C10">
+            </c>
+      <c r="D10">
+            </c>
+      <c r="E10">
+            </c>
+      <c r="F10">
+            </c>
+      <c r="G10">
+            </c>
+      <c r="H10">
+            </c>
+      <c r="I10">
+            </c>
+      <c r="J10">
+            </c>
+      <c r="K10">
+            </c>
+      <c r="L10">
+            </c>
+      <c r="M10">
+            </c>
+      <c r="N10">
+            </c>
+      <c r="O10">
+            </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+            </c>
+      <c r="B11">
+            </c>
+      <c r="C11">
+            </c>
+      <c r="D11">
+            </c>
+      <c r="E11">
+            </c>
+      <c r="F11">
+            </c>
+      <c r="G11">
+            </c>
+      <c r="H11">
+            </c>
+      <c r="I11">
+            </c>
+      <c r="J11">
+            </c>
+      <c r="K11">
+            </c>
+      <c r="L11">
+            </c>
+      <c r="M11">
+            </c>
+      <c r="N11">
+            </c>
+      <c r="O11">
+            </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+            </c>
+      <c r="B12">
+            </c>
+      <c r="C12">
+            </c>
+      <c r="D12">
+            </c>
+      <c r="E12">
+            </c>
+      <c r="F12">
+            </c>
+      <c r="G12">
+            </c>
+      <c r="H12">
+            </c>
+      <c r="I12">
+            </c>
+      <c r="J12">
+            </c>
+      <c r="K12">
+            </c>
+      <c r="L12">
+            </c>
+      <c r="M12">
+            </c>
+      <c r="N12">
+            </c>
+      <c r="O12">
+            </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+            </c>
+      <c r="B13">
+            </c>
+      <c r="C13">
+            </c>
+      <c r="D13">
+            </c>
+      <c r="E13">
+            </c>
+      <c r="F13">
+            </c>
+      <c r="G13">
+            </c>
+      <c r="H13">
+            </c>
+      <c r="I13">
+            </c>
+      <c r="J13">
+            </c>
+      <c r="K13">
+            </c>
+      <c r="L13">
+            </c>
+      <c r="M13">
+            </c>
+      <c r="N13">
+            </c>
+      <c r="O13">
+            </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+            </c>
+      <c r="B14">
+            </c>
+      <c r="C14">
+            </c>
+      <c r="D14">
+            </c>
+      <c r="E14">
+            </c>
+      <c r="F14">
+            </c>
+      <c r="G14">
+            </c>
+      <c r="H14">
+            </c>
+      <c r="I14">
+            </c>
+      <c r="J14">
+            </c>
+      <c r="K14">
+            </c>
+      <c r="L14">
+            </c>
+      <c r="M14">
+            </c>
+      <c r="N14">
+            </c>
+      <c r="O14">
+            </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+            </c>
+      <c r="B15">
+            </c>
+      <c r="C15">
+            </c>
+      <c r="D15">
+            </c>
+      <c r="E15">
+            </c>
+      <c r="F15">
+            </c>
+      <c r="G15">
+            </c>
+      <c r="H15">
+            </c>
+      <c r="I15">
+            </c>
+      <c r="J15">
+            </c>
+      <c r="K15">
+            </c>
+      <c r="L15">
+            </c>
+      <c r="M15">
+            </c>
+      <c r="N15">
+            </c>
+      <c r="O15">
+            </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+            </c>
+      <c r="B16">
+            </c>
+      <c r="C16">
+            </c>
+      <c r="D16">
+            </c>
+      <c r="E16">
+            </c>
+      <c r="F16">
+            </c>
+      <c r="G16">
+            </c>
+      <c r="H16">
+            </c>
+      <c r="I16">
+            </c>
+      <c r="J16">
+            </c>
+      <c r="K16">
+            </c>
+      <c r="L16">
+            </c>
+      <c r="M16">
+            </c>
+      <c r="N16">
+            </c>
+      <c r="O16">
+            </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+            </c>
+      <c r="B17">
+            </c>
+      <c r="C17">
+            </c>
+      <c r="D17">
+            </c>
+      <c r="E17">
+            </c>
+      <c r="F17">
+            </c>
+      <c r="G17">
+            </c>
+      <c r="H17">
+            </c>
+      <c r="I17">
+            </c>
+      <c r="J17">
+            </c>
+      <c r="K17">
+            </c>
+      <c r="L17">
+            </c>
+      <c r="M17">
+            </c>
+      <c r="N17">
+            </c>
+      <c r="O17">
+            </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+            </c>
+      <c r="B18">
+            </c>
+      <c r="C18">
+            </c>
+      <c r="D18">
+            </c>
+      <c r="E18">
+            </c>
+      <c r="F18">
+            </c>
+      <c r="G18">
+            </c>
+      <c r="H18">
+            </c>
+      <c r="I18">
+            </c>
+      <c r="J18">
+            </c>
+      <c r="K18">
+            </c>
+      <c r="L18">
+            </c>
+      <c r="M18">
+            </c>
+      <c r="N18">
+            </c>
+      <c r="O18">
+            </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+            </c>
+      <c r="B19">
+            </c>
+      <c r="C19">
+            </c>
+      <c r="D19">
+            </c>
+      <c r="E19">
+            </c>
+      <c r="F19">
+            </c>
+      <c r="G19">
+            </c>
+      <c r="H19">
+            </c>
+      <c r="I19">
+            </c>
+      <c r="J19">
+            </c>
+      <c r="K19">
+            </c>
+      <c r="L19">
+            </c>
+      <c r="M19">
+            </c>
+      <c r="N19">
+            </c>
+      <c r="O19">
+            </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+            </c>
+      <c r="B20">
+            </c>
+      <c r="C20">
+            </c>
+      <c r="D20">
+            </c>
+      <c r="E20">
+            </c>
+      <c r="F20">
+            </c>
+      <c r="G20">
+            </c>
+      <c r="H20">
+            </c>
+      <c r="I20">
+            </c>
+      <c r="J20">
+            </c>
+      <c r="K20">
+            </c>
+      <c r="L20">
+            </c>
+      <c r="M20">
+            </c>
+      <c r="N20">
+            </c>
+      <c r="O20">
+            </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+            </c>
+      <c r="B21">
+            </c>
+      <c r="C21">
+            </c>
+      <c r="D21">
+            </c>
+      <c r="E21">
+            </c>
+      <c r="F21">
+            </c>
+      <c r="G21">
+            </c>
+      <c r="H21">
+            </c>
+      <c r="I21">
+            </c>
+      <c r="J21">
+            </c>
+      <c r="K21">
+            </c>
+      <c r="L21">
+            </c>
+      <c r="M21">
+            </c>
+      <c r="N21">
+            </c>
+      <c r="O21">
+            </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+            </c>
+      <c r="B22">
+            </c>
+      <c r="C22">
+            </c>
+      <c r="D22">
+            </c>
+      <c r="E22">
+            </c>
+      <c r="F22">
+            </c>
+      <c r="G22">
+            </c>
+      <c r="H22">
+            </c>
+      <c r="I22">
+            </c>
+      <c r="J22">
+            </c>
+      <c r="K22">
+            </c>
+      <c r="L22">
+            </c>
+      <c r="M22">
+            </c>
+      <c r="N22">
+            </c>
+      <c r="O22">
+            </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+            </c>
+      <c r="B23">
+            </c>
+      <c r="C23">
+            </c>
+      <c r="D23">
+            </c>
+      <c r="E23">
+            </c>
+      <c r="F23">
+            </c>
+      <c r="G23">
+            </c>
+      <c r="H23">
+            </c>
+      <c r="I23">
+            </c>
+      <c r="J23">
+            </c>
+      <c r="K23">
+            </c>
+      <c r="L23">
+            </c>
+      <c r="M23">
+            </c>
+      <c r="N23">
+            </c>
+      <c r="O23">
+            </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+            </c>
+      <c r="B24">
+            </c>
+      <c r="C24">
+            </c>
+      <c r="D24">
+            </c>
+      <c r="E24">
+            </c>
+      <c r="F24">
+            </c>
+      <c r="G24">
+            </c>
+      <c r="H24">
+            </c>
+      <c r="I24">
+            </c>
+      <c r="J24">
+            </c>
+      <c r="K24">
+            </c>
+      <c r="L24">
+            </c>
+      <c r="M24">
+            </c>
+      <c r="N24">
+            </c>
+      <c r="O24">
+            </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+            </c>
+      <c r="B25">
+            </c>
+      <c r="C25">
+            </c>
+      <c r="D25">
+            </c>
+      <c r="E25">
+            </c>
+      <c r="F25">
+            </c>
+      <c r="G25">
+            </c>
+      <c r="H25">
+            </c>
+      <c r="I25">
+            </c>
+      <c r="J25">
+            </c>
+      <c r="K25">
+            </c>
+      <c r="L25">
+            </c>
+      <c r="M25">
+            </c>
+      <c r="N25">
+            </c>
+      <c r="O25">
+            </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11204,7 +12738,7 @@
   <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11237,9 +12771,7 @@
       <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92">
-        <v>0</v>
-      </c>
+      <c r="A6" s="92"/>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
@@ -11262,9 +12794,7 @@
       <c r="E9" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="91">
-        <v>0</v>
-      </c>
+      <c r="F9" s="91"/>
       <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11398,8 +12928,7 @@
     </row>
     <row r="26" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26" s="89">
-            </c>
+      <c r="B26" s="89"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -11531,9 +13060,9 @@
   <sheetPr codeName="Лист5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:I69"/>
+  <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -11557,8 +13086,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -11697,291 +13225,300 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="36"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="36"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="36"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="36"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="36"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="36"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="39"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="36"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="36"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="36"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="36"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="36"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="36"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="36"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="36"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="39"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="36"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="36"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="36"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
       <c r="D65" s="36"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="39"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="39"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12029,8 +13566,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
@@ -12416,8 +13952,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -12571,8 +14106,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -12864,8 +14398,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -13101,8 +14634,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -13230,8 +14762,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>0</v>
-      </c>
+            </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId13"/>
     <sheet name="Данные для источники сводки" sheetId="21" state="hidden" r:id="rId14"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="6">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="13">#REF!</definedName>
@@ -140,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -283,9 +280,6 @@
     <t>Посещаемость сайта за отчетный период и конверсии</t>
   </si>
   <si>
-    <t>Ниже представлены рекомендации по развитию проекта, основанные на анализе статистических данных отчета.</t>
-  </si>
-  <si>
     <t>заполняется РП</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
   </si>
   <si>
     <t>Поисковой трафик</t>
-  </si>
-  <si>
-    <t>периоде были выполнены следующие работы:</t>
   </si>
   <si>
     <t>Динамика общего трафика сайта</t>
@@ -642,14 +633,22 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,30 +872,30 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -910,21 +909,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,10 +962,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -989,8 +988,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,7 +1008,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,8 +1016,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1033,13 +1032,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1051,57 +1050,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1125,26 +1144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1153,122 +1152,6 @@
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="100">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1492,6 +1375,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1582,6 +1538,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -1808,6 +1791,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1823,6 +1818,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3753,7 +3752,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4863,7 +4861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4970,7 +4967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11333,43 +11329,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Правила"/>
-      <sheetName val="Титульный"/>
-      <sheetName val="Оглавление"/>
-      <sheetName val="Общие по месяцу"/>
-      <sheetName val="Посещ-сть по месяцам"/>
-      <sheetName val="Источники, сводка"/>
-      <sheetName val="География"/>
-      <sheetName val="Технологии"/>
-      <sheetName val="Устройства"/>
-      <sheetName val="Поиск. фразы"/>
-      <sheetName val="Поп. страницы"/>
-      <sheetName val="Динамика позиций"/>
-      <sheetName val="Позиции по месяцам"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
@@ -11579,10 +11538,10 @@
     <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="98" totalsRowDxfId="97"/>
     <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="96" totalsRowDxfId="95"/>
     <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="11" totalsRowDxfId="92"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="10" totalsRowDxfId="91"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="9" totalsRowDxfId="90"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="8" totalsRowDxfId="89"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="86" totalsRowDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11592,12 +11551,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A26:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="39"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="38"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="37"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="36"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="35"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="34"/>
+    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="26"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11607,87 +11566,87 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Поисковые_фразы" displayName="Поисковые_фразы" ref="A10:F40" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A10:F40"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="30"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="29"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="28"/>
+    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="19"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Поисковая_фраза_Директ" displayName="Поисковая_фраза_Директ" ref="A10:G40" tableType="queryTable" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Поисковая_фраза_Директ" displayName="Поисковая_фраза_Директ" ref="A10:G40" tableType="queryTable" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A10:G40"/>
   <tableColumns count="7">
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="4" dataCellStyle="Процентный"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="1" uniqueName="1" name="Кампания Яндекс.Директа" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="7" uniqueName="7" name="Условие показа объявления" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="13" dataCellStyle="Процентный"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="1" uniqueName="1" name="Кампания Яндекс.Директа" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="7" uniqueName="7" name="Условие показа объявления" queryTableFieldId="8" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A10:G35"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="25"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="22"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="21"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="20" dataCellStyle="Процентный"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="19"/>
+    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Процентный"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="85"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="82"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="81"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="80"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="79"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="78" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="77"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="76"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="75"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="78"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="77"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="76"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="75"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="74" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="73"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="72"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="72"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="71"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="70"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="69"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="68" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="67"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="66"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="65"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="68"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="67"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="66"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="65"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="64" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="63"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="62"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11697,13 +11656,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="64"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="63"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="62"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="61"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="60"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="59"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="58"/>
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="58"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="57"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="56"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="55"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11713,13 +11672,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Источники15" displayName="Источники15" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Поисковая система" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="12"/>
+    <tableColumn id="1" uniqueName="1" name="Поисковая система" queryTableFieldId="1" dataDxfId="53"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="52"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="51"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="50"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="49"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="48"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11729,12 +11688,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="57"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="56"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="55"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="54"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="53"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="52"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="45"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="44"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="43"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="42"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11744,12 +11703,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="50"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="49"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="48"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="47"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="46"/>
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="37"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="36"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11759,12 +11718,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A47:F57"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="40"/>
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="33"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="32"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="31"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="30"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12039,7 +11998,7 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -12153,24 +12112,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
@@ -12490,16 +12449,16 @@
       <c r="H4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
+      <c r="A6" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="91"/>
@@ -12512,16 +12471,16 @@
       <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
+      <c r="A8" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -12534,716 +12493,716 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>93</v>
+      <c r="F10" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="95">
         <v>11</v>
       </c>
       <c r="B11" s="37">
         <v>11</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="96">
         <v>0.45454545454545453</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="95">
         <v>2.3636363636363638</v>
       </c>
-      <c r="E11" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>68</v>
+      <c r="E11" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="95">
         <v>10</v>
       </c>
       <c r="B12" s="37">
         <v>10</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="96">
         <v>0.3</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="95">
         <v>2.6</v>
       </c>
-      <c r="E12" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>72</v>
+      <c r="E12" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="95">
         <v>7</v>
       </c>
       <c r="B13" s="37">
         <v>7</v>
       </c>
-      <c r="C13" s="109">
-        <v>0</v>
-      </c>
-      <c r="D13" s="108">
+      <c r="C13" s="96">
+        <v>0</v>
+      </c>
+      <c r="D13" s="95">
         <v>3</v>
       </c>
-      <c r="E13" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>81</v>
+      <c r="E13" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="95">
         <v>6</v>
       </c>
       <c r="B14" s="37">
         <v>6</v>
       </c>
-      <c r="C14" s="109">
-        <v>0</v>
-      </c>
-      <c r="D14" s="108">
+      <c r="C14" s="96">
+        <v>0</v>
+      </c>
+      <c r="D14" s="95">
         <v>3.3333333333333335</v>
       </c>
-      <c r="E14" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>72</v>
+      <c r="E14" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="95">
         <v>6</v>
       </c>
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="96">
         <v>0.5</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="95">
         <v>2</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="107" t="s">
-        <v>68</v>
+      <c r="G15" s="94" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="95">
         <v>6</v>
       </c>
       <c r="B16" s="37">
         <v>6</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="96">
         <v>0.16666666666666663</v>
       </c>
-      <c r="D16" s="108">
+      <c r="D16" s="95">
         <v>2.6666666666666665</v>
       </c>
-      <c r="E16" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="107" t="s">
-        <v>68</v>
+      <c r="E16" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="A17" s="95">
         <v>4</v>
       </c>
       <c r="B17" s="37">
         <v>4</v>
       </c>
-      <c r="C17" s="109">
-        <v>0</v>
-      </c>
-      <c r="D17" s="108">
+      <c r="C17" s="96">
+        <v>0</v>
+      </c>
+      <c r="D17" s="95">
         <v>3</v>
       </c>
-      <c r="E17" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="107" t="s">
+      <c r="E17" s="95" t="s">
         <v>84</v>
       </c>
+      <c r="F17" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="94" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="95">
         <v>4</v>
       </c>
       <c r="B18" s="37">
         <v>4</v>
       </c>
-      <c r="C18" s="109">
-        <v>0</v>
-      </c>
-      <c r="D18" s="108">
+      <c r="C18" s="96">
+        <v>0</v>
+      </c>
+      <c r="D18" s="95">
         <v>3</v>
       </c>
-      <c r="E18" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>72</v>
+      <c r="E18" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="95">
         <v>3</v>
       </c>
       <c r="B19" s="37">
         <v>3</v>
       </c>
-      <c r="C19" s="109">
-        <v>0</v>
-      </c>
-      <c r="D19" s="108">
+      <c r="C19" s="96">
+        <v>0</v>
+      </c>
+      <c r="D19" s="95">
         <v>3</v>
       </c>
-      <c r="E19" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="107" t="s">
-        <v>72</v>
+      <c r="E19" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="95">
         <v>3</v>
       </c>
       <c r="B20" s="37">
         <v>1</v>
       </c>
-      <c r="C20" s="109">
-        <v>0</v>
-      </c>
-      <c r="D20" s="108">
+      <c r="C20" s="96">
+        <v>0</v>
+      </c>
+      <c r="D20" s="95">
         <v>4</v>
       </c>
-      <c r="E20" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="107" t="s">
-        <v>87</v>
+      <c r="E20" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="A21" s="95">
         <v>3</v>
       </c>
       <c r="B21" s="37">
         <v>3</v>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="96">
         <v>0.33333333333333326</v>
       </c>
-      <c r="D21" s="108">
+      <c r="D21" s="95">
         <v>2</v>
       </c>
-      <c r="E21" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>81</v>
+      <c r="E21" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="95">
         <v>3</v>
       </c>
       <c r="B22" s="37">
         <v>3</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="96">
         <v>0.33333333333333326</v>
       </c>
-      <c r="D22" s="108">
+      <c r="D22" s="95">
         <v>2.3333333333333335</v>
       </c>
-      <c r="E22" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>72</v>
+      <c r="E22" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="A23" s="95">
         <v>3</v>
       </c>
       <c r="B23" s="37">
         <v>2</v>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="96">
         <v>0.33333333333333326</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="95">
         <v>2.3333333333333335</v>
       </c>
-      <c r="E23" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="107" t="s">
+      <c r="E23" s="95" t="s">
         <v>68</v>
       </c>
+      <c r="F23" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="A24" s="95">
         <v>2</v>
       </c>
       <c r="B24" s="37">
         <v>2</v>
       </c>
-      <c r="C24" s="109">
-        <v>0</v>
-      </c>
-      <c r="D24" s="108">
+      <c r="C24" s="96">
+        <v>0</v>
+      </c>
+      <c r="D24" s="95">
         <v>3</v>
       </c>
-      <c r="E24" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>85</v>
+      <c r="E24" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+      <c r="A25" s="95">
         <v>2</v>
       </c>
       <c r="B25" s="37">
         <v>2</v>
       </c>
-      <c r="C25" s="109">
-        <v>0</v>
-      </c>
-      <c r="D25" s="108">
+      <c r="C25" s="96">
+        <v>0</v>
+      </c>
+      <c r="D25" s="95">
         <v>3</v>
       </c>
-      <c r="E25" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>84</v>
+      <c r="E25" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="94" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
+      <c r="A26" s="95">
         <v>2</v>
       </c>
       <c r="B26" s="37">
         <v>2</v>
       </c>
-      <c r="C26" s="109">
-        <v>0</v>
-      </c>
-      <c r="D26" s="108">
+      <c r="C26" s="96">
+        <v>0</v>
+      </c>
+      <c r="D26" s="95">
         <v>3</v>
       </c>
-      <c r="E26" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="107" t="s">
-        <v>83</v>
+      <c r="E26" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+      <c r="A27" s="95">
         <v>2</v>
       </c>
       <c r="B27" s="37">
         <v>2</v>
       </c>
-      <c r="C27" s="109">
-        <v>0</v>
-      </c>
-      <c r="D27" s="108">
+      <c r="C27" s="96">
+        <v>0</v>
+      </c>
+      <c r="D27" s="95">
         <v>3</v>
       </c>
-      <c r="E27" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>81</v>
+      <c r="E27" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="94" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="108">
+      <c r="A28" s="95">
         <v>2</v>
       </c>
       <c r="B28" s="37">
         <v>2</v>
       </c>
-      <c r="C28" s="109">
+      <c r="C28" s="96">
         <v>0.5</v>
       </c>
-      <c r="D28" s="108">
+      <c r="D28" s="95">
         <v>2</v>
       </c>
-      <c r="E28" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>81</v>
+      <c r="E28" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="94" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="108">
+      <c r="A29" s="95">
         <v>2</v>
       </c>
       <c r="B29" s="37">
         <v>2</v>
       </c>
-      <c r="C29" s="109">
-        <v>0</v>
-      </c>
-      <c r="D29" s="108">
+      <c r="C29" s="96">
+        <v>0</v>
+      </c>
+      <c r="D29" s="95">
         <v>3</v>
       </c>
-      <c r="E29" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>79</v>
+      <c r="E29" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
+      <c r="A30" s="95">
         <v>2</v>
       </c>
       <c r="B30" s="37">
         <v>2</v>
       </c>
-      <c r="C30" s="109">
-        <v>0</v>
-      </c>
-      <c r="D30" s="108">
+      <c r="C30" s="96">
+        <v>0</v>
+      </c>
+      <c r="D30" s="95">
         <v>3</v>
       </c>
-      <c r="E30" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="107" t="s">
+      <c r="E30" s="95" t="s">
         <v>76</v>
       </c>
+      <c r="F30" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="108">
+      <c r="A31" s="95">
         <v>2</v>
       </c>
       <c r="B31" s="37">
         <v>2</v>
       </c>
-      <c r="C31" s="109">
-        <v>0</v>
-      </c>
-      <c r="D31" s="108">
+      <c r="C31" s="96">
+        <v>0</v>
+      </c>
+      <c r="D31" s="95">
         <v>3</v>
       </c>
-      <c r="E31" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>76</v>
+      <c r="E31" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="108">
+      <c r="A32" s="95">
         <v>2</v>
       </c>
       <c r="B32" s="37">
         <v>2</v>
       </c>
-      <c r="C32" s="109">
-        <v>0</v>
-      </c>
-      <c r="D32" s="108">
+      <c r="C32" s="96">
+        <v>0</v>
+      </c>
+      <c r="D32" s="95">
         <v>6</v>
       </c>
-      <c r="E32" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="107" t="s">
-        <v>72</v>
+      <c r="E32" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="108">
+      <c r="A33" s="95">
         <v>2</v>
       </c>
       <c r="B33" s="37">
         <v>2</v>
       </c>
-      <c r="C33" s="109">
+      <c r="C33" s="96">
         <v>0.5</v>
       </c>
-      <c r="D33" s="108">
+      <c r="D33" s="95">
         <v>1.5</v>
       </c>
-      <c r="E33" s="108" t="s">
+      <c r="E33" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="107" t="s">
-        <v>72</v>
+      <c r="G33" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="108">
+      <c r="A34" s="95">
         <v>2</v>
       </c>
       <c r="B34" s="37">
         <v>2</v>
       </c>
-      <c r="C34" s="109">
-        <v>0</v>
-      </c>
-      <c r="D34" s="108">
+      <c r="C34" s="96">
+        <v>0</v>
+      </c>
+      <c r="D34" s="95">
         <v>3</v>
       </c>
-      <c r="E34" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="107" t="s">
+      <c r="E34" s="95" t="s">
         <v>72</v>
       </c>
+      <c r="F34" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="108">
+      <c r="A35" s="95">
         <v>2</v>
       </c>
       <c r="B35" s="37">
         <v>2</v>
       </c>
-      <c r="C35" s="109">
-        <v>0</v>
-      </c>
-      <c r="D35" s="108">
+      <c r="C35" s="96">
+        <v>0</v>
+      </c>
+      <c r="D35" s="95">
         <v>2</v>
       </c>
-      <c r="E35" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="107" t="s">
-        <v>72</v>
+      <c r="E35" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108">
+      <c r="A36" s="95">
         <v>2</v>
       </c>
       <c r="B36" s="37">
         <v>2</v>
       </c>
-      <c r="C36" s="109">
-        <v>0</v>
-      </c>
-      <c r="D36" s="108">
+      <c r="C36" s="96">
+        <v>0</v>
+      </c>
+      <c r="D36" s="95">
         <v>4.5</v>
       </c>
-      <c r="E36" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="107" t="s">
+      <c r="E36" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="107" t="s">
-        <v>68</v>
+      <c r="F36" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="108">
+      <c r="A37" s="95">
         <v>2</v>
       </c>
       <c r="B37" s="37">
         <v>2</v>
       </c>
-      <c r="C37" s="109">
-        <v>0</v>
-      </c>
-      <c r="D37" s="108">
+      <c r="C37" s="96">
+        <v>0</v>
+      </c>
+      <c r="D37" s="95">
         <v>3</v>
       </c>
-      <c r="E37" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="107" t="s">
+      <c r="E37" s="95" t="s">
         <v>68</v>
       </c>
+      <c r="F37" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="94" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="108">
+      <c r="A38" s="95">
         <v>1</v>
       </c>
       <c r="B38" s="37">
         <v>1</v>
       </c>
-      <c r="C38" s="109">
-        <v>0</v>
-      </c>
-      <c r="D38" s="108">
+      <c r="C38" s="96">
+        <v>0</v>
+      </c>
+      <c r="D38" s="95">
         <v>3</v>
       </c>
-      <c r="E38" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>63</v>
+      <c r="E38" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+      <c r="A39" s="95">
         <v>1</v>
       </c>
       <c r="B39" s="37">
         <v>1</v>
       </c>
-      <c r="C39" s="109">
+      <c r="C39" s="96">
         <v>1</v>
       </c>
-      <c r="D39" s="108">
+      <c r="D39" s="95">
         <v>1</v>
       </c>
-      <c r="E39" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="107" t="s">
+      <c r="E39" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="107" t="s">
-        <v>63</v>
+      <c r="F39" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="108">
+      <c r="A40" s="95">
         <v>1</v>
       </c>
       <c r="B40" s="37">
         <v>1</v>
       </c>
-      <c r="C40" s="109">
-        <v>0</v>
-      </c>
-      <c r="D40" s="108">
+      <c r="C40" s="96">
+        <v>0</v>
+      </c>
+      <c r="D40" s="95">
         <v>3</v>
       </c>
-      <c r="E40" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="107" t="s">
+      <c r="E40" s="95" t="s">
         <v>63</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -13328,15 +13287,15 @@
       <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
@@ -15921,8 +15880,8 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -15956,23 +15915,23 @@
       <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="8" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -16015,7 +15974,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -16042,7 +16001,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -16069,7 +16028,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -16078,7 +16037,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -16120,97 +16079,92 @@
     </row>
     <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="B27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
+      <c r="B29" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
     </row>
     <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
     </row>
     <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
     </row>
     <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
     </row>
     <row r="36" spans="1:7" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
@@ -16250,7 +16204,7 @@
   <dimension ref="A2:I70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16287,26 +16241,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="8" spans="1:9" ht="247.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
+      <c r="A6" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>6</v>
@@ -16337,7 +16291,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="104" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -16360,7 +16314,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -16389,8 +16343,8 @@
       <c r="B33" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="106" t="s">
-        <v>54</v>
+      <c r="A36" s="93" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -16773,37 +16727,37 @@
       <c r="H4" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="str">
+      <c r="A6" s="98" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
       <c r="J6" s="45">
         <f ca="1">TODAY()</f>
         <v>43339</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="A9" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="106" t="s">
-        <v>56</v>
+      <c r="A26" s="93" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -17164,31 +17118,31 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="A8" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
-        <v>58</v>
+      <c r="A28" s="93" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17260,13 +17214,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17329,31 +17283,31 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="93" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17425,13 +17379,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17488,24 +17442,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -17781,24 +17735,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -18018,24 +17972,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -524,96 +524,6 @@
     <t>Таблица 4: Показатели трафика с поисковых систем в отчетном периоде</t>
   </si>
   <si>
-    <t>купить битый авто</t>
-  </si>
-  <si>
-    <t>ВЫКУП АВТО (ПОИСК) ( N-31231130 )</t>
-  </si>
-  <si>
-    <t>00:00:01</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>00:00:08</t>
-  </si>
-  <si>
-    <t>срочный выкуп автомобилей -аварийный -авто -дорого -любой</t>
-  </si>
-  <si>
-    <t>ВЫКУП АВТО (РСЯ) ( N-31233039 )</t>
-  </si>
-  <si>
-    <t>00:00:02</t>
-  </si>
-  <si>
-    <t>00:10:05</t>
-  </si>
-  <si>
-    <t>срочный выкуп авто -24 -аварийный -автомобиль -бить -ваш -круглосуточный -оценка</t>
-  </si>
-  <si>
-    <t>00:00:22</t>
-  </si>
-  <si>
-    <t>00:00:28</t>
-  </si>
-  <si>
-    <t>00:04:06</t>
-  </si>
-  <si>
-    <t>срочный выкуп авто +с выездом -дорого</t>
-  </si>
-  <si>
-    <t>00:00:48</t>
-  </si>
-  <si>
-    <t>00:00:23</t>
-  </si>
-  <si>
-    <t>срочный выкуп битых авто +в москве</t>
-  </si>
-  <si>
-    <t>00:00:10</t>
-  </si>
-  <si>
-    <t>выкуп авто срочно дорого</t>
-  </si>
-  <si>
-    <t>00:00:18</t>
-  </si>
-  <si>
-    <t>выкуп битых автомобилей срочно</t>
-  </si>
-  <si>
-    <t>срочный выкуп битых авто</t>
-  </si>
-  <si>
-    <t>выкуп авто +с пробегом +в москве</t>
-  </si>
-  <si>
-    <t>00:00:07</t>
-  </si>
-  <si>
-    <t>Автоматически добавленные фразы</t>
-  </si>
-  <si>
-    <t>00:00:20</t>
-  </si>
-  <si>
-    <t>00:00:09</t>
-  </si>
-  <si>
-    <t>00:02:10</t>
-  </si>
-  <si>
-    <t>00:01:00</t>
-  </si>
-  <si>
-    <t>00:00:45</t>
-  </si>
-  <si>
     <t>Условие показа объявления</t>
   </si>
   <si>
@@ -876,7 +786,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1062,9 +972,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,9 +982,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1091,20 +995,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1129,20 +1039,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1220,7 +1127,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1395,7 +1302,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1415,7 +1322,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1425,7 +1332,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1435,7 +1342,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2672,6 +2579,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2748,6 +2658,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2861,6 +2774,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2937,6 +2853,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3050,6 +2969,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3126,6 +3048,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3239,6 +3164,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3315,6 +3243,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3428,6 +3359,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3504,6 +3438,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3752,6 +3689,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3888,6 +3826,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3964,6 +3905,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4077,6 +4021,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4153,6 +4100,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4266,6 +4216,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4342,6 +4295,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4455,6 +4411,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4531,6 +4490,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4644,6 +4606,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4720,6 +4685,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4861,6 +4829,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4967,6 +4936,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11998,7 +11968,7 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -12099,9 +12069,7 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>0</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -12111,25 +12079,25 @@
       <c r="E4" s="17"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
@@ -12413,7 +12381,7 @@
   <dimension ref="A2:H40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12434,9 +12402,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -12450,7 +12416,7 @@
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="98" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
@@ -12461,26 +12427,26 @@
       <c r="H6" s="98"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
+      <c r="A8" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -12493,717 +12459,297 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>91</v>
+      <c r="F10" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="95">
-        <v>11</v>
-      </c>
-      <c r="B11" s="37">
-        <v>11</v>
-      </c>
-      <c r="C11" s="96">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="D11" s="95">
-        <v>2.3636363636363638</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="94" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="95">
-        <v>10</v>
-      </c>
-      <c r="B12" s="37">
-        <v>10</v>
-      </c>
-      <c r="C12" s="96">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="95">
-        <v>2.6</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="95">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37">
-        <v>7</v>
-      </c>
-      <c r="C13" s="96">
-        <v>0</v>
-      </c>
-      <c r="D13" s="95">
-        <v>3</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="94" t="s">
-        <v>79</v>
-      </c>
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="95">
-        <v>6</v>
-      </c>
-      <c r="B14" s="37">
-        <v>6</v>
-      </c>
-      <c r="C14" s="96">
-        <v>0</v>
-      </c>
-      <c r="D14" s="95">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E14" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="95">
-        <v>6</v>
-      </c>
-      <c r="B15" s="37">
-        <v>6</v>
-      </c>
-      <c r="C15" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="95">
-        <v>2</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>66</v>
-      </c>
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="95">
-        <v>6</v>
-      </c>
-      <c r="B16" s="37">
-        <v>6</v>
-      </c>
-      <c r="C16" s="96">
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="D16" s="95">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="94" t="s">
-        <v>66</v>
-      </c>
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="95">
-        <v>4</v>
-      </c>
-      <c r="B17" s="37">
-        <v>4</v>
-      </c>
-      <c r="C17" s="96">
-        <v>0</v>
-      </c>
-      <c r="D17" s="95">
-        <v>3</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>82</v>
-      </c>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="95">
-        <v>4</v>
-      </c>
-      <c r="B18" s="37">
-        <v>4</v>
-      </c>
-      <c r="C18" s="96">
-        <v>0</v>
-      </c>
-      <c r="D18" s="95">
-        <v>3</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
-        <v>3</v>
-      </c>
-      <c r="B19" s="37">
-        <v>3</v>
-      </c>
-      <c r="C19" s="96">
-        <v>0</v>
-      </c>
-      <c r="D19" s="95">
-        <v>3</v>
-      </c>
-      <c r="E19" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
-        <v>3</v>
-      </c>
-      <c r="B20" s="37">
-        <v>1</v>
-      </c>
-      <c r="C20" s="96">
-        <v>0</v>
-      </c>
-      <c r="D20" s="95">
-        <v>4</v>
-      </c>
-      <c r="E20" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="94" t="s">
-        <v>85</v>
-      </c>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="95">
-        <v>3</v>
-      </c>
-      <c r="B21" s="37">
-        <v>3</v>
-      </c>
-      <c r="C21" s="96">
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="D21" s="95">
-        <v>2</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="94" t="s">
-        <v>79</v>
-      </c>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="95">
-        <v>3</v>
-      </c>
-      <c r="B22" s="37">
-        <v>3</v>
-      </c>
-      <c r="C22" s="96">
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="D22" s="95">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E22" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="95">
-        <v>3</v>
-      </c>
-      <c r="B23" s="37">
-        <v>2</v>
-      </c>
-      <c r="C23" s="96">
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="D23" s="95">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E23" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="94" t="s">
-        <v>66</v>
-      </c>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="95">
-        <v>2</v>
-      </c>
-      <c r="B24" s="37">
-        <v>2</v>
-      </c>
-      <c r="C24" s="96">
-        <v>0</v>
-      </c>
-      <c r="D24" s="95">
-        <v>3</v>
-      </c>
-      <c r="E24" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="94" t="s">
-        <v>83</v>
-      </c>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="95">
-        <v>2</v>
-      </c>
-      <c r="B25" s="37">
-        <v>2</v>
-      </c>
-      <c r="C25" s="96">
-        <v>0</v>
-      </c>
-      <c r="D25" s="95">
-        <v>3</v>
-      </c>
-      <c r="E25" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="94" t="s">
-        <v>82</v>
-      </c>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="95">
-        <v>2</v>
-      </c>
-      <c r="B26" s="37">
-        <v>2</v>
-      </c>
-      <c r="C26" s="96">
-        <v>0</v>
-      </c>
-      <c r="D26" s="95">
-        <v>3</v>
-      </c>
-      <c r="E26" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="94" t="s">
-        <v>81</v>
-      </c>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="95">
-        <v>2</v>
-      </c>
-      <c r="B27" s="37">
-        <v>2</v>
-      </c>
-      <c r="C27" s="96">
-        <v>0</v>
-      </c>
-      <c r="D27" s="95">
-        <v>3</v>
-      </c>
-      <c r="E27" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="94" t="s">
-        <v>79</v>
-      </c>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="95">
-        <v>2</v>
-      </c>
-      <c r="B28" s="37">
-        <v>2</v>
-      </c>
-      <c r="C28" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="95">
-        <v>2</v>
-      </c>
-      <c r="E28" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="94" t="s">
-        <v>79</v>
-      </c>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="95">
-        <v>2</v>
-      </c>
-      <c r="B29" s="37">
-        <v>2</v>
-      </c>
-      <c r="C29" s="96">
-        <v>0</v>
-      </c>
-      <c r="D29" s="95">
-        <v>3</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="94" t="s">
-        <v>77</v>
-      </c>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="95">
-        <v>2</v>
-      </c>
-      <c r="B30" s="37">
-        <v>2</v>
-      </c>
-      <c r="C30" s="96">
-        <v>0</v>
-      </c>
-      <c r="D30" s="95">
-        <v>3</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="94" t="s">
-        <v>74</v>
-      </c>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="95">
-        <v>2</v>
-      </c>
-      <c r="B31" s="37">
-        <v>2</v>
-      </c>
-      <c r="C31" s="96">
-        <v>0</v>
-      </c>
-      <c r="D31" s="95">
-        <v>3</v>
-      </c>
-      <c r="E31" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="94" t="s">
-        <v>74</v>
-      </c>
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="95">
-        <v>2</v>
-      </c>
-      <c r="B32" s="37">
-        <v>2</v>
-      </c>
-      <c r="C32" s="96">
-        <v>0</v>
-      </c>
-      <c r="D32" s="95">
-        <v>6</v>
-      </c>
-      <c r="E32" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="95">
-        <v>2</v>
-      </c>
-      <c r="B33" s="37">
-        <v>2</v>
-      </c>
-      <c r="C33" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="95">
-        <v>1.5</v>
-      </c>
-      <c r="E33" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="95">
-        <v>2</v>
-      </c>
-      <c r="B34" s="37">
-        <v>2</v>
-      </c>
-      <c r="C34" s="96">
-        <v>0</v>
-      </c>
-      <c r="D34" s="95">
-        <v>3</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="95">
-        <v>2</v>
-      </c>
-      <c r="B35" s="37">
-        <v>2</v>
-      </c>
-      <c r="C35" s="96">
-        <v>0</v>
-      </c>
-      <c r="D35" s="95">
-        <v>2</v>
-      </c>
-      <c r="E35" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="95">
-        <v>2</v>
-      </c>
-      <c r="B36" s="37">
-        <v>2</v>
-      </c>
-      <c r="C36" s="96">
-        <v>0</v>
-      </c>
-      <c r="D36" s="95">
-        <v>4.5</v>
-      </c>
-      <c r="E36" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="94" t="s">
-        <v>66</v>
-      </c>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="95">
-        <v>2</v>
-      </c>
-      <c r="B37" s="37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="96">
-        <v>0</v>
-      </c>
-      <c r="D37" s="95">
-        <v>3</v>
-      </c>
-      <c r="E37" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="94" t="s">
-        <v>66</v>
-      </c>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="95">
-        <v>1</v>
-      </c>
-      <c r="B38" s="37">
-        <v>1</v>
-      </c>
-      <c r="C38" s="96">
-        <v>0</v>
-      </c>
-      <c r="D38" s="95">
-        <v>3</v>
-      </c>
-      <c r="E38" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="94" t="s">
-        <v>61</v>
-      </c>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="95">
-        <v>1</v>
-      </c>
-      <c r="B39" s="37">
-        <v>1</v>
-      </c>
-      <c r="C39" s="96">
-        <v>1</v>
-      </c>
-      <c r="D39" s="95">
-        <v>1</v>
-      </c>
-      <c r="E39" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="94" t="s">
-        <v>61</v>
-      </c>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="95">
-        <v>1</v>
-      </c>
-      <c r="B40" s="37">
-        <v>1</v>
-      </c>
-      <c r="C40" s="96">
-        <v>0</v>
-      </c>
-      <c r="D40" s="95">
-        <v>3</v>
-      </c>
-      <c r="E40" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="94" t="s">
-        <v>61</v>
-      </c>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13251,9 +12797,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
@@ -13330,225 +12874,225 @@
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="77"/>
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="77"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="77"/>
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="77"/>
       <c r="B15" s="78"/>
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="77"/>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="77"/>
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="77"/>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="77"/>
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="77"/>
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="77"/>
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="77"/>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="77"/>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="77"/>
       <c r="B27" s="78"/>
       <c r="C27" s="78"/>
       <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13565,10 +13109,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O24"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13586,1132 +13130,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="85">
-        <v>0</v>
-      </c>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="85">
-        <v>0</v>
-      </c>
-      <c r="G1" s="85" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="85">
-        <v>0</v>
-      </c>
-      <c r="J1" s="85" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="85">
-        <v>0</v>
-      </c>
-      <c r="M1" s="85" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="85">
-        <v>0</v>
-      </c>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14720,10 +13581,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14741,1132 +13602,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="85">
-        <v>0</v>
-      </c>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="85">
-        <v>0</v>
-      </c>
-      <c r="G1" s="85" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="85">
-        <v>0</v>
-      </c>
-      <c r="J1" s="85" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="85">
-        <v>0</v>
-      </c>
-      <c r="M1" s="85" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="85">
-        <v>0</v>
-      </c>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15880,8 +14058,8 @@
   </sheetPr>
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G36"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -15901,9 +14079,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -15935,36 +14111,36 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="87" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="12"/>
@@ -15973,7 +14149,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="87" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="12"/>
@@ -15982,7 +14158,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="87" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="12"/>
@@ -15991,7 +14167,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="12"/>
@@ -16000,7 +14176,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="87" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="12"/>
@@ -16009,7 +14185,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="87" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="12"/>
@@ -16018,7 +14194,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="87" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="12"/>
@@ -16027,7 +14203,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="87" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="12"/>
@@ -16036,7 +14212,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="87" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="12"/>
@@ -16045,7 +14221,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
-      <c r="C22" s="89"/>
+      <c r="C22" s="87"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -16072,31 +14248,34 @@
     </row>
     <row r="26" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="86"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="B27" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
     </row>
     <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
     </row>
     <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29" s="100" t="s">
-        <v>46</v>
-      </c>
+      <c r="B29" s="100"/>
       <c r="C29" s="100"/>
       <c r="D29" s="100"/>
       <c r="E29" s="100"/>
@@ -16177,7 +14356,7 @@
   <mergeCells count="3">
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B29:G36"/>
+    <mergeCell ref="B27:G36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C13" location="'Общие по месяцу'!A1" display="Динамика посещаемости по месяцам за 2017 - 2018"/>
@@ -16203,8 +14382,8 @@
   </sheetPr>
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16226,9 +14405,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -16343,7 +14520,7 @@
       <c r="B33" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="90" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16690,8 +14867,8 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16712,9 +14889,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
@@ -16756,7 +14931,7 @@
       <c r="H9" s="99"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="90" t="s">
         <v>54</v>
       </c>
     </row>
@@ -17080,7 +15255,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17104,9 +15279,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -17118,30 +15291,30 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="90" t="s">
         <v>56</v>
       </c>
     </row>
@@ -17214,13 +15387,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17245,7 +15418,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17269,9 +15442,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -17283,30 +15454,30 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="90" t="s">
         <v>60</v>
       </c>
     </row>
@@ -17379,13 +15550,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17429,9 +15600,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -17441,25 +15610,25 @@
       <c r="E4" s="17"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -17722,9 +15891,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -17734,25 +15901,25 @@
       <c r="E4" s="17"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -17959,9 +16126,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -17982,14 +16147,14 @@
       <c r="F6" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Поиск. фраза ЯД" sheetId="23" r:id="rId11"/>
     <sheet name="Поп. страницы" sheetId="15" r:id="rId12"/>
     <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId13"/>
-    <sheet name="Данные для источники сводки" sheetId="21" state="hidden" r:id="rId14"/>
+    <sheet name="Данные для источники в динамике" sheetId="21" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="6">#REF!</definedName>
@@ -545,12 +545,28 @@
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,30 +798,30 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -819,21 +835,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,10 +888,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -898,8 +914,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,7 +934,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,8 +942,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -942,13 +958,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -960,42 +976,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,10 +1019,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1015,22 +1031,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1835,7 +1854,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2139,7 +2157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2442,7 +2459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2483,12 +2499,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Данные для источники сводки'!$C$1</c:f>
+              <c:f>'Данные для источники в динамике'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2506,163 +2519,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:f>'Данные для источники в динамике'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$C$2:$C$25</c:f>
+              <c:f>'Данные для источники в динамике'!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2678,12 +2547,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Данные для источники сводки'!$F$1</c:f>
+              <c:f>'Данные для источники в динамике'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2701,163 +2567,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:f>'Данные для источники в динамике'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$F$2:$F$25</c:f>
+              <c:f>'Данные для источники в динамике'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2873,12 +2595,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Данные для источники сводки'!$I$1</c:f>
+              <c:f>'Данные для источники в динамике'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2896,163 +2615,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:f>'Данные для источники в динамике'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$I$2:$I$25</c:f>
+              <c:f>'Данные для источники в динамике'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3068,12 +2643,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Данные для источники сводки'!$L$1</c:f>
+              <c:f>'Данные для источники в динамике'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3091,163 +2663,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:f>'Данные для источники в динамике'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$L$2:$L$25</c:f>
+              <c:f>'Данные для источники в динамике'!$L$2:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3263,12 +2691,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Данные для источники сводки'!$O$1</c:f>
+              <c:f>'Данные для источники в динамике'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3286,163 +2711,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$A$2:$A$25</c:f>
+              <c:f>'Данные для источники в динамике'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Данные для источники сводки'!$O$2:$O$25</c:f>
+              <c:f>'Данные для источники в динамике'!$O$2:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3582,7 +2863,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3689,7 +2969,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3733,9 +3012,6 @@
               <c:f>'Данные для поискового трафика'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3757,78 +3033,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3838,78 +3042,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3928,9 +3060,6 @@
               <c:f>'Данные для поискового трафика'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3952,78 +3081,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4033,78 +3090,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4123,9 +3108,6 @@
               <c:f>'Данные для поискового трафика'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4147,78 +3129,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4228,78 +3138,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4318,9 +3156,6 @@
               <c:f>'Данные для поискового трафика'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4342,78 +3177,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4423,78 +3186,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4513,9 +3204,6 @@
               <c:f>'Данные для поискового трафика'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4537,78 +3225,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4618,78 +3234,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4829,7 +3373,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4936,7 +3479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5217,7 +3759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5415,7 +3956,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5522,7 +4062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5795,7 +4334,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5877,7 +4415,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11968,8 +10505,8 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12048,7 +10585,7 @@
   </sheetPr>
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -12069,7 +10606,7 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -12080,24 +10617,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
@@ -12401,9 +10938,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3"/>
-    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
@@ -12415,16 +10949,16 @@
       <c r="H4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="89"/>
@@ -12437,16 +10971,16 @@
       <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -12797,7 +11331,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
@@ -12831,15 +11365,15 @@
       <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
@@ -13112,7 +11646,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A2" sqref="A2:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13167,412 +11701,412 @@
       <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13584,7 +12118,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13639,415 +12173,416 @@
       <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14079,7 +12614,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -14091,23 +12626,23 @@
       <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="8" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -14255,95 +12790,95 @@
     </row>
     <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
     </row>
     <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
     </row>
     <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
     </row>
     <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
     </row>
     <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
     </row>
     <row r="36" spans="1:7" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
     </row>
     <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
@@ -14382,7 +12917,7 @@
   </sheetPr>
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -14405,7 +12940,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -14418,26 +12953,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>6</v>
@@ -14468,7 +13003,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -14491,7 +13026,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -14867,7 +13402,7 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -14889,7 +13424,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
@@ -14902,33 +13437,33 @@
       <c r="H4" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="str">
+      <c r="A6" s="101" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="J6" s="45">
         <f ca="1">TODAY()</f>
-        <v>43339</v>
+        <v>43370</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
@@ -15279,7 +13814,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -15291,27 +13826,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -15387,13 +13922,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15442,7 +13977,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -15454,27 +13989,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -15550,13 +14085,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15611,24 +14146,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -15902,24 +14437,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -16137,24 +14672,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -1854,6 +1854,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2157,6 +2158,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2221,11 +2223,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Трафик по месяцам'!$A$28:$A$47</c15:sqref>
+                    <c15:sqref>'Трафик по месяцам'!$A$28:$A$52</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Трафик по месяцам'!$A$28:$A$32,'Трафик по месяцам'!$A$34:$A$39,'Трафик по месяцам'!$A$41:$A$47)</c:f>
+              <c:f>('Трафик по месяцам'!$A$28:$A$32,'Трафик по месяцам'!$A$34:$A$39,'Трафик по месяцам'!$A$41:$A$52)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
               </c:strCache>
@@ -2236,14 +2238,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Трафик по месяцам'!$B$28:$B$47</c15:sqref>
+                    <c15:sqref>'Трафик по месяцам'!$B$28:$B$52</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Трафик по месяцам'!$B$28:$B$32,'Трафик по месяцам'!$B$34:$B$39,'Трафик по месяцам'!$B$41:$B$47)</c:f>
+              <c:f>('Трафик по месяцам'!$B$28:$B$32,'Трафик по месяцам'!$B$34:$B$39,'Трафик по месяцам'!$B$41:$B$52)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="23"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2459,6 +2461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2863,6 +2866,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10585,7 +10589,7 @@
   </sheetPr>
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -12917,7 +12921,7 @@
   </sheetPr>
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -13402,7 +13406,7 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -13450,7 +13454,7 @@
       <c r="H6" s="101"/>
       <c r="J6" s="45">
         <f ca="1">TODAY()</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -13407,7 +13407,7 @@
   <dimension ref="A2:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13454,7 +13454,7 @@
       <c r="H6" s="101"/>
       <c r="J6" s="45">
         <f ca="1">TODAY()</f>
-        <v>43371</v>
+        <v>43374</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,16 @@
     <sheet name="Поиск. фразы" sheetId="14" r:id="rId10"/>
     <sheet name="Поиск. фраза ЯД" sheetId="23" r:id="rId11"/>
     <sheet name="Поп. страницы" sheetId="15" r:id="rId12"/>
-    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId13"/>
-    <sheet name="Данные для источники в динамике" sheetId="21" state="hidden" r:id="rId14"/>
+    <sheet name="Цели в динамике" sheetId="24" r:id="rId13"/>
+    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId14"/>
+    <sheet name="Данные для источники в динамике" sheetId="21" state="hidden" r:id="rId15"/>
+    <sheet name="Данные для цели в динамике" sheetId="25" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="dimensions_line" localSheetId="6">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="14">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="13">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="12">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="15">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="1">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="10">#REF!</definedName>
@@ -33,6 +36,7 @@
     <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="7">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="12">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">География!$A$25:$F$50</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Источники в динамике'!$A$29:$G$34</definedName>
@@ -42,6 +46,7 @@
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Трафик по дням'!$A$37:$G$69</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Трафик по месяцам'!$A$27:$H$39</definedName>
     <definedName name="ExternalData_1" localSheetId="8" hidden="1">Устройства!$A$26:$F$29</definedName>
+    <definedName name="ExternalData_1" localSheetId="12" hidden="1">'Цели в динамике'!$A$29:$D$36</definedName>
     <definedName name="ExternalData_2" localSheetId="4" hidden="1">'Источники в динамике'!#REF!</definedName>
     <definedName name="ExternalData_2" localSheetId="10">'Поиск. фраза ЯД'!$A$10:$G$40</definedName>
     <definedName name="ExternalData_2" localSheetId="9" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
@@ -49,10 +54,12 @@
     <definedName name="ExternalData_2" localSheetId="7" hidden="1">Технологии!$A$47:$F$57</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Трафик по дням'!$G$13:$G$14</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Трафик по месяцам'!$A$40:$H$52</definedName>
+    <definedName name="ExternalData_2" localSheetId="12" hidden="1">'Цели в динамике'!#REF!</definedName>
     <definedName name="ExternalData_3" localSheetId="11" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
     <definedName name="for_hist_1" localSheetId="6">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="14">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="13">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="12">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="15">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="1">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="10">#REF!</definedName>
@@ -60,10 +67,12 @@
     <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="7">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="12">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="6">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="14">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="13">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="12">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="15">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="1">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="10">#REF!</definedName>
@@ -71,6 +80,7 @@
     <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="7">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="12">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">География!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Источники в динамике'!$A$1:$G$34</definedName>
@@ -82,6 +92,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Трафик по дням'!$A$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Трафик по месяцам'!$A$1:$H$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Устройства!$A$1:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'Цели в динамике'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -133,11 +144,14 @@
   <connection id="13" keepAlive="1" name="Sources1" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
   </connection>
+  <connection id="14" keepAlive="1" name="Sources2" description="Соединение с запросом &quot;Источники&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Источники;Extended Properties=&quot;&quot;" command="SELECT * FROM [Источники]"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -535,6 +549,24 @@
   <si>
     <t>Поисковые фразы (контекстная реклама Яндекс.Директ)</t>
   </si>
+  <si>
+    <t>Цели</t>
+  </si>
+  <si>
+    <t>Название цели</t>
+  </si>
+  <si>
+    <t>Целевые визиты</t>
+  </si>
+  <si>
+    <t>Достижения цели</t>
+  </si>
+  <si>
+    <t>Конверсия</t>
+  </si>
+  <si>
+    <t>Достижение цели</t>
+  </si>
 </sst>
 </file>
 
@@ -545,12 +577,44 @@
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,6 +804,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -798,30 +877,30 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -835,21 +914,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,10 +967,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -914,8 +993,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,7 +1013,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,8 +1021,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -958,13 +1037,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -976,42 +1055,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,10 +1098,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1031,25 +1110,56 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1070,6 +1180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1077,7 +1190,39 @@
     <cellStyle name="Обычный 2" xfId="3"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="105">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1854,7 +1999,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2158,7 +2302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2461,7 +2604,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2866,7 +3008,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4684,6 +4825,346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3928258967629052E-2"/>
+          <c:y val="0.15505796150481191"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для цели в динамике'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для цели в динамике'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6008-45EF-9F65-771A92624DE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для цели в динамике'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Достижение цели</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для цели в динамике'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6008-45EF-9F65-771A92624DE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="333199456"/>
+        <c:axId val="333196960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="333199456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333196960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333196960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333199456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -4967,6 +5448,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9022,6 +9543,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9191,6 +10228,87 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3106139</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3103783" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122902</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1802579</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>194596</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9918,6 +11036,24 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="19">
+    <queryTableFields count="4">
+      <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+    </queryTableFields>
+    <queryTableDeletedFields count="3">
+      <deletedField name="Глубина просмотра"/>
+      <deletedField name="Время на сайте"/>
+      <deletedField name="Целевые вызиты"/>
+    </queryTableDeletedFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="2">
@@ -10040,19 +11176,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G70" tableType="queryTable" totalsRowCount="1" headerRowDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Общие_показатели_по_месяцу" displayName="Общие_показатели_по_месяцу" ref="A37:G70" tableType="queryTable" totalsRowCount="1" headerRowDxfId="104">
   <autoFilter ref="A37:G69"/>
   <sortState ref="A38:G65">
     <sortCondition ref="A36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="1" uniqueName="1" name="Дата визита" queryTableFieldId="8" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="91" totalsRowDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10062,12 +11198,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A26:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="27"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="26"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="25"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="24"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="23"/>
+    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="31"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="30"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="29"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10077,87 +11213,100 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Поисковые_фразы" displayName="Поисковые_фразы" ref="A10:F40" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A10:F40"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="22"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Поисковая_фраза_Директ" displayName="Поисковая_фраза_Директ" ref="A10:G40" tableType="queryTable" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Поисковая_фраза_Директ" displayName="Поисковая_фраза_Директ" ref="A10:G40" tableType="queryTable" totalsRowShown="0" dataDxfId="21">
   <autoFilter ref="A10:G40"/>
   <tableColumns count="7">
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="15"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="13" dataCellStyle="Процентный"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="11"/>
-    <tableColumn id="1" uniqueName="1" name="Кампания Яндекс.Директа" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="7" uniqueName="7" name="Условие показа объявления" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="19"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="18" dataCellStyle="Процентный"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="1" uniqueName="1" name="Кампания Яндекс.Директа" queryTableFieldId="7" dataDxfId="15"/>
+    <tableColumn id="7" uniqueName="7" name="Условие показа объявления" queryTableFieldId="8" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A10:G35"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Процентный"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="6" dataCellStyle="Процентный"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Источники14" displayName="Источники14" ref="A29:D36" tableType="queryTable" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A29:D36"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="1" name="Название цели" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" uniqueName="2" name="Целевые визиты" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Достижения цели" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" uniqueName="4" name="Конверсия" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Достижение_одной_цели_2" displayName="Достижение_одной_цели_2" ref="G13:G14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="81"/>
+    <tableColumn id="1" uniqueName="1" name="Достижение целей" queryTableFieldId="1" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Посещаемость___месяцы" displayName="Посещаемость___месяцы" ref="A27:H39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A27:H39"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="78"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="77"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="76"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="75"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="74" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="73"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="72"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="71"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="83"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="82"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="81"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="80"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="79" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="78"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="77"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Посещ_сть_месяцы_2018" displayName="Посещ_сть_месяцы_2018" ref="A40:H52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A40:H52"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="68"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="67"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="66"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="65"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="64" dataCellStyle="Процентный"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="63"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="62"/>
-    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="61"/>
+    <tableColumn id="1" uniqueName="1" name="Месяц" queryTableFieldId="1" dataDxfId="73"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="72"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="71"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="70"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="69" dataCellStyle="Процентный"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="68"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="67"/>
+    <tableColumn id="8" uniqueName="8" name="Достижения целей" queryTableFieldId="8" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10167,13 +11316,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Источники" displayName="Источники" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="60"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="59"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="58"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="57"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="56"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="55"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="54"/>
+    <tableColumn id="1" uniqueName="1" name="Источник трафика" queryTableFieldId="1" dataDxfId="65"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="64"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="63"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="62"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="61"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="60"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10183,13 +11332,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Источники15" displayName="Источники15" ref="A29:G34" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A29:G34"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Поисковая система" queryTableFieldId="1" dataDxfId="53"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="52"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="51"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="50"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="49"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="48"/>
-    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="47"/>
+    <tableColumn id="1" uniqueName="1" name="Поисковая система" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="57"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="55"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="54"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="53"/>
+    <tableColumn id="13" uniqueName="13" name="Целевые вызиты" queryTableFieldId="18" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10199,12 +11348,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="46"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="45"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="44"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="43"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="42"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="41"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="49"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="48"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="47"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10214,12 +11363,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A25:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="39"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="38"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="37"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="36"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="35"/>
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="41"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10229,12 +11378,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A47:F57"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="34"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="33"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="32"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="31"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="30"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="29"/>
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="39"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="38"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="37"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="36"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="35"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10589,7 +11738,7 @@
   </sheetPr>
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10621,24 +11770,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
@@ -10953,16 +12102,16 @@
       <c r="H4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="89"/>
@@ -10975,16 +12124,16 @@
       <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -11369,15 +12518,15 @@
       <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
@@ -11647,6 +12796,181 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="98"/>
+      <c r="E3" s="98"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="107"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="107"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="110"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="105"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12117,8 +13441,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист15"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12583,6 +13908,764 @@
       <c r="M25" s="99"/>
       <c r="N25" s="99"/>
       <c r="O25" s="99"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист16"/>
+  <dimension ref="A1:O100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="115" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="116"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="116"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="116"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="116"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="116"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="116"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="116"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="116"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="116"/>
+      <c r="B26" s="117"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="116"/>
+      <c r="B28" s="117"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="116"/>
+      <c r="B29" s="117"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="116"/>
+      <c r="B34" s="117"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="116"/>
+      <c r="B35" s="117"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="116"/>
+      <c r="B36" s="117"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="116"/>
+      <c r="B38" s="117"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="116"/>
+      <c r="B39" s="117"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="116"/>
+      <c r="B40" s="117"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="116"/>
+      <c r="B41" s="117"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="116"/>
+      <c r="B42" s="117"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="116"/>
+      <c r="B43" s="117"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="116"/>
+      <c r="B44" s="117"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="116"/>
+      <c r="B45" s="117"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="116"/>
+      <c r="B46" s="117"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="116"/>
+      <c r="B47" s="117"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="116"/>
+      <c r="B48" s="117"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="116"/>
+      <c r="B49" s="117"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="116"/>
+      <c r="B50" s="117"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="116"/>
+      <c r="B51" s="117"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="116"/>
+      <c r="B52" s="117"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="116"/>
+      <c r="B53" s="117"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="116"/>
+      <c r="B54" s="117"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="116"/>
+      <c r="B55" s="117"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="116"/>
+      <c r="B56" s="117"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="116"/>
+      <c r="B57" s="117"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="116"/>
+      <c r="B58" s="117"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="116"/>
+      <c r="B59" s="117"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="116"/>
+      <c r="B60" s="117"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="116"/>
+      <c r="B62" s="117"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="116"/>
+      <c r="B63" s="117"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="116"/>
+      <c r="B64" s="117"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="116"/>
+      <c r="B65" s="117"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="116"/>
+      <c r="B66" s="117"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="116"/>
+      <c r="B67" s="117"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="116"/>
+      <c r="B68" s="117"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="116"/>
+      <c r="B69" s="117"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="116"/>
+      <c r="B70" s="117"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="116"/>
+      <c r="B71" s="117"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="116"/>
+      <c r="B72" s="117"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="116"/>
+      <c r="B73" s="117"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="116"/>
+      <c r="B74" s="117"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="116"/>
+      <c r="B75" s="117"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="116"/>
+      <c r="B76" s="117"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="116"/>
+      <c r="B77" s="117"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="116"/>
+      <c r="B78" s="117"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="116"/>
+      <c r="B79" s="117"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="116"/>
+      <c r="B80" s="117"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="116"/>
+      <c r="B81" s="117"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="116"/>
+      <c r="B82" s="117"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="116"/>
+      <c r="B83" s="117"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="116"/>
+      <c r="B84" s="117"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="116"/>
+      <c r="B85" s="117"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="116"/>
+      <c r="B86" s="117"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="116"/>
+      <c r="B87" s="117"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="116"/>
+      <c r="B88" s="117"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="116"/>
+      <c r="B89" s="117"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="116"/>
+      <c r="B90" s="117"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="116"/>
+      <c r="B91" s="117"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="116"/>
+      <c r="B92" s="117"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="116"/>
+      <c r="B93" s="117"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="116"/>
+      <c r="B94" s="117"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="116"/>
+      <c r="B95" s="117"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="116"/>
+      <c r="B96" s="117"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="116"/>
+      <c r="B97" s="117"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="116"/>
+      <c r="B98" s="117"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="116"/>
+      <c r="B99" s="117"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="116"/>
+      <c r="B100" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12630,23 +14713,23 @@
       <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
     </row>
     <row r="8" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -12794,95 +14877,95 @@
     </row>
     <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
     </row>
     <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
     </row>
     <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
     </row>
     <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
     </row>
     <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
     </row>
     <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
     </row>
     <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
     </row>
     <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
     </row>
     <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
     </row>
     <row r="36" spans="1:7" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
     </row>
     <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
@@ -12957,26 +15040,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>6</v>
@@ -13007,7 +15090,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="124" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -13030,7 +15113,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -13406,8 +15489,8 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13441,33 +15524,33 @@
       <c r="H4" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="101" t="str">
+      <c r="A6" s="118" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
       <c r="J6" s="45">
         <f ca="1">TODAY()</f>
-        <v>43374</v>
+        <v>43375</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
@@ -13830,27 +15913,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -13926,13 +16009,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13951,7 +16034,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H36"/>
@@ -13993,27 +16076,27 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -14089,13 +16172,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14150,24 +16233,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -14441,24 +16524,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -14676,24 +16759,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
     </row>
     <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="2" r:id="rId1"/>
@@ -13,86 +13,86 @@
     <sheet name="Трафик по месяцам" sheetId="7" r:id="rId4"/>
     <sheet name="Источники в динамике" sheetId="8" r:id="rId5"/>
     <sheet name="Поисковой трафик" sheetId="17" r:id="rId6"/>
-    <sheet name="География" sheetId="10" r:id="rId7"/>
-    <sheet name="Технологии" sheetId="11" r:id="rId8"/>
-    <sheet name="Устройства" sheetId="13" r:id="rId9"/>
-    <sheet name="Поиск. фразы" sheetId="14" r:id="rId10"/>
-    <sheet name="Поиск. фраза ЯД" sheetId="23" r:id="rId11"/>
-    <sheet name="Поп. страницы" sheetId="15" r:id="rId12"/>
-    <sheet name="Цели в динамике" sheetId="24" r:id="rId13"/>
-    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId14"/>
-    <sheet name="Данные для источники в динамике" sheetId="21" state="hidden" r:id="rId15"/>
-    <sheet name="Данные для цели в динамике" sheetId="25" r:id="rId16"/>
+    <sheet name="Конверсия" sheetId="24" r:id="rId7"/>
+    <sheet name="География" sheetId="10" r:id="rId8"/>
+    <sheet name="Технологии" sheetId="11" r:id="rId9"/>
+    <sheet name="Устройства" sheetId="13" r:id="rId10"/>
+    <sheet name="Поиск. фразы" sheetId="14" r:id="rId11"/>
+    <sheet name="Поиск. фраза ЯД" sheetId="23" r:id="rId12"/>
+    <sheet name="Поп. страницы" sheetId="15" r:id="rId13"/>
+    <sheet name="Данные для источники в динамике" sheetId="21" state="hidden" r:id="rId14"/>
+    <sheet name="Данные для поискового трафика" sheetId="18" state="hidden" r:id="rId15"/>
+    <sheet name="Данные для цели в динамике" sheetId="25" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="dimensions_line" localSheetId="6">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="7">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="13">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="14">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="13">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="15">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="4">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="6">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="1">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="11">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="10">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="9">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="5">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="7">#REF!</definedName>
+    <definedName name="dimensions_line" localSheetId="8">#REF!</definedName>
     <definedName name="dimensions_line" localSheetId="3">#REF!</definedName>
-    <definedName name="dimensions_line" localSheetId="12">#REF!</definedName>
     <definedName name="dimensions_line">#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">География!$A$25:$F$50</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">География!$A$25:$F$50</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Источники в динамике'!$A$29:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">Конверсия!$A$29:$D$36</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Оглавление!#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">'Поисковой трафик'!$A$29:$G$34</definedName>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Технологии!$A$25:$F$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="8" hidden="1">Технологии!$A$25:$F$30</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Трафик по дням'!$A$37:$G$69</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Трафик по месяцам'!$A$27:$H$39</definedName>
-    <definedName name="ExternalData_1" localSheetId="8" hidden="1">Устройства!$A$26:$F$29</definedName>
-    <definedName name="ExternalData_1" localSheetId="12" hidden="1">'Цели в динамике'!$A$29:$D$36</definedName>
+    <definedName name="ExternalData_1" localSheetId="9" hidden="1">Устройства!$A$26:$F$29</definedName>
     <definedName name="ExternalData_2" localSheetId="4" hidden="1">'Источники в динамике'!#REF!</definedName>
-    <definedName name="ExternalData_2" localSheetId="10">'Поиск. фраза ЯД'!$A$10:$G$40</definedName>
-    <definedName name="ExternalData_2" localSheetId="9" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
+    <definedName name="ExternalData_2" localSheetId="6" hidden="1">Конверсия!#REF!</definedName>
+    <definedName name="ExternalData_2" localSheetId="11">'Поиск. фраза ЯД'!$A$10:$G$40</definedName>
+    <definedName name="ExternalData_2" localSheetId="10" hidden="1">'Поиск. фразы'!$A$10:$F$40</definedName>
     <definedName name="ExternalData_2" localSheetId="5" hidden="1">'Поисковой трафик'!#REF!</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Технологии!$A$47:$F$57</definedName>
+    <definedName name="ExternalData_2" localSheetId="8" hidden="1">Технологии!$A$47:$F$57</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Трафик по дням'!$G$13:$G$14</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Трафик по месяцам'!$A$40:$H$52</definedName>
-    <definedName name="ExternalData_2" localSheetId="12" hidden="1">'Цели в динамике'!#REF!</definedName>
-    <definedName name="ExternalData_3" localSheetId="11" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
-    <definedName name="for_hist_1" localSheetId="6">#REF!</definedName>
+    <definedName name="ExternalData_3" localSheetId="12" hidden="1">'Поп. страницы'!$A$10:$G$35</definedName>
+    <definedName name="for_hist_1" localSheetId="7">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="13">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="14">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="13">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="15">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="4">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="6">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="1">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="11">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="10">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="9">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="5">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="7">#REF!</definedName>
+    <definedName name="for_hist_1" localSheetId="8">#REF!</definedName>
     <definedName name="for_hist_1" localSheetId="3">#REF!</definedName>
-    <definedName name="for_hist_1" localSheetId="12">#REF!</definedName>
     <definedName name="for_hist_1">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="6">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="7">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="13">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="14">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="13">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="15">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="4">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="6">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="1">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="11">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="10">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="9">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="5">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="7">#REF!</definedName>
+    <definedName name="metrics_line" localSheetId="8">#REF!</definedName>
     <definedName name="metrics_line" localSheetId="3">#REF!</definedName>
-    <definedName name="metrics_line" localSheetId="12">#REF!</definedName>
     <definedName name="metrics_line">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">География!$A$1:$F$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">География!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Источники в динамике'!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Конверсия!$A$1:$D$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Оглавление!$A$1:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'Поиск. фраза ЯД'!$A$1:$G$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Поиск. фразы'!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'Поиск. фраза ЯД'!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Поиск. фразы'!$A$1:$F$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Поисковой трафик'!$A$1:$G$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Технологии!$A$1:$F$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Технологии!$A$1:$F$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Трафик по дням'!$A$1:$G$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Трафик по месяцам'!$A$1:$H$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Устройства!$A$1:$F$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'Цели в динамике'!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Устройства!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>Отчет по продвижению сайта</t>
   </si>
@@ -298,12 +298,6 @@
   </si>
   <si>
     <t>Динамика посещаемости по месяцам за 2017 - 2018гг.</t>
-  </si>
-  <si>
-    <t>Техничесие параметры просмотра сайта</t>
-  </si>
-  <si>
-    <t>Популярные страницы сайта (страницы свхода)</t>
   </si>
   <si>
     <t>Поисковой трафик</t>
@@ -550,9 +544,6 @@
     <t>Поисковые фразы (контекстная реклама Яндекс.Директ)</t>
   </si>
   <si>
-    <t>Цели</t>
-  </si>
-  <si>
     <t>Название цели</t>
   </si>
   <si>
@@ -567,6 +558,21 @@
   <si>
     <t>Достижение цели</t>
   </si>
+  <si>
+    <t>Целевые визиты, достижение целей и конверсия сайта.</t>
+  </si>
+  <si>
+    <t>На данной странице представлены основные показатели качества трафика сайта.  
+Целевые визиты – визиты, в рамках которых произошло достижение цели. В качестве цели для каждого сайта выбирают полезное действие посетителя – посещение определённой страницы сайта, покупку, регистрацию, подписку и т.п.
+Достижение цели – выполнение заданного в параметрах цели условия в рамках одного визита посетителя. В течение одного целевого визита может произойти несколько достижений одной цели или достижение нескольких целей. 
+Конверсия – доля целевых визитов в общем числе визитов.
+На графике отображена динамика достижения целей (сумма достижений всех установленных целей на сайте) по месяцам. 
+В таблице представлены данные по целевым визитам, достижениям цели и конверсии за отчетный период.  
+Улучшение видимости сайта в поисковых системах и рост поискового трафика способствуют росту целевых визитов. При условии конкурентоспособных предложений на сайте его показатель конверсии не должен снижаться с ростом посещаемости с поисковых систем. Отрицательная динамика данных показателей может быть связана с привлечением трафика низкого качества с других источников (e-mail рассылка, оффлайн реклама и т.п.), c изменением посещаемости сайта из-за сезонного снижения спроса в тематике, наличием праздничных дней в месяце и т.д.</t>
+  </si>
+  <si>
+    <t>Целевые визиты, достижение целей и конверсия сайта</t>
+  </si>
 </sst>
 </file>
 
@@ -577,12 +583,28 @@
     <numFmt numFmtId="165" formatCode="[$-F400]\h\:\m\m\:\s\s\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,30 +899,30 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -914,21 +936,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,10 +989,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -993,8 +1015,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,7 +1035,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,8 +1043,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1037,13 +1059,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1055,111 +1077,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1171,6 +1197,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,9 +1212,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1191,38 +1220,6 @@
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="105">
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1446,6 +1443,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1456,6 +1456,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1466,6 +1469,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -1476,6 +1482,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="166" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
@@ -1486,6 +1495,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
@@ -1496,6 +1508,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1506,6 +1521,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1516,6 +1534,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1632,6 +1653,38 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3618,6 +3671,326 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Динамика достижения целей по месяцам</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3928258967629052E-2"/>
+          <c:y val="0.15505796150481191"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Данные для цели в динамике'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Достижение цели</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Данные для цели в динамике'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Данные для цели в динамике'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6008-45EF-9F65-771A92624DE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="333199456"/>
+        <c:axId val="333196960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333199456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333196960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333196960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333199456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="ru-RU"/>
               <a:t>География посещений</a:t>
             </a:r>
@@ -3864,7 +4237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4167,7 +4540,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4545,7 +4918,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4759,346 +5132,6 @@
           <c:h val="0.31838357936063361"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.3928258967629052E-2"/>
-          <c:y val="0.15505796150481191"/>
-          <c:w val="0.8966272965879265"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Данные для цели в динамике'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Дата</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Данные для цели в динамике'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6008-45EF-9F65-771A92624DE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Данные для цели в динамике'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Достижение цели</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Данные для цели в динамике'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6008-45EF-9F65-771A92624DE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="333199456"/>
-        <c:axId val="333196960"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="333199456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="333196960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="333196960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="333199456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5412,43 +5445,6 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5488,6 +5484,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7514,6 +7547,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8018,7 +8567,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8537,7 +9086,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9056,7 +9605,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9543,522 +10092,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10142,6 +10175,55 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30691</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3116791" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -10184,7 +10266,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10228,87 +10310,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3106139</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>172370</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3103783" cy="743870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>122902</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>153628</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1802579</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>194596</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10644,6 +10645,87 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3106139</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3103783" cy="743870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122902</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1802579</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>194596</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>395816</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -10715,7 +10797,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10828,7 +10910,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10909,55 +10991,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30691</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>172370</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3116791" cy="743870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
@@ -10975,6 +11008,21 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="Реальное разрешение" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
+      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
@@ -10989,7 +11037,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
@@ -11004,7 +11052,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="7">
@@ -11020,7 +11068,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
@@ -11032,24 +11080,6 @@
       <queryTableField id="6" name="Отказы" tableColumnId="6"/>
       <queryTableField id="7" name="Время на сайте" tableColumnId="7"/>
     </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="19">
-    <queryTableFields count="4">
-      <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
-      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
-      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
-      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
-    </queryTableFields>
-    <queryTableDeletedFields count="3">
-      <deletedField name="Глубина просмотра"/>
-      <deletedField name="Время на сайте"/>
-      <deletedField name="Целевые вызиты"/>
-    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -11131,6 +11161,24 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="19">
+    <queryTableFields count="4">
+      <queryTableField id="1" name="Источник трафика" tableColumnId="1"/>
+      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
+      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
+      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
+    </queryTableFields>
+    <queryTableDeletedFields count="3">
+      <deletedField name="Глубина просмотра"/>
+      <deletedField name="Время на сайте"/>
+      <deletedField name="Целевые вызиты"/>
+    </queryTableDeletedFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
@@ -11145,26 +11193,11 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Полная версия браузера" tableColumnId="1"/>
-      <queryTableField id="2" name="Визиты" tableColumnId="2"/>
-      <queryTableField id="3" name="Посетители" tableColumnId="3"/>
-      <queryTableField id="4" name="Отказы" tableColumnId="4"/>
-      <queryTableField id="5" name="Глубина просмотра" tableColumnId="5"/>
-      <queryTableField id="6" name="Время на сайте" tableColumnId="6"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" name="Реальное разрешение" tableColumnId="1"/>
       <queryTableField id="2" name="Визиты" tableColumnId="2"/>
       <queryTableField id="3" name="Посетители" tableColumnId="3"/>
       <queryTableField id="4" name="Отказы" tableColumnId="4"/>
@@ -11195,75 +11228,77 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A26:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A47:F57"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="33"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="32"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="31"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="30"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="29"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="28"/>
+    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="33"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="32"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="31"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="30"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Поисковые_фразы" displayName="Поисковые_фразы" ref="A10:F40" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A10:F40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Устройства" displayName="Устройства" ref="A26:F29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A26:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="25"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="24"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="1" uniqueName="1" name="Тип устройства" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="26"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Поисковая_фраза_Директ" displayName="Поисковая_фраза_Директ" ref="A10:G40" tableType="queryTable" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A10:G40"/>
-  <tableColumns count="7">
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="20"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="18" dataCellStyle="Процентный"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="16"/>
-    <tableColumn id="1" uniqueName="1" name="Кампания Яндекс.Директа" queryTableFieldId="7" dataDxfId="15"/>
-    <tableColumn id="7" uniqueName="7" name="Условие показа объявления" queryTableFieldId="8" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Поисковые_фразы" displayName="Поисковые_фразы" ref="A10:F40" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A10:F40"/>
+  <tableColumns count="6">
+    <tableColumn id="1" uniqueName="1" name="Поисковая фраза" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="19"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Обычный 2">
-  <autoFilter ref="A10:G35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Поисковая_фраза_Директ" displayName="Поисковая_фраза_Директ" ref="A10:G40" tableType="queryTable" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="A10:G40"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="6" dataCellStyle="Процентный"/>
-    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="13" dataCellStyle="Процентный"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="1" uniqueName="1" name="Кампания Яндекс.Директа" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="7" uniqueName="7" name="Условие показа объявления" queryTableFieldId="8" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Источники14" displayName="Источники14" ref="A29:D36" tableType="queryTable" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A29:D36"/>
-  <tableColumns count="4">
-    <tableColumn id="1" uniqueName="1" name="Название цели" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" uniqueName="2" name="Целевые визиты" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Достижения цели" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" uniqueName="4" name="Конверсия" queryTableFieldId="4" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Популярные_страницы" displayName="Популярные_страницы" ref="A10:G35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Обычный 2">
+  <autoFilter ref="A10:G35"/>
+  <tableColumns count="7">
+    <tableColumn id="1" uniqueName="1" name="Страница входа" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="Просмотры" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="Доля новых посетителей" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="Отказы" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Процентный"/>
+    <tableColumn id="7" uniqueName="7" name="Время на сайте" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11345,45 +11380,43 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A25:F50"/>
-  <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="50"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="49"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="48"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="47"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Источники14" displayName="Источники14" ref="A29:D36" tableType="queryTable" totalsRowShown="0" dataDxfId="51">
+  <autoFilter ref="A29:D36"/>
+  <tableColumns count="4">
+    <tableColumn id="1" uniqueName="1" name="Название цели" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" uniqueName="2" name="Целевые визиты" queryTableFieldId="2" dataDxfId="49"/>
+    <tableColumn id="3" uniqueName="3" name="Достижения цели" queryTableFieldId="3" dataDxfId="48"/>
+    <tableColumn id="4" uniqueName="4" name="Конверсия" queryTableFieldId="4" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A25:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Geography" displayName="Geography" ref="A25:F50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A25:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="45"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="44"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="43"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="41"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="40"/>
+    <tableColumn id="1" uniqueName="1" name="Город" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="45"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="44"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="43"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="42"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Разрешение" displayName="Разрешение" ref="A47:F57" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A47:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Браузеры" displayName="Браузеры" ref="A25:F30" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A25:F30"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Реальное разрешение" queryTableFieldId="1" dataDxfId="39"/>
-    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="38"/>
-    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="37"/>
-    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="36"/>
-    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="35"/>
-    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="34"/>
+    <tableColumn id="1" uniqueName="1" name="Полная версия браузера" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="2" uniqueName="2" name="Визиты" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn id="3" uniqueName="3" name="Посетители" queryTableFieldId="3" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="Отказы" queryTableFieldId="4" dataDxfId="37"/>
+    <tableColumn id="5" uniqueName="5" name="Глубина просмотра" queryTableFieldId="5" dataDxfId="36"/>
+    <tableColumn id="6" uniqueName="6" name="Время на сайте" queryTableFieldId="6" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11658,7 +11691,7 @@
   </sheetPr>
   <dimension ref="C1:I41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -11733,14 +11766,136 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист11">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:F37"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+    </row>
+    <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="56"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист12">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11759,7 +11914,7 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="98"/>
+      <c r="C3" s="94"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -11770,24 +11925,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="8" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
@@ -12063,7 +12218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист13">
     <tabColor rgb="FF00B050"/>
@@ -12071,7 +12226,7 @@
   <dimension ref="A2:H40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A11" sqref="A11:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12102,16 +12257,16 @@
       <c r="H4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="A6" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="89"/>
@@ -12124,16 +12279,16 @@
       <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
+      <c r="A8" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -12146,297 +12301,297 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>61</v>
+      <c r="F10" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12455,16 +12610,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист14">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12518,15 +12671,15 @@
       <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
@@ -12561,7 +12714,7 @@
       <c r="B11" s="78"/>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
-      <c r="E11" s="94"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
     </row>
@@ -12570,7 +12723,7 @@
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
-      <c r="E12" s="94"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
     </row>
@@ -12579,7 +12732,7 @@
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
-      <c r="E13" s="94"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
     </row>
@@ -12588,7 +12741,7 @@
       <c r="B14" s="78"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
-      <c r="E14" s="94"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
     </row>
@@ -12597,7 +12750,7 @@
       <c r="B15" s="78"/>
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
-      <c r="E15" s="94"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
     </row>
@@ -12606,7 +12759,7 @@
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
-      <c r="E16" s="94"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="79"/>
       <c r="G16" s="80"/>
     </row>
@@ -12615,7 +12768,7 @@
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
-      <c r="E17" s="94"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
     </row>
@@ -12624,7 +12777,7 @@
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
     </row>
@@ -12633,7 +12786,7 @@
       <c r="B19" s="78"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="94"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="79"/>
       <c r="G19" s="80"/>
     </row>
@@ -12642,7 +12795,7 @@
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="94"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="79"/>
       <c r="G20" s="80"/>
     </row>
@@ -12651,7 +12804,7 @@
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="94"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
     </row>
@@ -12660,7 +12813,7 @@
       <c r="B22" s="78"/>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="94"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
     </row>
@@ -12669,7 +12822,7 @@
       <c r="B23" s="78"/>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="94"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="79"/>
       <c r="G23" s="80"/>
     </row>
@@ -12678,7 +12831,7 @@
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
     </row>
@@ -12687,7 +12840,7 @@
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
-      <c r="E25" s="94"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="79"/>
       <c r="G25" s="80"/>
     </row>
@@ -12696,7 +12849,7 @@
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
-      <c r="E26" s="94"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="79"/>
       <c r="G26" s="80"/>
     </row>
@@ -12705,7 +12858,7 @@
       <c r="B27" s="78"/>
       <c r="C27" s="78"/>
       <c r="D27" s="78"/>
-      <c r="E27" s="94"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="79"/>
       <c r="G27" s="80"/>
     </row>
@@ -12714,7 +12867,7 @@
       <c r="B28" s="82"/>
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
-      <c r="E28" s="95"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="79"/>
       <c r="G28" s="80"/>
     </row>
@@ -12723,7 +12876,7 @@
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
       <c r="D29" s="82"/>
-      <c r="E29" s="95"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="79"/>
       <c r="G29" s="80"/>
     </row>
@@ -12732,7 +12885,7 @@
       <c r="B30" s="82"/>
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
-      <c r="E30" s="95"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="79"/>
       <c r="G30" s="80"/>
     </row>
@@ -12741,7 +12894,7 @@
       <c r="B31" s="82"/>
       <c r="C31" s="82"/>
       <c r="D31" s="82"/>
-      <c r="E31" s="95"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="79"/>
       <c r="G31" s="80"/>
     </row>
@@ -12750,7 +12903,7 @@
       <c r="B32" s="82"/>
       <c r="C32" s="82"/>
       <c r="D32" s="82"/>
-      <c r="E32" s="95"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="79"/>
       <c r="G32" s="80"/>
     </row>
@@ -12759,7 +12912,7 @@
       <c r="B33" s="82"/>
       <c r="C33" s="82"/>
       <c r="D33" s="82"/>
-      <c r="E33" s="95"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="79"/>
       <c r="G33" s="80"/>
     </row>
@@ -12768,7 +12921,7 @@
       <c r="B34" s="82"/>
       <c r="C34" s="82"/>
       <c r="D34" s="82"/>
-      <c r="E34" s="95"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="79"/>
       <c r="G34" s="80"/>
     </row>
@@ -12777,7 +12930,7 @@
       <c r="B35" s="82"/>
       <c r="C35" s="82"/>
       <c r="D35" s="82"/>
-      <c r="E35" s="95"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="79"/>
       <c r="G35" s="80"/>
     </row>
@@ -12794,181 +12947,481 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A2:H38"/>
+  <sheetPr codeName="Лист15"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="98"/>
-      <c r="E3" s="98"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="110"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="105"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="83"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A6:D6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:O25"/>
@@ -13029,431 +13482,431 @@
       <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист15"/>
-  <dimension ref="A1:O25"/>
+  <sheetPr codeName="Лист16"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O25"/>
+      <selection activeCell="B13" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="111" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
@@ -13465,1207 +13918,733 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="83"/>
+      <c r="B1" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист16"/>
-  <dimension ref="A1:O100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="114" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="115" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="113"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="113"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="113"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="113"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="117"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="113"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="113"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
-      <c r="B42" s="117"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="113"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="116"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="113"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="116"/>
-      <c r="B44" s="117"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="113"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="113"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
-      <c r="B46" s="117"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="113"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
-      <c r="B47" s="117"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="113"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
-      <c r="B48" s="117"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="113"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
-      <c r="B49" s="117"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="113"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="116"/>
-      <c r="B50" s="117"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="113"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
-      <c r="B51" s="117"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="116"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="113"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="116"/>
-      <c r="B53" s="117"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="113"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="113"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
-      <c r="B55" s="117"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="113"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
-      <c r="B56" s="117"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="113"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="116"/>
-      <c r="B57" s="117"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="113"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="116"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="113"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="116"/>
-      <c r="B59" s="117"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="113"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="116"/>
-      <c r="B60" s="117"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="113"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="113"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="116"/>
-      <c r="B62" s="117"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="113"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="117"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="113"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="113"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="116"/>
-      <c r="B65" s="117"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="113"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="116"/>
-      <c r="B66" s="117"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="113"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="116"/>
-      <c r="B67" s="117"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="113"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="116"/>
-      <c r="B68" s="117"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="113"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="116"/>
-      <c r="B69" s="117"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="113"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="116"/>
-      <c r="B70" s="117"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="113"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="116"/>
-      <c r="B71" s="117"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="113"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="116"/>
-      <c r="B72" s="117"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="113"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="116"/>
-      <c r="B73" s="117"/>
+      <c r="A73" s="112"/>
+      <c r="B73" s="113"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="116"/>
-      <c r="B74" s="117"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="113"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="116"/>
-      <c r="B75" s="117"/>
+      <c r="A75" s="112"/>
+      <c r="B75" s="113"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="116"/>
-      <c r="B76" s="117"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="113"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="116"/>
-      <c r="B77" s="117"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="113"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="116"/>
-      <c r="B78" s="117"/>
+      <c r="A78" s="112"/>
+      <c r="B78" s="113"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="116"/>
-      <c r="B79" s="117"/>
+      <c r="A79" s="112"/>
+      <c r="B79" s="113"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="116"/>
-      <c r="B80" s="117"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="113"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="116"/>
-      <c r="B81" s="117"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="113"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="116"/>
-      <c r="B82" s="117"/>
+      <c r="A82" s="112"/>
+      <c r="B82" s="113"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="116"/>
-      <c r="B83" s="117"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="113"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="116"/>
-      <c r="B84" s="117"/>
+      <c r="A84" s="112"/>
+      <c r="B84" s="113"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="116"/>
-      <c r="B85" s="117"/>
+      <c r="A85" s="112"/>
+      <c r="B85" s="113"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="116"/>
-      <c r="B86" s="117"/>
+      <c r="A86" s="112"/>
+      <c r="B86" s="113"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="116"/>
-      <c r="B87" s="117"/>
+      <c r="A87" s="112"/>
+      <c r="B87" s="113"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="116"/>
-      <c r="B88" s="117"/>
+      <c r="A88" s="112"/>
+      <c r="B88" s="113"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="116"/>
-      <c r="B89" s="117"/>
+      <c r="A89" s="112"/>
+      <c r="B89" s="113"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="116"/>
-      <c r="B90" s="117"/>
+      <c r="A90" s="112"/>
+      <c r="B90" s="113"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="116"/>
-      <c r="B91" s="117"/>
+      <c r="A91" s="112"/>
+      <c r="B91" s="113"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="116"/>
-      <c r="B92" s="117"/>
+      <c r="A92" s="112"/>
+      <c r="B92" s="113"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="116"/>
-      <c r="B93" s="117"/>
+      <c r="A93" s="112"/>
+      <c r="B93" s="113"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="116"/>
-      <c r="B94" s="117"/>
+      <c r="A94" s="112"/>
+      <c r="B94" s="113"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="116"/>
-      <c r="B95" s="117"/>
+      <c r="A95" s="112"/>
+      <c r="B95" s="113"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="116"/>
-      <c r="B96" s="117"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="113"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="116"/>
-      <c r="B97" s="117"/>
+      <c r="A97" s="112"/>
+      <c r="B97" s="113"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="116"/>
-      <c r="B98" s="117"/>
+      <c r="A98" s="112"/>
+      <c r="B98" s="113"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="116"/>
-      <c r="B99" s="117"/>
+      <c r="A99" s="112"/>
+      <c r="B99" s="113"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="116"/>
-      <c r="B100" s="117"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14681,7 +14660,7 @@
   <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -14701,7 +14680,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="98"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -14713,23 +14692,23 @@
       <c r="G4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="118"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -14762,7 +14741,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="119" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="12"/>
@@ -14790,7 +14769,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="87" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -14799,7 +14778,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="87" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -14808,7 +14787,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="87" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -14817,7 +14796,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="87" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -14826,7 +14805,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="87" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -14835,7 +14814,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="87" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -14843,7 +14822,9 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
-      <c r="C22" s="87"/>
+      <c r="C22" s="87" t="s">
+        <v>37</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -14877,95 +14858,95 @@
     </row>
     <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
     </row>
     <row r="28" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
     </row>
     <row r="29" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
     </row>
     <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
     </row>
     <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
     </row>
     <row r="36" spans="1:7" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
@@ -14981,15 +14962,16 @@
     <mergeCell ref="B27:G36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C13" location="'Общие по месяцу'!A1" display="Динамика посещаемости по месяцам за 2017 - 2018"/>
-    <hyperlink ref="C14" location="'Посещ-сть по месяцам'!A1" display="Динамика посещаемости по месяцам за 2017 - 2018гг."/>
-    <hyperlink ref="C15" location="'Источники, сводка'!A1" display="Источники трафика и целевые визиты на сайт (лиды)"/>
-    <hyperlink ref="C16" location="География!A1" display="География посещений"/>
-    <hyperlink ref="C17" location="Технологии!A1" display="Техничесие параметры просмотра сайта"/>
-    <hyperlink ref="C18" location="Устройства!A1" display="Устройства просмотра сайта"/>
-    <hyperlink ref="C19" location="'Поиск. фразы'!A1" display="Поисковые фразы"/>
-    <hyperlink ref="C20" location="'Поп. страницы'!A1" display="Популярные страницы сайта (страницы свхода)"/>
-    <hyperlink ref="C21" location="'Поисковой трафик'!A1" display="Поисковой трафик"/>
+    <hyperlink ref="C13" location="'Трафик по дням'!A1" display="Посещаемость сайта за отчетный период и конверсии"/>
+    <hyperlink ref="C14" location="'Трафик по месяцам'!A1" display="Динамика посещаемости по месяцам за 2017 - 2018гг."/>
+    <hyperlink ref="C15" location="'Источники в динамике'!A1" display="Источники трафика и целевые визиты на сайт (лиды)"/>
+    <hyperlink ref="C16" location="'Поисковой трафик'!A1" display="Поисковой трафик"/>
+    <hyperlink ref="C17" location="Конверсия!A1" display="Целевые визиты, достижение целей и конверсия сайта"/>
+    <hyperlink ref="C18" location="География!A1" display="География посещений"/>
+    <hyperlink ref="C19" location="Технологии!A1" display="Технические параметры просмотра сайта"/>
+    <hyperlink ref="C20" location="Устройства!A1" display="Устройства просмотра сайта"/>
+    <hyperlink ref="C21" location="'Поиск. фразы'!A1" display="Поисковые фразы"/>
+    <hyperlink ref="C22" location="'Поп. страницы'!A1" display="Популярные страницы сайта (страницы входа)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
@@ -15004,9 +14986,7 @@
   </sheetPr>
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15027,7 +15007,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="98"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -15040,26 +15020,26 @@
       <c r="H4" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
+      <c r="A6" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
+      <c r="A8" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
       <c r="H8" s="18"/>
       <c r="I8" t="s">
         <v>6</v>
@@ -15090,7 +15070,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="126" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -15113,7 +15093,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="27">
         <f>SUM(Общие_показатели_по_месяцу[Визиты])</f>
         <v>0</v>
@@ -15143,7 +15123,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -15489,9 +15469,7 @@
   </sheetPr>
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15511,7 +15489,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="98"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
@@ -15524,37 +15502,37 @@
       <c r="H4" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="118" t="str">
+      <c r="A6" s="120" t="str">
         <f ca="1">CONCATENATE("Динамика посещаемости по месяцам за ",YEAR(J6)-1, " - ", YEAR(J6), "гг.")</f>
         <v>Динамика посещаемости по месяцам за 2017 - 2018гг.</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
       <c r="J6" s="45">
         <f ca="1">TODAY()</f>
-        <v>43375</v>
+        <v>43376</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+      <c r="A9" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15876,9 +15854,7 @@
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15901,7 +15877,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="98"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -15913,31 +15889,31 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
+      <c r="A8" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -16009,13 +15985,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16039,9 +16015,7 @@
   </sheetPr>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16064,7 +16038,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="98"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -16076,31 +16050,31 @@
       <c r="G4" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
+      <c r="A6" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
+      <c r="A8" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -16172,13 +16146,13 @@
       <c r="G34" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16197,14 +16171,186 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:H38"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="94"/>
+      <c r="E3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="8" spans="1:8" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="108"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист9">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16233,24 +16379,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="8" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -16486,16 +16632,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист10">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16524,24 +16668,24 @@
       <c r="F4" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -16719,130 +16863,4 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист11">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A2:F37"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-    </row>
-    <row r="8" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="56"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="56"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="61"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
 </file>